--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -44,7 +44,55 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 9:14 AM</t>
+    <t>THYROXINE 100MCG 100 TAB.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>URSOFALK 250MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t>سيتي بيبي رقم 4</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>Sunday, 5 October, 2025 9:40 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -254,10 +302,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -266,7 +314,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -674,56 +722,169 @@
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c t="s" r="C7" s="8">
+        <v>11</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c t="s" r="H7" s="9">
+        <v>12</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
+      <c t="s" r="L7" s="10">
+        <v>13</v>
+      </c>
       <c r="M7" s="10"/>
-      <c r="N7" s="8"/>
+      <c t="s" r="N7" s="8">
+        <v>14</v>
+      </c>
       <c r="O7" s="8"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
+      <c t="s" r="P7" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q7" s="12">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>16</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>13</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>18</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>16</v>
+      </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>11</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>20</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>16</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>21</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>22</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>23</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>24</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
         <v>12</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
-        <v>13</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>21</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>25</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>26</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="P11" s="13">
+        <v>385</v>
+      </c>
+      <c r="Q11" s="13"/>
+    </row>
+    <row r="12" ht="16.5" customHeight="1">
+      <c t="s" r="A12" s="14">
+        <v>27</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c t="s" r="G12" s="15">
+        <v>28</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c t="s" r="K12" s="17">
+        <v>29</v>
+      </c>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="32">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -737,10 +898,25 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="K12:Q12"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -71,12 +71,24 @@
     <t>122.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>سيتي بيبي رقم 4</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>190.00</t>
   </si>
   <si>
@@ -92,7 +104,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 9:40 AM</t>
+    <t>Sunday, 5 October, 2025 9:42 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -799,21 +811,21 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -825,66 +837,99 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
-      <c r="P11" s="13">
-        <v>385</v>
-      </c>
-      <c r="Q11" s="13"/>
-    </row>
-    <row r="12" ht="16.5" customHeight="1">
-      <c t="s" r="A12" s="14">
-        <v>27</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c t="s" r="G12" s="15">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
         <v>28</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c t="s" r="K12" s="17">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>12</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>22</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
         <v>29</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>30</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="P12" s="13">
+        <v>410</v>
+      </c>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1">
+      <c t="s" r="A13" s="14">
+        <v>31</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c t="s" r="G13" s="15">
+        <v>32</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c t="s" r="K13" s="17">
+        <v>33</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="37">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -913,10 +958,15 @@
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:Q13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>BUDEXAN 0.5 MG/2ML 20 SUSP. AMP. FOR INH</t>
+  </si>
+  <si>
+    <t>0:15</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>398.00</t>
+  </si>
+  <si>
+    <t>39.8000</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>THYROXINE 100MCG 100 TAB.</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>58.00</t>
   </si>
   <si>
@@ -86,6 +101,24 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t>سيتي بيبي رقم 4</t>
   </si>
   <si>
@@ -104,7 +137,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 9:42 AM</t>
+    <t>Sunday, 5 October, 2025 9:58 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -778,7 +811,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -788,14 +821,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -804,7 +837,7 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -817,7 +850,7 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -828,7 +861,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -844,24 +877,24 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -870,66 +903,165 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>410</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
-        <v>31</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
-        <v>32</v>
-      </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
         <v>33</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>18</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>27</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>34</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>36</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>21</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>27</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>37</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>39</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>18</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>27</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>40</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="P15" s="13">
+        <v>456.80000000000001</v>
+      </c>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="1">
+      <c t="s" r="A16" s="14">
+        <v>42</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c t="s" r="G16" s="15">
+        <v>43</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c t="s" r="K16" s="17">
+        <v>44</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="52">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -963,10 +1095,25 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="K16:Q16"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>THYROXINE 100MCG 100 TAB.</t>
   </si>
   <si>
@@ -74,9 +89,6 @@
     <t>58.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>URSOFALK 250MG 20 CAPS.</t>
   </si>
   <si>
@@ -137,7 +149,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 9:58 AM</t>
+    <t>Sunday, 5 October, 2025 10:15 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -844,7 +856,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -854,11 +866,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>21</v>
@@ -870,28 +882,28 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>21</v>
@@ -903,28 +915,28 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>21</v>
@@ -936,28 +948,28 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>21</v>
@@ -969,28 +981,28 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>21</v>
@@ -1002,66 +1014,99 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
-      <c r="P15" s="13">
-        <v>456.80000000000001</v>
-      </c>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c t="s" r="A16" s="14">
-        <v>42</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c t="s" r="G16" s="15">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
         <v>43</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c t="s" r="K16" s="17">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>23</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>31</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
         <v>44</v>
       </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="P16" s="13">
+        <v>489.80000000000001</v>
+      </c>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c t="s" r="A17" s="14">
+        <v>46</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c t="s" r="G17" s="15">
+        <v>47</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c t="s" r="K17" s="17">
+        <v>48</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="57">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1110,10 +1155,15 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="K17:Q17"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -149,7 +149,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 10:15 AM</t>
+    <t>Sunday, 5 October, 2025 10:47 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -44,22 +44,79 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ANGIOFOX (EFFOX) 25MG LONG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>BLOKATENS 10/160MG 28 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>160.0000</t>
+  </si>
+  <si>
     <t>BUDEXAN 0.5 MG/2ML 20 SUSP. AMP. FOR INH</t>
   </si>
   <si>
     <t>0:15</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>398.00</t>
   </si>
   <si>
     <t>39.8000</t>
   </si>
   <si>
-    <t>0:2</t>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
   </si>
   <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
@@ -74,15 +131,30 @@
     <t>33.0000</t>
   </si>
   <si>
-    <t>1:0</t>
+    <t>GINKGO BILOBA 30 CAPS.</t>
+  </si>
+  <si>
+    <t>186.00</t>
+  </si>
+  <si>
+    <t>186.0000</t>
+  </si>
+  <si>
+    <t>MILGA ADVANCE 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
   </si>
   <si>
     <t>THYROXINE 100MCG 100 TAB.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>58.00</t>
   </si>
   <si>
@@ -98,6 +170,15 @@
     <t>122.0000</t>
   </si>
   <si>
+    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>175.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
@@ -149,7 +230,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 10:47 AM</t>
+    <t>Sunday, 5 October, 2025 10:58 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -840,7 +921,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -849,14 +930,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -866,14 +947,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -882,14 +963,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -906,7 +987,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -928,18 +1009,18 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -948,31 +1029,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -981,20 +1062,20 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1005,7 +1086,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1021,13 +1102,13 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1038,7 +1119,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1054,59 +1135,323 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
-      <c r="P16" s="13">
-        <v>489.80000000000001</v>
-      </c>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c t="s" r="A17" s="14">
-        <v>46</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c t="s" r="G17" s="15">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
         <v>47</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c t="s" r="K17" s="17">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>22</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>13</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
         <v>48</v>
       </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>49</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>50</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>16</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>13</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>51</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>53</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>16</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>13</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>54</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>56</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>57</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>58</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>59</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>61</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>22</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>58</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>62</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>64</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>22</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>58</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>65</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>67</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>16</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>58</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>68</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>70</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>22</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>58</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>71</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="P24" s="13">
+        <v>1501.8</v>
+      </c>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" ht="16.5" customHeight="1">
+      <c t="s" r="A25" s="14">
+        <v>73</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c t="s" r="G25" s="15">
+        <v>74</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
+      <c t="s" r="K25" s="17">
+        <v>75</v>
+      </c>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="97">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1160,10 +1505,50 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="K25:Q25"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -230,7 +230,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 10:58 AM</t>
+    <t>Sunday, 5 October, 2025 11:05 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -140,6 +140,18 @@
     <t>186.0000</t>
   </si>
   <si>
+    <t>LICID LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>MILGA ADVANCE 30 F.C. TABS</t>
   </si>
   <si>
@@ -230,7 +242,19 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 11:05 AM</t>
+    <t>كريم فيرند لافلي الكبير</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>Sunday, 5 October, 2025 11:06 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1168,7 +1192,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1178,11 +1202,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1194,14 +1218,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1211,11 +1235,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1227,7 +1251,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1244,11 +1268,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1260,28 +1284,28 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1293,28 +1317,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1326,7 +1350,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1339,15 +1363,15 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1359,28 +1383,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1392,66 +1416,132 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
-      <c r="P24" s="13">
-        <v>1501.8</v>
-      </c>
-      <c r="Q24" s="13"/>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c t="s" r="A25" s="14">
-        <v>73</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c t="s" r="G25" s="15">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
         <v>74</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
-      <c t="s" r="K25" s="17">
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>22</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>62</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
         <v>75</v>
       </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>77</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>61</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>62</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>78</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="P26" s="13">
+        <v>1611.8</v>
+      </c>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" ht="16.5" customHeight="1">
+      <c t="s" r="A27" s="14">
+        <v>81</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c t="s" r="G27" s="15">
+        <v>82</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c t="s" r="K27" s="17">
+        <v>83</v>
+      </c>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="97">
+  <mergeCells count="107">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1545,10 +1635,20 @@
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:Q27"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -131,6 +131,15 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>EUTHYROX 100MCG 50 TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>GINKGO BILOBA 30 CAPS.</t>
   </si>
   <si>
@@ -206,6 +215,9 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>جل صبار للبشره</t>
+  </si>
+  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -233,15 +245,21 @@
     <t>190.0000</t>
   </si>
   <si>
+    <t>فرشه اسنان POWER GOLD كبار</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>كريم فيرند لافلي الكبير</t>
   </si>
   <si>
@@ -254,7 +272,7 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 11:06 AM</t>
+    <t>Sunday, 5 October, 2025 11:12 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1126,7 +1144,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1143,7 +1161,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1159,7 +1177,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1169,11 +1187,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1185,14 +1203,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1202,11 +1220,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1218,14 +1236,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1258,7 +1276,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1324,21 +1342,21 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1350,20 +1368,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1396,15 +1414,15 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1416,28 +1434,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1449,7 +1467,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1462,15 +1480,15 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1482,66 +1500,165 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>77</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>78</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
         <v>79</v>
       </c>
-      <c t="s" r="Q25" s="12">
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>65</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
         <v>80</v>
       </c>
-    </row>
-    <row r="26" ht="25.5" customHeight="1">
-      <c r="P26" s="13">
-        <v>1611.8</v>
-      </c>
-      <c r="Q26" s="13"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c t="s" r="A27" s="14">
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
         <v>81</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c t="s" r="G27" s="15">
+      <c t="s" r="Q26" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
         <v>82</v>
       </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
-      <c t="s" r="K27" s="17">
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>22</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>65</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>80</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
         <v>83</v>
       </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>64</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>65</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>84</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="P29" s="13">
+        <v>1686.8</v>
+      </c>
+      <c r="Q29" s="13"/>
+    </row>
+    <row r="30" ht="16.5" customHeight="1">
+      <c t="s" r="A30" s="14">
+        <v>87</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c t="s" r="G30" s="15">
+        <v>88</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c t="s" r="K30" s="17">
+        <v>89</v>
+      </c>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="122">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1645,10 +1762,25 @@
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="K30:Q30"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -272,7 +272,7 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 11:12 AM</t>
+    <t>Sunday, 5 October, 2025 11:14 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -272,7 +272,7 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 11:14 AM</t>
+    <t>Sunday, 5 October, 2025 11:16 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -272,7 +272,7 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 11:16 AM</t>
+    <t>Sunday, 5 October, 2025 11:25 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -98,6 +98,18 @@
     <t>39.8000</t>
   </si>
   <si>
+    <t>CARBAMIDE 10% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
@@ -155,12 +167,6 @@
     <t>3:0</t>
   </si>
   <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
     <t>MILGA ADVANCE 30 F.C. TABS</t>
   </si>
   <si>
@@ -267,9 +273,6 @@
   </si>
   <si>
     <t>70.0000</t>
-  </si>
-  <si>
-    <t>2:0</t>
   </si>
   <si>
     <t>Sunday, 5 October, 2025 11:25 AM</t>
@@ -1078,7 +1081,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1088,11 +1091,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1104,14 +1107,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1144,7 +1147,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1154,14 +1157,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1170,14 +1173,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1187,14 +1190,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1203,14 +1206,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1253,11 +1256,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1269,14 +1272,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1286,11 +1289,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1302,14 +1305,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1319,11 +1322,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1335,7 +1338,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1352,11 +1355,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1368,28 +1371,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1401,28 +1404,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1434,7 +1437,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1447,15 +1450,15 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1467,7 +1470,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1480,15 +1483,15 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1500,28 +1503,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1533,28 +1536,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1566,28 +1569,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1599,66 +1602,99 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
         <v>85</v>
       </c>
-      <c t="s" r="Q28" s="12">
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>66</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>67</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
         <v>86</v>
       </c>
-    </row>
-    <row r="29" ht="25.5" customHeight="1">
-      <c r="P29" s="13">
-        <v>1686.8</v>
-      </c>
-      <c r="Q29" s="13"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c t="s" r="A30" s="14">
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
         <v>87</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c t="s" r="G30" s="15">
+      <c t="s" r="Q29" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="P30" s="13">
+        <v>1726.8</v>
+      </c>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c t="s" r="A31" s="14">
         <v>88</v>
       </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
-      <c t="s" r="K30" s="17">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c t="s" r="G31" s="15">
         <v>89</v>
       </c>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c t="s" r="K31" s="17">
+        <v>90</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="122">
+  <mergeCells count="127">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1777,10 +1813,15 @@
     <mergeCell ref="H28:K28"/>
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:Q31"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -122,6 +122,18 @@
     <t>86.0000</t>
   </si>
   <si>
+    <t>CIDOPHAGE 1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>COLOVATIL 30 F.C. TABS</t>
   </si>
   <si>
@@ -275,7 +287,7 @@
     <t>70.0000</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 11:25 AM</t>
+    <t>Sunday, 5 October, 2025 11:30 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1114,7 +1126,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1124,14 +1136,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1140,14 +1152,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1180,7 +1192,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1190,14 +1202,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1206,14 +1218,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1223,14 +1235,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1239,14 +1251,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1256,11 +1268,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1272,14 +1284,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1289,11 +1301,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1312,7 +1324,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1322,11 +1334,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1338,14 +1350,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1355,11 +1367,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1371,7 +1383,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1388,11 +1400,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1404,28 +1416,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1437,28 +1449,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1470,7 +1482,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1483,7 +1495,7 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1503,7 +1515,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1516,15 +1528,15 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1536,28 +1548,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1569,20 +1581,20 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1609,21 +1621,21 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1635,20 +1647,20 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1659,42 +1671,75 @@
         <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>89</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>70</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>71</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>90</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>30</v>
       </c>
     </row>
-    <row r="30" ht="24.75" customHeight="1">
-      <c r="P30" s="13">
-        <v>1726.8</v>
-      </c>
-      <c r="Q30" s="13"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c t="s" r="A31" s="14">
-        <v>88</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c t="s" r="G31" s="15">
-        <v>89</v>
-      </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c t="s" r="K31" s="17">
-        <v>90</v>
-      </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="P31" s="13">
+        <v>1743.6300000000001</v>
+      </c>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c t="s" r="A32" s="14">
+        <v>92</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c t="s" r="G32" s="15">
+        <v>93</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c t="s" r="K32" s="17">
+        <v>94</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="127">
+  <mergeCells count="132">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1818,10 +1863,15 @@
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -287,7 +287,7 @@
     <t>70.0000</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 11:30 AM</t>
+    <t>Sunday, 5 October, 2025 11:35 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -216,6 +216,15 @@
   </si>
   <si>
     <t>175.0000</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
   </si>
   <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
@@ -1456,21 +1465,21 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1482,28 +1491,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1515,7 +1524,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1528,15 +1537,15 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1561,7 +1570,7 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1588,13 +1597,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1621,21 +1630,21 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1647,28 +1656,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1680,66 +1689,99 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>92</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>73</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>74</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>93</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q31" s="12">
         <v>30</v>
       </c>
     </row>
-    <row r="31" ht="25.5" customHeight="1">
-      <c r="P31" s="13">
-        <v>1743.6300000000001</v>
-      </c>
-      <c r="Q31" s="13"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c t="s" r="A32" s="14">
-        <v>92</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c t="s" r="G32" s="15">
-        <v>93</v>
-      </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c t="s" r="K32" s="17">
-        <v>94</v>
-      </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="P32" s="13">
+        <v>1839.6300000000001</v>
+      </c>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1">
+      <c t="s" r="A33" s="14">
+        <v>95</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c t="s" r="G33" s="15">
+        <v>96</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c t="s" r="K33" s="17">
+        <v>97</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="137">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1868,10 +1910,15 @@
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:Q33"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -110,6 +110,18 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>CARVID 6.25MG 30TAB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>14.8500</t>
+  </si>
+  <si>
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
@@ -155,6 +167,21 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>CONVENTIN 300MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>CYNCHOLINE PLUS 20 CAPS.</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>11.0000</t>
+  </si>
+  <si>
     <t>EUTHYROX 100MCG 50 TAB.</t>
   </si>
   <si>
@@ -164,6 +191,15 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">FLAMOGEST  30TABS</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>64.3500</t>
+  </si>
+  <si>
     <t>GINKGO BILOBA 30 CAPS.</t>
   </si>
   <si>
@@ -173,6 +209,15 @@
     <t>186.0000</t>
   </si>
   <si>
+    <t>HUSH SACHET</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
     <t>LICID LOTION 30 ML</t>
   </si>
   <si>
@@ -233,9 +278,6 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>25.00</t>
   </si>
   <si>
@@ -296,7 +338,7 @@
     <t>70.0000</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 11:35 AM</t>
+    <t>Sunday, 5 October, 2025 11:57 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1102,13 +1144,13 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1119,7 +1161,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1152,7 +1194,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1168,7 +1210,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1178,14 +1220,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1194,14 +1236,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1234,7 +1276,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1244,14 +1286,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1260,14 +1302,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1277,14 +1319,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1300,7 +1342,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1310,14 +1352,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1326,14 +1368,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1350,7 +1392,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1366,13 +1408,13 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1383,7 +1425,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1399,7 +1441,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1432,13 +1474,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1465,7 +1507,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1475,11 +1517,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1491,28 +1533,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1524,7 +1566,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1537,15 +1579,15 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1564,13 +1606,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1597,13 +1639,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1630,13 +1672,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1669,7 +1711,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1702,7 +1744,7 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1729,13 +1771,13 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1746,42 +1788,207 @@
         <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>95</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>22</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>34</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>96</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>98</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>16</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>34</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>99</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>101</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>102</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>34</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>103</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>105</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>22</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>34</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>103</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" ht="25.5" customHeight="1">
-      <c r="P32" s="13">
-        <v>1839.6300000000001</v>
-      </c>
-      <c r="Q32" s="13"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c t="s" r="A33" s="14">
-        <v>95</v>
-      </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c t="s" r="G33" s="15">
-        <v>96</v>
-      </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c t="s" r="K33" s="17">
-        <v>97</v>
-      </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>106</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>88</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>34</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>107</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="P37" s="13">
+        <v>2097.4499999999998</v>
+      </c>
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="38" ht="16.5" customHeight="1">
+      <c t="s" r="A38" s="14">
+        <v>109</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c t="s" r="G38" s="15">
+        <v>110</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c t="s" r="K38" s="17">
+        <v>111</v>
+      </c>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="162">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1915,10 +2122,35 @@
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="K38:Q38"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -338,7 +338,7 @@
     <t>70.0000</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 11:57 AM</t>
+    <t>Sunday, 5 October, 2025 11:58 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -338,7 +338,7 @@
     <t>70.0000</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 11:58 AM</t>
+    <t>Sunday, 5 October, 2025 11:59 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ANGIOFOX (EFFOX) 25MG LONG 30 CAPS.</t>
   </si>
   <si>
     <t>0:2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>114.00</t>
   </si>
   <si>
@@ -65,9 +80,6 @@
     <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>78.00</t>
   </si>
   <si>
@@ -182,6 +194,18 @@
     <t>11.0000</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>8:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>EUTHYROX 100MCG 50 TAB.</t>
   </si>
   <si>
@@ -209,6 +233,18 @@
     <t>186.0000</t>
   </si>
   <si>
+    <t>GLYCERIN INFANTILE 10 SUPP. (GLAXO)</t>
+  </si>
+  <si>
+    <t>34:0</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>9.5000</t>
+  </si>
+  <si>
     <t>HUSH SACHET</t>
   </si>
   <si>
@@ -338,7 +374,7 @@
     <t>70.0000</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 11:59 AM</t>
+    <t>Sunday, 5 October, 2025 12:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1029,7 +1065,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1038,14 +1074,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1062,7 +1098,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1095,7 +1131,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1128,7 +1164,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1144,13 +1180,13 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1161,7 +1197,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1177,13 +1213,13 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1227,7 +1263,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1243,7 +1279,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1253,11 +1289,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1269,14 +1305,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1293,7 +1329,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1309,7 +1345,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1319,14 +1355,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1335,7 +1371,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1352,14 +1388,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1368,14 +1404,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1385,14 +1421,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1401,31 +1437,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1434,14 +1470,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1451,11 +1487,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1467,28 +1503,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1500,14 +1536,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1517,14 +1553,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1533,14 +1569,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1550,11 +1586,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1566,31 +1602,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1599,14 +1635,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1616,14 +1652,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1632,14 +1668,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1649,14 +1685,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1665,14 +1701,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1682,14 +1718,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1698,31 +1734,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1731,31 +1767,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1764,31 +1800,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1797,31 +1833,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1830,31 +1866,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1863,31 +1899,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1896,31 +1932,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1929,66 +1965,165 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
-      <c r="P37" s="13">
-        <v>2097.4499999999998</v>
-      </c>
-      <c r="Q37" s="13"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c t="s" r="A38" s="14">
-        <v>109</v>
-      </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c t="s" r="G38" s="15">
-        <v>110</v>
-      </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-      <c t="s" r="K38" s="17">
-        <v>111</v>
-      </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>113</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>114</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>38</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>115</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>117</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>26</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>38</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>115</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>118</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>100</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>38</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>119</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="P40" s="13">
+        <v>2151.5</v>
+      </c>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c t="s" r="A41" s="14">
+        <v>121</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c t="s" r="G41" s="15">
+        <v>122</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c t="s" r="K41" s="17">
+        <v>123</v>
+      </c>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="162">
+  <mergeCells count="177">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2147,10 +2282,25 @@
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="K41:Q41"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -134,18 +134,6 @@
     <t>14.8500</t>
   </si>
   <si>
-    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>86.0000</t>
-  </si>
-  <si>
     <t>CIDOPHAGE 1000MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -272,6 +260,15 @@
     <t>150.0000</t>
   </si>
   <si>
+    <t>PERLOC 40MG 14 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>THYROXINE 100MCG 100 TAB.</t>
   </si>
   <si>
@@ -374,7 +371,7 @@
     <t>70.0000</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 12:00 PM</t>
+    <t>Sunday, 5 October, 2025 12:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1263,7 +1260,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1279,7 +1276,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1289,14 +1286,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1305,14 +1302,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1345,7 +1342,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1355,14 +1352,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1371,14 +1368,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1388,11 +1385,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1404,14 +1401,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1444,7 +1441,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1454,11 +1451,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1470,28 +1467,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1503,31 +1500,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1536,14 +1533,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1560,7 +1557,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1576,24 +1573,24 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1602,28 +1599,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1635,14 +1632,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1652,11 +1649,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1675,7 +1672,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1685,11 +1682,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1701,7 +1698,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1718,11 +1715,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1734,7 +1731,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1751,11 +1748,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1767,7 +1764,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1784,11 +1781,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1800,14 +1797,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1817,11 +1814,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -1833,14 +1830,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1850,11 +1847,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -1866,7 +1863,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1883,11 +1880,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -1899,7 +1896,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1916,11 +1913,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -1932,7 +1929,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1949,11 +1946,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -1965,7 +1962,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -1982,11 +1979,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -1998,14 +1995,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2015,11 +2012,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2031,7 +2028,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2048,11 +2045,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2064,14 +2061,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2081,11 +2078,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>34</v>
@@ -2093,13 +2090,13 @@
     </row>
     <row r="40" ht="24.75" customHeight="1">
       <c r="P40" s="13">
-        <v>2151.5</v>
+        <v>2140.5</v>
       </c>
       <c r="Q40" s="13"/>
     </row>
     <row r="41" ht="16.5" customHeight="1">
       <c t="s" r="A41" s="14">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -2107,13 +2104,13 @@
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
       <c t="s" r="G41" s="15">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H41" s="15"/>
       <c r="I41" s="15"/>
       <c r="J41" s="16"/>
       <c t="s" r="K41" s="17">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L41" s="17"/>
       <c r="M41" s="17"/>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -260,6 +260,15 @@
     <t>150.0000</t>
   </si>
   <si>
+    <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
     <t>PERLOC 40MG 14 F.C.TAB.</t>
   </si>
   <si>
@@ -278,6 +287,15 @@
     <t>58.0000</t>
   </si>
   <si>
+    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
     <t>URSOFALK 250MG 20 CAPS.</t>
   </si>
   <si>
@@ -371,7 +389,7 @@
     <t>70.0000</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 12:05 PM</t>
+    <t>Sunday, 5 October, 2025 12:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1738,7 +1756,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1804,7 +1822,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1837,21 +1855,21 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -1863,28 +1881,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -1896,14 +1914,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1913,11 +1931,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -1929,7 +1947,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1946,11 +1964,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -1969,7 +1987,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2002,7 +2020,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2012,11 +2030,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2028,14 +2046,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2045,11 +2063,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2061,14 +2079,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2078,49 +2096,115 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
         <v>34</v>
       </c>
-    </row>
-    <row r="40" ht="24.75" customHeight="1">
-      <c r="P40" s="13">
-        <v>2140.5</v>
-      </c>
-      <c r="Q40" s="13"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c t="s" r="A41" s="14">
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>122</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>26</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>38</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
         <v>120</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c t="s" r="G41" s="15">
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
         <v>121</v>
       </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
-      <c t="s" r="K41" s="17">
-        <v>122</v>
-      </c>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
+      <c t="s" r="Q40" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>123</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>105</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>38</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>124</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="P42" s="13">
+        <v>2349.5</v>
+      </c>
+      <c r="Q42" s="13"/>
+    </row>
+    <row r="43" ht="16.5" customHeight="1">
+      <c t="s" r="A43" s="14">
+        <v>126</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c t="s" r="G43" s="15">
+        <v>127</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16"/>
+      <c t="s" r="K43" s="17">
+        <v>128</v>
+      </c>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="177">
+  <mergeCells count="187">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2294,10 +2378,20 @@
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="K43:Q43"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -389,7 +389,7 @@
     <t>70.0000</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 12:30 PM</t>
+    <t>Sunday, 5 October, 2025 12:31 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -221,6 +221,15 @@
     <t>186.0000</t>
   </si>
   <si>
+    <t>GLUCOLIGHT XR 1000MG 30 EX. REL .F.C. TAB.</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
     <t>GLYCERIN INFANTILE 10 SUPP. (GLAXO)</t>
   </si>
   <si>
@@ -389,7 +398,7 @@
     <t>70.0000</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 12:31 PM</t>
+    <t>Sunday, 5 October, 2025 12:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1558,7 +1567,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1568,14 +1577,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1584,20 +1593,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1608,7 +1617,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1624,21 +1633,21 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1650,14 +1659,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1667,11 +1676,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1683,14 +1692,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1789,7 +1798,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1888,7 +1897,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1921,21 +1930,21 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -1947,14 +1956,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1964,11 +1973,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -1980,7 +1989,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -1997,11 +2006,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2053,7 +2062,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2086,7 +2095,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2096,11 +2105,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2112,14 +2121,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2129,11 +2138,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2145,14 +2154,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2162,49 +2171,82 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>126</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>108</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>38</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>127</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>128</v>
+      </c>
+      <c t="s" r="Q42" s="12">
         <v>34</v>
       </c>
     </row>
-    <row r="42" ht="25.5" customHeight="1">
-      <c r="P42" s="13">
-        <v>2349.5</v>
-      </c>
-      <c r="Q42" s="13"/>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c t="s" r="A43" s="14">
-        <v>126</v>
-      </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c t="s" r="G43" s="15">
-        <v>127</v>
-      </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="16"/>
-      <c t="s" r="K43" s="17">
-        <v>128</v>
-      </c>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="P43" s="13">
+        <v>2377.2199999999998</v>
+      </c>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" ht="16.5" customHeight="1">
+      <c t="s" r="A44" s="14">
+        <v>129</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c t="s" r="G44" s="15">
+        <v>130</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
+      <c t="s" r="K44" s="17">
+        <v>131</v>
+      </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="187">
+  <mergeCells count="192">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2388,10 +2430,15 @@
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="K44:Q44"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -194,6 +194,18 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>EUTHYROX 100MCG 50 TAB.</t>
   </si>
   <si>
@@ -254,9 +266,6 @@
     <t>LICID LOTION 30 ML</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>MILGA ADVANCE 30 F.C. TABS</t>
   </si>
   <si>
@@ -344,6 +353,18 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>امواس لورد</t>
+  </si>
+  <si>
+    <t>22:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>جل صبار للبشره</t>
   </si>
   <si>
@@ -380,12 +401,6 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -398,7 +413,13 @@
     <t>70.0000</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 12:32 PM</t>
+    <t>ماكينه حلاقه جليت فليكتور</t>
+  </si>
+  <si>
+    <t>26:0</t>
+  </si>
+  <si>
+    <t>Sunday, 5 October, 2025 12:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1468,7 +1489,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1478,14 +1499,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1494,28 +1515,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1527,31 +1548,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1560,7 +1581,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1577,14 +1598,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1593,14 +1614,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1617,7 +1638,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1633,24 +1654,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1659,28 +1680,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1692,14 +1713,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1709,11 +1730,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1725,14 +1746,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1831,7 +1852,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1930,7 +1951,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1963,21 +1984,21 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -1989,14 +2010,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2006,11 +2027,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2022,14 +2043,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2039,11 +2060,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2055,7 +2076,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2072,11 +2093,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2088,14 +2109,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2105,11 +2126,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2121,14 +2142,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2161,7 +2182,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2171,11 +2192,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2187,14 +2208,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2204,49 +2225,148 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q42" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>130</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>26</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>38</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>116</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>131</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>111</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>38</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>132</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q44" s="12">
         <v>34</v>
       </c>
     </row>
-    <row r="43" ht="24.75" customHeight="1">
-      <c r="P43" s="13">
-        <v>2377.2199999999998</v>
-      </c>
-      <c r="Q43" s="13"/>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c t="s" r="A44" s="14">
-        <v>129</v>
-      </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c t="s" r="G44" s="15">
-        <v>130</v>
-      </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16"/>
-      <c t="s" r="K44" s="17">
-        <v>131</v>
-      </c>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>134</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>135</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>38</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>116</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="P46" s="13">
+        <v>2459.2199999999998</v>
+      </c>
+      <c r="Q46" s="13"/>
+    </row>
+    <row r="47" ht="16.5" customHeight="1">
+      <c t="s" r="A47" s="14">
+        <v>136</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c t="s" r="G47" s="15">
+        <v>137</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
+      <c t="s" r="K47" s="17">
+        <v>138</v>
+      </c>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="207">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2435,10 +2555,25 @@
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="K47:Q47"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -419,7 +419,7 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 12:42 PM</t>
+    <t>Sunday, 5 October, 2025 12:43 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -332,6 +332,15 @@
     <t>175.0000</t>
   </si>
   <si>
+    <t>ZINOL 1GM I.M./I.V. VIAL</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -344,9 +353,6 @@
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>25.00</t>
   </si>
   <si>
@@ -383,7 +389,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>3.0000</t>
+    <t>6.0000</t>
   </si>
   <si>
     <t>سيتي بيبي رقم 4</t>
@@ -419,7 +425,7 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 12:43 PM</t>
+    <t>Sunday, 5 October, 2025 12:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1984,7 +1990,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1994,7 +2000,7 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2017,21 +2023,21 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2043,14 +2049,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2060,11 +2066,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2076,14 +2082,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2093,11 +2099,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2109,7 +2115,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2126,11 +2132,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2142,7 +2148,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2159,11 +2165,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2175,14 +2181,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2192,14 +2198,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2208,14 +2214,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2225,11 +2231,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2248,7 +2254,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2258,11 +2264,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2274,14 +2280,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2291,14 +2297,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2307,14 +2313,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2324,49 +2330,82 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
-      <c r="P46" s="13">
-        <v>2459.2199999999998</v>
-      </c>
-      <c r="Q46" s="13"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c t="s" r="A47" s="14">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
         <v>136</v>
       </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c t="s" r="G47" s="15">
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
         <v>137</v>
       </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="16"/>
-      <c t="s" r="K47" s="17">
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>38</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>118</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>119</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="P47" s="13">
+        <v>2510.2199999999998</v>
+      </c>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c t="s" r="A48" s="14">
         <v>138</v>
       </c>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c t="s" r="G48" s="15">
+        <v>139</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c t="s" r="K48" s="17">
+        <v>140</v>
+      </c>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="207">
+  <mergeCells count="212">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2570,10 +2609,15 @@
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="L45:M45"/>
     <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="K48:Q48"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -425,7 +425,7 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 12:45 PM</t>
+    <t>Sunday, 5 October, 2025 12:46 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -215,6 +215,18 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>17.2800</t>
+  </si>
+  <si>
     <t xml:space="preserve">FLAMOGEST  30TABS</t>
   </si>
   <si>
@@ -425,7 +437,7 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 12:46 PM</t>
+    <t>Sunday, 5 October, 2025 1:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1561,24 +1573,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1587,31 +1599,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1620,7 +1632,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1637,14 +1649,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1653,14 +1665,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1677,7 +1689,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1693,24 +1705,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1719,28 +1731,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1752,14 +1764,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1769,11 +1781,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1792,7 +1804,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1802,11 +1814,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1818,7 +1830,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1835,11 +1847,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1851,7 +1863,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1868,11 +1880,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -1884,14 +1896,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1901,11 +1913,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -1917,7 +1929,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1934,11 +1946,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -1950,7 +1962,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1967,11 +1979,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -1983,14 +1995,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2000,11 +2012,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2016,14 +2028,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2033,11 +2045,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2049,28 +2061,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2082,14 +2094,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2122,7 +2134,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>26</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2132,11 +2144,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2148,7 +2160,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2165,11 +2177,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2181,7 +2193,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2198,14 +2210,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2214,14 +2226,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2231,14 +2243,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2247,14 +2259,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2264,11 +2276,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2280,14 +2292,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2297,11 +2309,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2313,14 +2325,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2330,14 +2342,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2346,14 +2358,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2363,49 +2375,82 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
-      <c r="P47" s="13">
-        <v>2510.2199999999998</v>
-      </c>
-      <c r="Q47" s="13"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c t="s" r="A48" s="14">
-        <v>138</v>
-      </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c t="s" r="G48" s="15">
-        <v>139</v>
-      </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="16"/>
-      <c t="s" r="K48" s="17">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
         <v>140</v>
       </c>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>141</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>38</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>122</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="P48" s="13">
+        <v>2527.5</v>
+      </c>
+      <c r="Q48" s="13"/>
+    </row>
+    <row r="49" ht="16.5" customHeight="1">
+      <c t="s" r="A49" s="14">
+        <v>142</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c t="s" r="G49" s="15">
+        <v>143</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="16"/>
+      <c t="s" r="K49" s="17">
+        <v>144</v>
+      </c>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="212">
+  <mergeCells count="217">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2614,10 +2659,15 @@
     <mergeCell ref="H46:K46"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="K49:Q49"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -171,6 +171,15 @@
   </si>
   <si>
     <t>37.6200</t>
+  </si>
+  <si>
+    <t>CONVENTIN XR 600MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>198.00</t>
+  </si>
+  <si>
+    <t>198.0000</t>
   </si>
   <si>
     <t>CYNCHOLINE PLUS 20 CAPS.</t>
@@ -1458,7 +1467,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1474,7 +1483,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1484,11 +1493,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1500,14 +1509,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1517,14 +1526,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1533,14 +1542,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1557,7 +1566,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1573,7 +1582,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1583,14 +1592,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1599,20 +1608,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1623,7 +1632,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1639,13 +1648,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1656,7 +1665,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1689,7 +1698,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1705,7 +1714,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1715,14 +1724,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1731,20 +1740,20 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1755,7 +1764,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1771,21 +1780,21 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1797,14 +1806,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1814,11 +1823,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1830,14 +1839,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1936,7 +1945,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2035,7 +2044,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2045,7 +2054,7 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
@@ -2068,7 +2077,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2078,7 +2087,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2101,13 +2110,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2134,7 +2143,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2144,11 +2153,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2160,14 +2169,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2177,11 +2186,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2193,7 +2202,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2210,11 +2219,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2250,7 +2259,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2266,7 +2275,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2283,7 +2292,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2299,7 +2308,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2309,11 +2318,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2325,14 +2334,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2342,11 +2351,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2358,14 +2367,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2375,14 +2384,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2398,7 +2407,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2408,49 +2417,82 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
-      <c r="P48" s="13">
-        <v>2527.5</v>
-      </c>
-      <c r="Q48" s="13"/>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c t="s" r="A49" s="14">
-        <v>142</v>
-      </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c t="s" r="G49" s="15">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
         <v>143</v>
       </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="16"/>
-      <c t="s" r="K49" s="17">
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
         <v>144</v>
       </c>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>38</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>125</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="P49" s="13">
+        <v>2725.5</v>
+      </c>
+      <c r="Q49" s="13"/>
+    </row>
+    <row r="50" ht="16.5" customHeight="1">
+      <c t="s" r="A50" s="14">
+        <v>145</v>
+      </c>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c t="s" r="G50" s="15">
+        <v>146</v>
+      </c>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="16"/>
+      <c t="s" r="K50" s="17">
+        <v>147</v>
+      </c>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="217">
+  <mergeCells count="222">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2664,10 +2706,15 @@
     <mergeCell ref="H47:K47"/>
     <mergeCell ref="L47:M47"/>
     <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="K50:Q50"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -446,7 +446,7 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 1:08 PM</t>
+    <t>Sunday, 5 October, 2025 1:09 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -284,6 +284,27 @@
     <t>130.0000</t>
   </si>
   <si>
+    <t>HYDROFERRIN 50MG/ML ORAL DROPS 30 ML</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>KERELLA LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>LICID LOTION 30 ML</t>
   </si>
   <si>
@@ -356,9 +377,6 @@
     <t>ZINOL 1GM I.M./I.V. VIAL</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>48.0000</t>
   </si>
   <si>
@@ -446,7 +464,7 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 1:09 PM</t>
+    <t>Sunday, 5 October, 2025 1:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1813,7 +1831,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1823,11 +1841,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1839,14 +1857,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1856,11 +1874,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1872,14 +1890,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1889,11 +1907,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -1912,7 +1930,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1922,11 +1940,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -1938,7 +1956,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1955,11 +1973,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -1971,14 +1989,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1988,11 +2006,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2004,14 +2022,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2021,11 +2039,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2037,7 +2055,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2054,11 +2072,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2070,14 +2088,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2087,11 +2105,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2103,14 +2121,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2120,11 +2138,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2136,24 +2154,24 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2176,21 +2194,21 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2202,14 +2220,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2219,11 +2237,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2235,14 +2253,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2252,11 +2270,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2268,7 +2286,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2285,14 +2303,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2308,7 +2326,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2341,7 +2359,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>26</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2351,14 +2369,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2367,14 +2385,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2384,11 +2402,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2400,14 +2418,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2417,14 +2435,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2433,14 +2451,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>144</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2450,49 +2468,115 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
-      <c r="P49" s="13">
-        <v>2725.5</v>
-      </c>
-      <c r="Q49" s="13"/>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c t="s" r="A50" s="14">
-        <v>145</v>
-      </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c t="s" r="G50" s="15">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
         <v>146</v>
       </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="16"/>
-      <c t="s" r="K50" s="17">
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>95</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>38</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
         <v>147</v>
       </c>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>149</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>150</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>38</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>131</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="P51" s="13">
+        <v>2800.5</v>
+      </c>
+      <c r="Q51" s="13"/>
+    </row>
+    <row r="52" ht="16.5" customHeight="1">
+      <c t="s" r="A52" s="14">
+        <v>151</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c t="s" r="G52" s="15">
+        <v>152</v>
+      </c>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="16"/>
+      <c t="s" r="K52" s="17">
+        <v>153</v>
+      </c>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="222">
+  <mergeCells count="232">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2711,10 +2795,20 @@
     <mergeCell ref="H48:K48"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="K52:Q52"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -134,6 +134,15 @@
     <t>14.8500</t>
   </si>
   <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t>CIDOPHAGE 1000MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -245,6 +254,9 @@
     <t>64.3500</t>
   </si>
   <si>
+    <t>FLECTOR 50MG 30 CAPS</t>
+  </si>
+  <si>
     <t>GINKGO BILOBA 30 CAPS.</t>
   </si>
   <si>
@@ -464,7 +476,7 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 1:11 PM</t>
+    <t>Sunday, 5 October, 2025 1:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1336,7 +1348,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1346,11 +1358,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1362,14 +1374,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1386,7 +1398,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1402,7 +1414,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1412,11 +1424,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1428,14 +1440,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1445,14 +1457,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1461,14 +1473,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1478,14 +1490,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1518,7 +1530,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1534,7 +1546,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1544,11 +1556,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1560,14 +1572,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1577,14 +1589,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1593,14 +1605,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1617,7 +1629,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1633,7 +1645,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1643,14 +1655,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1659,20 +1671,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1683,7 +1695,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1699,13 +1711,13 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1716,7 +1728,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1732,7 +1744,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1742,14 +1754,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1758,14 +1770,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1775,14 +1787,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1791,7 +1803,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1804,18 +1816,18 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1824,14 +1836,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1841,14 +1853,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1857,28 +1869,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1890,14 +1902,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1907,11 +1919,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -1923,14 +1935,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1940,11 +1952,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -1956,14 +1968,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1973,11 +1985,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -1989,14 +2001,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2006,11 +2018,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2022,7 +2034,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2039,11 +2051,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2055,14 +2067,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2072,11 +2084,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2088,14 +2100,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2105,11 +2117,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2121,7 +2133,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2138,11 +2150,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2154,14 +2166,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2171,11 +2183,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2187,14 +2199,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2204,11 +2216,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2220,28 +2232,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>65</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2253,28 +2265,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2286,14 +2298,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2303,11 +2315,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2319,14 +2331,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2369,14 +2381,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2385,14 +2397,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2402,11 +2414,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2418,14 +2430,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>26</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2435,14 +2447,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2451,14 +2463,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2468,11 +2480,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2484,14 +2496,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>95</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2501,14 +2513,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2524,7 +2536,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2534,49 +2546,115 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
-      <c r="P51" s="13">
-        <v>2800.5</v>
-      </c>
-      <c r="Q51" s="13"/>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
-      <c t="s" r="A52" s="14">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>150</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>99</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>38</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
         <v>151</v>
       </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c t="s" r="G52" s="15">
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
         <v>152</v>
       </c>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="16"/>
-      <c t="s" r="K52" s="17">
+      <c t="s" r="Q51" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
         <v>153</v>
       </c>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>154</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>38</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>135</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="P53" s="13">
+        <v>2872.21</v>
+      </c>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c t="s" r="A54" s="14">
+        <v>155</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c t="s" r="G54" s="15">
+        <v>156</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c t="s" r="K54" s="17">
+        <v>157</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="232">
+  <mergeCells count="242">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2805,10 +2883,20 @@
     <mergeCell ref="H50:K50"/>
     <mergeCell ref="L50:M50"/>
     <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>AMARYL M 2/500 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
     <t>ANGIOFOX (EFFOX) 25MG LONG 30 CAPS.</t>
   </si>
   <si>
@@ -113,9 +125,6 @@
     <t>CARBAMIDE 10% CREAM 30 GM</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>40.00</t>
   </si>
   <si>
@@ -266,6 +275,15 @@
     <t>186.0000</t>
   </si>
   <si>
+    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>55.4400</t>
+  </si>
+  <si>
     <t>GLUCOLIGHT XR 1000MG 30 EX. REL .F.C. TAB.</t>
   </si>
   <si>
@@ -476,7 +494,7 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 1:14 PM</t>
+    <t>Sunday, 5 October, 2025 1:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1167,7 +1185,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1176,14 +1194,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1200,7 +1218,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1209,14 +1227,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1233,7 +1251,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1266,7 +1284,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1299,7 +1317,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1315,24 +1333,24 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1341,20 +1359,20 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1381,7 +1399,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1391,11 +1409,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1407,14 +1425,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1431,7 +1449,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1447,7 +1465,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1457,14 +1475,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1473,14 +1491,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1490,14 +1508,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1506,14 +1524,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1523,14 +1541,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1563,7 +1581,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1579,7 +1597,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1589,11 +1607,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1605,14 +1623,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1622,14 +1640,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1638,14 +1656,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1662,7 +1680,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1678,7 +1696,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1688,14 +1706,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1704,20 +1722,20 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1728,7 +1746,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1744,21 +1762,21 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1770,14 +1788,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1787,14 +1805,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1810,7 +1828,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1827,7 +1845,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1843,7 +1861,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1853,11 +1871,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1869,31 +1887,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1902,14 +1920,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1926,7 +1944,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1942,24 +1960,24 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1968,14 +1986,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1985,14 +2003,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2001,14 +2019,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2018,14 +2036,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2034,14 +2052,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2051,14 +2069,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2067,14 +2085,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2091,7 +2109,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2107,7 +2125,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2124,7 +2142,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2140,7 +2158,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2157,7 +2175,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2173,7 +2191,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2190,7 +2208,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2206,7 +2224,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2223,7 +2241,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2239,7 +2257,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2249,14 +2267,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2265,14 +2283,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2282,14 +2300,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2298,31 +2316,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2338,24 +2356,24 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2364,31 +2382,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2397,31 +2415,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2430,31 +2448,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2470,13 +2488,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2487,7 +2505,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2503,24 +2521,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>30</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2529,31 +2547,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2562,31 +2580,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>99</v>
+        <v>154</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2595,66 +2613,132 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>154</v>
+        <v>30</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
-      <c r="P53" s="13">
-        <v>2872.21</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c t="s" r="A54" s="14">
-        <v>155</v>
-      </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c t="s" r="G54" s="15">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
         <v>156</v>
       </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c t="s" r="K54" s="17">
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>105</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>41</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
         <v>157</v>
       </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>159</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>160</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>41</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>141</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>142</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="P55" s="13">
+        <v>2961.3099999999999</v>
+      </c>
+      <c r="Q55" s="13"/>
+    </row>
+    <row r="56" ht="16.5" customHeight="1">
+      <c t="s" r="A56" s="14">
+        <v>161</v>
+      </c>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c t="s" r="G56" s="15">
+        <v>162</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="16"/>
+      <c t="s" r="K56" s="17">
+        <v>163</v>
+      </c>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="252">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2893,10 +2977,20 @@
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="K56:Q56"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -494,7 +494,7 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 1:42 PM</t>
+    <t>Sunday, 5 October, 2025 2:03 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -212,13 +212,13 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>8:2</t>
+    <t>8:1</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
-    <t>15.8400</t>
+    <t>31.6800</t>
   </si>
   <si>
     <t>ELICA-M CREAM 30 GRAM</t>
@@ -386,6 +386,12 @@
     <t>120.0000</t>
   </si>
   <si>
+    <t>URINEX 24 CAPS</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>URSOFALK 250MG 20 CAPS.</t>
   </si>
   <si>
@@ -494,7 +500,7 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 2:03 PM</t>
+    <t>Sunday, 5 October, 2025 2:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1647,7 +1653,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2257,7 +2263,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2267,14 +2273,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2283,7 +2289,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2300,11 +2306,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>25</v>
@@ -2316,14 +2322,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2333,7 +2339,7 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
@@ -2356,7 +2362,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2366,11 +2372,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>68</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>25</v>
@@ -2382,28 +2388,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>25</v>
@@ -2415,14 +2421,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2432,11 +2438,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>25</v>
@@ -2448,14 +2454,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>30</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2465,11 +2471,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>25</v>
@@ -2481,7 +2487,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2498,11 +2504,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>25</v>
@@ -2514,7 +2520,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2531,14 +2537,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2547,14 +2553,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2564,14 +2570,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2580,14 +2586,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2597,11 +2603,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>25</v>
@@ -2620,7 +2626,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2630,11 +2636,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>25</v>
@@ -2646,14 +2652,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2663,14 +2669,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2679,14 +2685,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2696,49 +2702,82 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
-      <c r="P55" s="13">
-        <v>2961.3099999999999</v>
-      </c>
-      <c r="Q55" s="13"/>
-    </row>
-    <row r="56" ht="16.5" customHeight="1">
-      <c t="s" r="A56" s="14">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
         <v>161</v>
       </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c t="s" r="G56" s="15">
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
         <v>162</v>
       </c>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="16"/>
-      <c t="s" r="K56" s="17">
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>41</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>143</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="P56" s="13">
+        <v>2998.1500000000001</v>
+      </c>
+      <c r="Q56" s="13"/>
+    </row>
+    <row r="57" ht="16.5" customHeight="1">
+      <c t="s" r="A57" s="14">
         <v>163</v>
       </c>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c t="s" r="G57" s="15">
+        <v>164</v>
+      </c>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="16"/>
+      <c t="s" r="K57" s="17">
+        <v>165</v>
+      </c>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="252">
+  <mergeCells count="257">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2987,10 +3026,15 @@
     <mergeCell ref="H54:K54"/>
     <mergeCell ref="L54:M54"/>
     <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="K57:Q57"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -401,6 +401,15 @@
     <t>122.0000</t>
   </si>
   <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -410,6 +419,15 @@
     <t>175.0000</t>
   </si>
   <si>
+    <t>VINOSIN CREAM 75GM</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
     <t>ZINOL 1GM I.M./I.V. VIAL</t>
   </si>
   <si>
@@ -500,7 +518,7 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 2:04 PM</t>
+    <t>Sunday, 5 October, 2025 2:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2329,7 +2347,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2346,7 +2364,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2362,7 +2380,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2372,11 +2390,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>68</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>25</v>
@@ -2388,14 +2406,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2405,11 +2423,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>25</v>
@@ -2421,7 +2439,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2434,11 +2452,11 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>68</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
@@ -2461,21 +2479,21 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>25</v>
@@ -2487,14 +2505,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2504,11 +2522,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>25</v>
@@ -2520,14 +2538,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>30</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2537,11 +2555,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>25</v>
@@ -2553,7 +2571,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2570,14 +2588,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2593,7 +2611,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2626,7 +2644,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2636,14 +2654,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2652,14 +2670,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2669,11 +2687,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>25</v>
@@ -2685,14 +2703,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2702,14 +2720,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2718,14 +2736,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>162</v>
+        <v>30</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2735,49 +2753,115 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
-      <c r="P56" s="13">
-        <v>2998.1500000000001</v>
-      </c>
-      <c r="Q56" s="13"/>
-    </row>
-    <row r="57" ht="16.5" customHeight="1">
-      <c t="s" r="A57" s="14">
-        <v>163</v>
-      </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c t="s" r="G57" s="15">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
         <v>164</v>
       </c>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="16"/>
-      <c t="s" r="K57" s="17">
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>105</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>41</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
         <v>165</v>
       </c>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>167</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>168</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>41</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>149</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="P58" s="13">
+        <v>3111.1500000000001</v>
+      </c>
+      <c r="Q58" s="13"/>
+    </row>
+    <row r="59" ht="16.5" customHeight="1">
+      <c t="s" r="A59" s="14">
+        <v>169</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c t="s" r="G59" s="15">
+        <v>170</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="16"/>
+      <c t="s" r="K59" s="17">
+        <v>171</v>
+      </c>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="257">
+  <mergeCells count="267">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3031,10 +3115,20 @@
     <mergeCell ref="H55:K55"/>
     <mergeCell ref="L55:M55"/>
     <mergeCell ref="N55:O55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="K59:Q59"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -518,7 +518,7 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 2:35 PM</t>
+    <t>Sunday, 5 October, 2025 3:19 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -503,6 +503,15 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>كريم بانسيه</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>كريم فيرند لافلي الكبير</t>
   </si>
   <si>
@@ -518,7 +527,19 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 3:19 PM</t>
+    <t>معجون سيجنال 25 مل</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>Sunday, 5 October, 2025 3:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2776,7 +2797,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2793,7 +2814,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2809,7 +2830,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>168</v>
+        <v>105</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2819,49 +2840,115 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
+        <v>169</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>170</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>171</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>41</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>149</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
         <v>150</v>
       </c>
-      <c t="s" r="Q57" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="58" ht="24.75" customHeight="1">
-      <c r="P58" s="13">
-        <v>3111.1500000000001</v>
-      </c>
-      <c r="Q58" s="13"/>
-    </row>
-    <row r="59" ht="16.5" customHeight="1">
-      <c t="s" r="A59" s="14">
-        <v>169</v>
-      </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c t="s" r="G59" s="15">
-        <v>170</v>
-      </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="16"/>
-      <c t="s" r="K59" s="17">
-        <v>171</v>
-      </c>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
+      <c t="s" r="Q58" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>172</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>173</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>41</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>174</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>175</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="P60" s="13">
+        <v>3161.1500000000001</v>
+      </c>
+      <c r="Q60" s="13"/>
+    </row>
+    <row r="61" ht="16.5" customHeight="1">
+      <c t="s" r="A61" s="14">
+        <v>176</v>
+      </c>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c t="s" r="G61" s="15">
+        <v>177</v>
+      </c>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="16"/>
+      <c t="s" r="K61" s="17">
+        <v>178</v>
+      </c>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="267">
+  <mergeCells count="277">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3125,10 +3212,20 @@
     <mergeCell ref="H57:K57"/>
     <mergeCell ref="L57:M57"/>
     <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="K61:Q61"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -350,6 +350,12 @@
     <t>150.0000</t>
   </si>
   <si>
+    <t>OPTIDEX -T EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
   </si>
   <si>
@@ -431,9 +437,6 @@
     <t>ZINOL 1GM I.M./I.V. VIAL</t>
   </si>
   <si>
-    <t>48.0000</t>
-  </si>
-  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -539,7 +542,13 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 3:20 PM</t>
+    <t>معجون سيجنال 50 مل</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>Sunday, 5 October, 2025 3:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2170,7 +2179,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2180,11 +2189,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>25</v>
@@ -2196,7 +2205,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2213,11 +2222,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>25</v>
@@ -2229,7 +2238,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2246,11 +2255,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>25</v>
@@ -2262,14 +2271,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2279,11 +2288,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>25</v>
@@ -2295,14 +2304,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2312,14 +2321,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2335,7 +2344,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2345,14 +2354,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2361,14 +2370,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2378,14 +2387,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2394,14 +2403,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2411,14 +2420,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2427,14 +2436,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2444,11 +2453,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>25</v>
@@ -2460,14 +2469,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2477,7 +2486,7 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>68</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
@@ -2500,7 +2509,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2510,11 +2519,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>68</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>25</v>
@@ -2526,28 +2535,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>25</v>
@@ -2559,14 +2568,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2576,11 +2585,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>25</v>
@@ -2592,14 +2601,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>30</v>
+        <v>149</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2609,11 +2618,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>25</v>
@@ -2642,11 +2651,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>25</v>
@@ -2658,7 +2667,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2675,14 +2684,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2691,14 +2700,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2708,14 +2717,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2724,14 +2733,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>162</v>
+        <v>25</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2741,11 +2750,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>25</v>
@@ -2757,14 +2766,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>30</v>
+        <v>163</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2774,11 +2783,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>25</v>
@@ -2797,7 +2806,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2807,11 +2816,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>25</v>
@@ -2823,14 +2832,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2840,14 +2849,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2856,14 +2865,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2873,14 +2882,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2889,14 +2898,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2906,49 +2915,115 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>173</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>174</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>41</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
         <v>175</v>
       </c>
-      <c t="s" r="Q59" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="60" ht="24.75" customHeight="1">
-      <c r="P60" s="13">
-        <v>3161.1500000000001</v>
-      </c>
-      <c r="Q60" s="13"/>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c t="s" r="A61" s="14">
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
         <v>176</v>
       </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c t="s" r="G61" s="15">
+      <c t="s" r="Q60" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
         <v>177</v>
       </c>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="16"/>
-      <c t="s" r="K61" s="17">
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
         <v>178</v>
       </c>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>41</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>169</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="P62" s="13">
+        <v>3244.1500000000001</v>
+      </c>
+      <c r="Q62" s="13"/>
+    </row>
+    <row r="63" ht="16.5" customHeight="1">
+      <c t="s" r="A63" s="14">
+        <v>179</v>
+      </c>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c t="s" r="G63" s="15">
+        <v>180</v>
+      </c>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="16"/>
+      <c t="s" r="K63" s="17">
+        <v>181</v>
+      </c>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="277">
+  <mergeCells count="287">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3222,10 +3297,20 @@
     <mergeCell ref="H59:K59"/>
     <mergeCell ref="L59:M59"/>
     <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="K61:Q61"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="K63:Q63"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -89,6 +89,15 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ANTODINE 20MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
     <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
   </si>
   <si>
@@ -365,6 +374,15 @@
     <t>89.0000</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>PERLOC 40MG 14 F.C.TAB.</t>
   </si>
   <si>
@@ -548,7 +566,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 3:21 PM</t>
+    <t>Sunday, 5 October, 2025 4:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1288,7 +1306,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1305,7 +1323,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1321,7 +1339,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1331,11 +1349,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>25</v>
@@ -1347,14 +1365,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1364,14 +1382,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1380,14 +1398,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1404,7 +1422,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1420,24 +1438,24 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1446,20 +1464,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1486,7 +1504,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1496,11 +1514,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1512,14 +1530,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1536,7 +1554,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1552,7 +1570,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1562,11 +1580,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>25</v>
@@ -1578,14 +1596,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1595,14 +1613,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1611,14 +1629,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1628,14 +1646,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1668,7 +1686,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1684,7 +1702,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1694,14 +1712,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1710,14 +1728,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1727,14 +1745,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1743,14 +1761,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1767,7 +1785,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1783,7 +1801,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1793,14 +1811,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1809,20 +1827,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1833,7 +1851,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1855,15 +1873,15 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1875,14 +1893,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1892,14 +1910,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1915,7 +1933,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1932,7 +1950,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1948,7 +1966,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1965,7 +1983,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1981,7 +1999,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1991,14 +2009,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2007,20 +2025,20 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2031,7 +2049,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2047,13 +2065,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2080,7 +2098,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>33</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2090,11 +2108,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>25</v>
@@ -2106,14 +2124,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2123,11 +2141,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>25</v>
@@ -2139,14 +2157,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2156,11 +2174,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>25</v>
@@ -2172,14 +2190,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2189,11 +2207,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>25</v>
@@ -2205,14 +2223,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2222,7 +2240,7 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2245,7 +2263,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2278,7 +2296,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2295,7 +2313,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2311,7 +2329,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2344,7 +2362,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2354,14 +2372,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2370,7 +2388,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2387,11 +2405,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>25</v>
@@ -2403,14 +2421,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2420,7 +2438,7 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2476,7 +2494,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2493,7 +2511,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2509,7 +2527,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2519,11 +2537,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>68</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>25</v>
@@ -2535,14 +2553,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2552,11 +2570,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>25</v>
@@ -2568,28 +2586,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>71</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>25</v>
@@ -2608,21 +2626,21 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>149</v>
+        <v>74</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>25</v>
@@ -2634,28 +2652,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>25</v>
@@ -2667,28 +2685,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>30</v>
+        <v>155</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>25</v>
@@ -2700,31 +2718,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2740,13 +2758,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2773,24 +2791,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>163</v>
+        <v>33</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2799,28 +2817,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>25</v>
@@ -2832,28 +2850,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>25</v>
+        <v>169</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>25</v>
@@ -2865,31 +2883,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>105</v>
+        <v>33</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2905,21 +2923,21 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>172</v>
+        <v>25</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>25</v>
@@ -2931,20 +2949,20 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>174</v>
+        <v>108</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -2955,7 +2973,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2977,53 +2995,119 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
-      <c r="P62" s="13">
-        <v>3244.1500000000001</v>
-      </c>
-      <c r="Q62" s="13"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c t="s" r="A63" s="14">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
         <v>179</v>
       </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c t="s" r="G63" s="15">
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
         <v>180</v>
       </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="16"/>
-      <c t="s" r="K63" s="17">
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>44</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
         <v>181</v>
       </c>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>182</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>183</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>184</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>44</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>175</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="P64" s="13">
+        <v>3286.9499999999998</v>
+      </c>
+      <c r="Q64" s="13"/>
+    </row>
+    <row r="65" ht="16.5" customHeight="1">
+      <c t="s" r="A65" s="14">
+        <v>185</v>
+      </c>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c t="s" r="G65" s="15">
+        <v>186</v>
+      </c>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="16"/>
+      <c t="s" r="K65" s="17">
+        <v>187</v>
+      </c>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="287">
+  <mergeCells count="297">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3307,10 +3391,20 @@
     <mergeCell ref="H61:K61"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="K65:Q65"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -452,6 +452,12 @@
     <t>95.0000</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
     <t>ZINOL 1GM I.M./I.V. VIAL</t>
   </si>
   <si>
@@ -497,6 +503,15 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -566,7 +581,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 4:25 PM</t>
+    <t>Sunday, 5 October, 2025 4:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2593,7 +2608,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2603,14 +2618,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2619,14 +2634,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2636,11 +2651,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>71</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>25</v>
@@ -2652,28 +2667,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>25</v>
@@ -2685,14 +2700,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2702,11 +2717,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>25</v>
@@ -2718,14 +2733,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>33</v>
+        <v>157</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2735,11 +2750,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>25</v>
@@ -2751,7 +2766,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2768,11 +2783,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>25</v>
@@ -2784,7 +2799,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2801,14 +2816,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2817,14 +2832,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2834,11 +2849,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>25</v>
@@ -2850,14 +2865,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>169</v>
+        <v>33</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2867,14 +2882,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2890,7 +2905,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2900,11 +2915,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>25</v>
@@ -2916,14 +2931,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>25</v>
+        <v>174</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2933,11 +2948,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>25</v>
@@ -2949,14 +2964,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>108</v>
+        <v>33</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2966,14 +2981,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2982,14 +2997,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>178</v>
+        <v>25</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -2999,11 +3014,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>25</v>
@@ -3022,7 +3037,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>180</v>
+        <v>108</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3032,14 +3047,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3048,14 +3063,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3065,49 +3080,115 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
+        <v>159</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>184</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>185</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>44</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>186</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>188</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>189</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>44</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>180</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
         <v>79</v>
       </c>
-      <c t="s" r="Q63" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="64" ht="25.5" customHeight="1">
-      <c r="P64" s="13">
-        <v>3286.9499999999998</v>
-      </c>
-      <c r="Q64" s="13"/>
-    </row>
-    <row r="65" ht="16.5" customHeight="1">
-      <c t="s" r="A65" s="14">
-        <v>185</v>
-      </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c t="s" r="G65" s="15">
-        <v>186</v>
-      </c>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="16"/>
-      <c t="s" r="K65" s="17">
-        <v>187</v>
-      </c>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="17"/>
+      <c t="s" r="Q65" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="P66" s="13">
+        <v>3305.7800000000002</v>
+      </c>
+      <c r="Q66" s="13"/>
+    </row>
+    <row r="67" ht="16.5" customHeight="1">
+      <c t="s" r="A67" s="14">
+        <v>190</v>
+      </c>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c t="s" r="G67" s="15">
+        <v>191</v>
+      </c>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="16"/>
+      <c t="s" r="K67" s="17">
+        <v>192</v>
+      </c>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="297">
+  <mergeCells count="307">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3401,10 +3482,20 @@
     <mergeCell ref="H63:K63"/>
     <mergeCell ref="L63:M63"/>
     <mergeCell ref="N63:O63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="K67:Q67"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -581,7 +581,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 4:26 PM</t>
+    <t>Sunday, 5 October, 2025 4:49 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>AGGREX 75MG 60 TABS.</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
     <t>1:2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>87.00</t>
   </si>
   <si>
@@ -581,7 +596,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 4:49 PM</t>
+    <t>Sunday, 5 October, 2025 5:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1272,7 +1287,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1281,14 +1296,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1298,14 +1313,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1321,7 +1336,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1331,14 +1346,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1347,14 +1362,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1364,14 +1379,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1380,14 +1395,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1397,14 +1412,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1413,14 +1428,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1430,14 +1445,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1446,14 +1461,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1463,14 +1478,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1479,31 +1494,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1512,31 +1527,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1545,14 +1560,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1562,14 +1577,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1578,14 +1593,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1595,14 +1610,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1611,14 +1626,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1628,14 +1643,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1644,14 +1659,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1661,14 +1676,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1677,14 +1692,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1694,14 +1709,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1710,14 +1725,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1727,14 +1742,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1743,14 +1758,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1760,14 +1775,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1776,14 +1791,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1793,14 +1808,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1809,14 +1824,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1826,14 +1841,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1842,14 +1857,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1859,14 +1874,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1875,31 +1890,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1908,31 +1923,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1941,14 +1956,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1958,14 +1973,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1974,14 +1989,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1991,14 +2006,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2007,14 +2022,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2024,14 +2039,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2040,14 +2055,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2057,14 +2072,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2073,31 +2088,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2106,31 +2121,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2139,14 +2154,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2156,14 +2171,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2172,14 +2187,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2189,14 +2204,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2205,14 +2220,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2222,14 +2237,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2238,14 +2253,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2255,14 +2270,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2271,14 +2286,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2288,14 +2303,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2304,14 +2319,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2321,14 +2336,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2337,14 +2352,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2354,14 +2369,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2370,14 +2385,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2387,14 +2402,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2403,14 +2418,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2420,14 +2435,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2436,14 +2451,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2453,14 +2468,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2469,14 +2484,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2486,14 +2501,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2502,14 +2517,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2519,14 +2534,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2535,14 +2550,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2552,14 +2567,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2568,14 +2583,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2585,14 +2600,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2601,14 +2616,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2618,14 +2633,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>53</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2634,14 +2649,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2651,14 +2666,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>117</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2667,14 +2682,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2684,14 +2699,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>76</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2700,31 +2715,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2733,31 +2748,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2766,31 +2781,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2799,31 +2814,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2832,31 +2847,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2865,31 +2880,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2898,31 +2913,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2931,31 +2946,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2964,31 +2979,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>33</v>
+        <v>179</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2997,31 +3012,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3030,31 +3045,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3063,31 +3078,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>183</v>
+        <v>113</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3096,31 +3111,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3129,66 +3144,99 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
-      <c r="P66" s="13">
-        <v>3305.7800000000002</v>
-      </c>
-      <c r="Q66" s="13"/>
-    </row>
-    <row r="67" ht="16.5" customHeight="1">
-      <c t="s" r="A67" s="14">
-        <v>190</v>
-      </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c t="s" r="G67" s="15">
-        <v>191</v>
-      </c>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="16"/>
-      <c t="s" r="K67" s="17">
-        <v>192</v>
-      </c>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>193</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>194</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>49</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>185</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="P67" s="13">
+        <v>3323.5999999999999</v>
+      </c>
+      <c r="Q67" s="13"/>
+    </row>
+    <row r="68" ht="16.5" customHeight="1">
+      <c t="s" r="A68" s="14">
+        <v>195</v>
+      </c>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c t="s" r="G68" s="15">
+        <v>196</v>
+      </c>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16"/>
+      <c t="s" r="K68" s="17">
+        <v>197</v>
+      </c>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="307">
+  <mergeCells count="312">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3492,10 +3540,15 @@
     <mergeCell ref="H65:K65"/>
     <mergeCell ref="L65:M65"/>
     <mergeCell ref="N65:O65"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="K68:Q68"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -122,6 +122,18 @@
     <t>78.0000</t>
   </si>
   <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>7.6800</t>
+  </si>
+  <si>
     <t>BLOKATENS 10/160MG 28 F.C.TABS.</t>
   </si>
   <si>
@@ -239,9 +251,6 @@
     <t>8:1</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>31.6800</t>
   </si>
   <si>
@@ -278,6 +287,18 @@
     <t>17.2800</t>
   </si>
   <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">FLAMOGEST  30TABS</t>
   </si>
   <si>
@@ -380,6 +401,12 @@
     <t>48.0000</t>
   </si>
   <si>
+    <t>OSTEOCARE 30 TABS</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
   </si>
   <si>
@@ -404,9 +431,6 @@
     <t>75.00</t>
   </si>
   <si>
-    <t>75.0000</t>
-  </si>
-  <si>
     <t>THYROXINE 100MCG 100 TAB.</t>
   </si>
   <si>
@@ -524,9 +548,6 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -596,7 +617,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 5:32 PM</t>
+    <t>Sunday, 5 October, 2025 5:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1452,7 +1473,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1485,7 +1506,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1501,7 +1522,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1511,14 +1532,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1527,20 +1548,20 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1551,7 +1572,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1567,21 +1588,21 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1593,14 +1614,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1633,7 +1654,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1643,14 +1664,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1659,14 +1680,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1699,7 +1720,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1709,14 +1730,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1725,14 +1746,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1742,14 +1763,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1758,7 +1779,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1775,14 +1796,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1791,14 +1812,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1815,7 +1836,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1841,14 +1862,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1857,14 +1878,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1881,7 +1902,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1897,7 +1918,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1907,14 +1928,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1923,20 +1944,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1947,7 +1968,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1963,7 +1984,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1973,11 +1994,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1989,31 +2010,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2022,7 +2043,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2039,11 +2060,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -2055,14 +2076,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2072,14 +2093,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2088,14 +2109,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2128,13 +2149,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2145,7 +2166,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2161,7 +2182,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2171,14 +2192,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2187,20 +2208,20 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>42</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2227,7 +2248,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2237,11 +2258,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>30</v>
@@ -2253,14 +2274,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2270,11 +2291,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>30</v>
@@ -2286,14 +2307,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2303,11 +2324,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>30</v>
@@ -2319,14 +2340,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2336,11 +2357,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>30</v>
@@ -2352,14 +2373,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2369,14 +2390,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2385,14 +2406,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2402,14 +2423,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2425,7 +2446,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2458,7 +2479,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2475,7 +2496,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2491,7 +2512,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>118</v>
+        <v>42</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2501,14 +2522,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2524,7 +2545,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2557,7 +2578,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2574,7 +2595,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2590,7 +2611,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2600,14 +2621,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2616,14 +2637,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2633,11 +2654,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>30</v>
@@ -2649,14 +2670,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>23</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2666,11 +2687,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>57</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>58</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2689,7 +2710,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2699,11 +2720,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>30</v>
@@ -2715,14 +2736,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2732,11 +2753,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>30</v>
@@ -2748,31 +2769,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>61</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2781,28 +2802,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>39</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>30</v>
@@ -2814,28 +2835,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>30</v>
@@ -2854,13 +2875,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -2887,21 +2908,21 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>38</v>
+        <v>170</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>30</v>
@@ -2913,31 +2934,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2946,28 +2967,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>30</v>
@@ -2979,31 +3000,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>179</v>
+        <v>42</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3012,31 +3033,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3045,7 +3066,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3058,15 +3079,15 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>30</v>
@@ -3078,31 +3099,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>113</v>
+        <v>186</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3118,21 +3139,21 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>188</v>
+        <v>42</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>30</v>
@@ -3144,28 +3165,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>190</v>
+        <v>30</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>30</v>
@@ -3177,66 +3198,165 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>194</v>
+        <v>120</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>84</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
-      <c r="P67" s="13">
-        <v>3323.5999999999999</v>
-      </c>
-      <c r="Q67" s="13"/>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c t="s" r="A68" s="14">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>194</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
         <v>195</v>
       </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c t="s" r="G68" s="15">
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>53</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>171</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
         <v>196</v>
       </c>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="16"/>
-      <c t="s" r="K68" s="17">
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
         <v>197</v>
       </c>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>53</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>198</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>199</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>200</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>201</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>53</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>192</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="P70" s="13">
+        <v>3498.2800000000002</v>
+      </c>
+      <c r="Q70" s="13"/>
+    </row>
+    <row r="71" ht="16.5" customHeight="1">
+      <c t="s" r="A71" s="14">
+        <v>202</v>
+      </c>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c t="s" r="G71" s="15">
+        <v>203</v>
+      </c>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16"/>
+      <c t="s" r="K71" s="17">
+        <v>204</v>
+      </c>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="312">
+  <mergeCells count="327">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3545,10 +3665,25 @@
     <mergeCell ref="H66:K66"/>
     <mergeCell ref="L66:M66"/>
     <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="K71:Q71"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -617,7 +617,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 5:34 PM</t>
+    <t>Sunday, 5 October, 2025 5:40 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -617,7 +617,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 5:40 PM</t>
+    <t>Sunday, 5 October, 2025 5:43 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -431,6 +431,18 @@
     <t>75.00</t>
   </si>
   <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>THYROXINE 100MCG 100 TAB.</t>
   </si>
   <si>
@@ -452,9 +464,6 @@
     <t>URINEX 24 CAPS</t>
   </si>
   <si>
-    <t>21.0000</t>
-  </si>
-  <si>
     <t>URSOFALK 250MG 20 CAPS.</t>
   </si>
   <si>
@@ -617,7 +626,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 5:43 PM</t>
+    <t>Sunday, 5 October, 2025 5:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2545,7 +2554,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2555,11 +2564,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>30</v>
@@ -2571,14 +2580,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2588,11 +2597,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>30</v>
@@ -2604,14 +2613,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2621,14 +2630,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2637,14 +2646,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2654,14 +2663,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2677,7 +2686,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2694,7 +2703,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2710,7 +2719,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2727,7 +2736,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2743,7 +2752,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2776,7 +2785,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>161</v>
+        <v>42</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2786,14 +2795,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>61</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>62</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2802,14 +2811,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>120</v>
+        <v>164</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2819,14 +2828,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2835,14 +2844,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2852,11 +2861,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>39</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>30</v>
@@ -2875,13 +2884,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -2908,7 +2917,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2918,11 +2927,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>30</v>
@@ -2934,14 +2943,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>42</v>
+        <v>173</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2951,11 +2960,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>30</v>
@@ -2967,7 +2976,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2984,11 +2993,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>30</v>
@@ -3021,10 +3030,10 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3033,7 +3042,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3050,11 +3059,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>23</v>
@@ -3073,7 +3082,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3090,7 +3099,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3106,7 +3115,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>186</v>
+        <v>30</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3116,11 +3125,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>30</v>
@@ -3132,14 +3141,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>42</v>
+        <v>189</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3149,11 +3158,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>30</v>
@@ -3165,14 +3174,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3182,11 +3191,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>30</v>
@@ -3205,7 +3214,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3222,7 +3231,7 @@
         <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3238,7 +3247,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>195</v>
+        <v>120</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3248,14 +3257,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3264,14 +3273,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3281,11 +3290,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>30</v>
@@ -3297,14 +3306,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3314,49 +3323,82 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
+        <v>202</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>203</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>204</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>53</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>195</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
         <v>87</v>
       </c>
-      <c t="s" r="Q69" s="12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="70" ht="24.75" customHeight="1">
-      <c r="P70" s="13">
-        <v>3498.2800000000002</v>
-      </c>
-      <c r="Q70" s="13"/>
-    </row>
-    <row r="71" ht="16.5" customHeight="1">
-      <c t="s" r="A71" s="14">
-        <v>202</v>
-      </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c t="s" r="G71" s="15">
-        <v>203</v>
-      </c>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="16"/>
-      <c t="s" r="K71" s="17">
-        <v>204</v>
-      </c>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
+      <c t="s" r="Q70" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="P71" s="13">
+        <v>3519.2800000000002</v>
+      </c>
+      <c r="Q71" s="13"/>
+    </row>
+    <row r="72" ht="16.5" customHeight="1">
+      <c t="s" r="A72" s="14">
+        <v>205</v>
+      </c>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c t="s" r="G72" s="15">
+        <v>206</v>
+      </c>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="16"/>
+      <c t="s" r="K72" s="17">
+        <v>207</v>
+      </c>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="327">
+  <mergeCells count="332">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3680,10 +3722,15 @@
     <mergeCell ref="H69:K69"/>
     <mergeCell ref="L69:M69"/>
     <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="K72:Q72"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -626,7 +626,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 5:44 PM</t>
+    <t>Sunday, 5 October, 2025 5:54 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -245,6 +245,15 @@
     <t>11.0000</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -380,6 +389,12 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>LICID LOTION 30 ML</t>
   </si>
   <si>
@@ -425,6 +440,15 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>PARAGESIC 500MG 5 SUPP.</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>PERLOC 40MG 14 F.C.TAB.</t>
   </si>
   <si>
@@ -476,9 +500,6 @@
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>18.0000</t>
   </si>
   <si>
@@ -506,6 +527,12 @@
     <t>3:3</t>
   </si>
   <si>
+    <t>XITHRONE 500MG 5 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
     <t>ZINOL 1GM I.M./I.V. VIAL</t>
   </si>
   <si>
@@ -563,7 +590,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>6.0000</t>
+    <t>9.0000</t>
   </si>
   <si>
     <t>سيتي بيبي رقم 4</t>
@@ -626,7 +653,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 5:54 PM</t>
+    <t>Sunday, 5 October, 2025 5:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1861,7 +1888,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1871,14 +1898,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1904,14 +1931,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1920,14 +1947,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1944,7 +1971,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1960,7 +1987,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1970,14 +1997,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1986,14 +2013,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2003,14 +2030,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2019,20 +2046,20 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -2065,15 +2092,15 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -2085,14 +2112,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2102,14 +2129,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2125,7 +2152,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2142,7 +2169,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2158,7 +2185,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2175,7 +2202,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2191,7 +2218,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2201,14 +2228,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2217,20 +2244,20 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2241,7 +2268,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2263,7 +2290,7 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2290,7 +2317,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2300,11 +2327,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>30</v>
@@ -2316,14 +2343,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2333,11 +2360,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>30</v>
@@ -2349,14 +2376,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2366,14 +2393,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>32</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2389,7 +2416,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2399,11 +2426,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>30</v>
@@ -2415,14 +2442,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2432,14 +2459,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2448,14 +2475,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2465,7 +2492,7 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>39</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
@@ -2488,7 +2515,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2498,11 +2525,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2514,7 +2541,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2531,11 +2558,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>30</v>
@@ -2554,7 +2581,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2564,14 +2591,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2580,14 +2607,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2597,11 +2624,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>30</v>
@@ -2613,14 +2640,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2630,11 +2657,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>30</v>
@@ -2646,14 +2673,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2663,14 +2690,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>107</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2679,14 +2706,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2696,11 +2723,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>30</v>
@@ -2712,14 +2739,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2729,14 +2756,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2745,14 +2772,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2762,14 +2789,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2778,14 +2805,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2795,11 +2822,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>30</v>
@@ -2811,14 +2838,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>164</v>
+        <v>23</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2828,11 +2855,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>62</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -2844,14 +2871,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2861,11 +2888,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>39</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>30</v>
@@ -2877,14 +2904,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2894,11 +2921,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>30</v>
@@ -2910,31 +2937,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>120</v>
+        <v>171</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>61</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2950,21 +2977,21 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>173</v>
+        <v>42</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>57</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>30</v>
@@ -2976,28 +3003,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>170</v>
+        <v>39</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>30</v>
@@ -3009,28 +3036,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>30</v>
@@ -3042,14 +3069,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3059,14 +3086,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3075,14 +3102,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>42</v>
+        <v>182</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3099,7 +3126,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3115,7 +3142,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3125,11 +3152,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>30</v>
@@ -3141,14 +3168,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>189</v>
+        <v>42</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3158,11 +3185,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>30</v>
@@ -3174,7 +3201,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3191,14 +3218,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3214,7 +3241,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3231,7 +3258,7 @@
         <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>30</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3247,7 +3274,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3264,7 +3291,7 @@
         <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3290,11 +3317,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>30</v>
@@ -3313,7 +3340,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>200</v>
+        <v>42</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3323,11 +3350,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>30</v>
@@ -3339,14 +3366,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>204</v>
+        <v>30</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3356,49 +3383,181 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>87</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>30</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
-      <c r="P71" s="13">
-        <v>3519.2800000000002</v>
-      </c>
-      <c r="Q71" s="13"/>
-    </row>
-    <row r="72" ht="16.5" customHeight="1">
-      <c t="s" r="A72" s="14">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>203</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>123</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>53</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>204</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
         <v>205</v>
       </c>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c t="s" r="G72" s="15">
+      <c t="s" r="Q71" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
         <v>206</v>
       </c>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="16"/>
-      <c t="s" r="K72" s="17">
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
         <v>207</v>
       </c>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="17"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>53</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>183</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>184</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>208</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>209</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>53</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>210</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>211</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>212</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>213</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>53</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>204</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="P75" s="13">
+        <v>3658.1599999999999</v>
+      </c>
+      <c r="Q75" s="13"/>
+    </row>
+    <row r="76" ht="16.5" customHeight="1">
+      <c t="s" r="A76" s="14">
+        <v>214</v>
+      </c>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c t="s" r="G76" s="15">
+        <v>215</v>
+      </c>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="16"/>
+      <c t="s" r="K76" s="17">
+        <v>216</v>
+      </c>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="332">
+  <mergeCells count="352">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3727,10 +3886,30 @@
     <mergeCell ref="H70:K70"/>
     <mergeCell ref="L70:M70"/>
     <mergeCell ref="N70:O70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="K72:Q72"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="K76:Q76"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -77,6 +77,21 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>AM GINKO TAB</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
     <t>AMARYL M 2/500 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -89,21 +104,36 @@
     <t>33.6600</t>
   </si>
   <si>
+    <t>AMOCEREBRAL PLUS 20/40 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>ANDOPENTENE XR 300 MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>67.5000</t>
+  </si>
+  <si>
     <t>ANGIOFOX (EFFOX) 25MG LONG 30 CAPS.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>114.00</t>
   </si>
   <si>
     <t>114.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>ANTODINE 20MG 30 F.C.TAB</t>
   </si>
   <si>
@@ -170,9 +200,6 @@
     <t>CARVID 6.25MG 30TAB</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>45.00</t>
   </si>
   <si>
@@ -248,12 +275,6 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -653,7 +674,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 5:57 PM</t>
+    <t>Sunday, 5 October, 2025 5:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1366,15 +1387,15 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>21</v>
@@ -1386,14 +1407,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1403,14 +1424,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1426,7 +1447,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1436,11 +1457,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>21</v>
@@ -1452,14 +1473,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1469,14 +1490,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1485,14 +1506,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1509,7 +1530,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1525,7 +1546,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1535,14 +1556,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1551,14 +1572,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1568,14 +1589,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1584,14 +1605,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1601,14 +1622,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1617,31 +1638,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1650,14 +1671,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1674,7 +1695,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1690,7 +1711,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1700,14 +1721,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1716,31 +1737,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1749,14 +1770,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1766,14 +1787,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1782,14 +1803,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1799,7 +1820,7 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
@@ -1822,7 +1843,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1839,7 +1860,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1855,7 +1876,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1865,14 +1886,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1881,14 +1902,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1898,7 +1919,7 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
@@ -1921,7 +1942,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1931,14 +1952,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1954,7 +1975,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1964,14 +1985,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1980,14 +2001,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1997,11 +2018,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -2013,14 +2034,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2030,14 +2051,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2046,14 +2067,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2063,14 +2084,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2079,28 +2100,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -2112,14 +2133,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2129,14 +2150,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2145,14 +2166,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2169,7 +2190,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2185,13 +2206,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2218,7 +2239,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2228,14 +2249,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2244,14 +2265,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2261,14 +2282,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2277,31 +2298,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2310,14 +2331,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2327,14 +2348,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2343,14 +2364,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2360,14 +2381,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2376,31 +2397,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2409,14 +2430,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2426,14 +2447,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2466,7 +2487,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2482,7 +2503,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2492,14 +2513,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2515,7 +2536,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2525,14 +2546,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2541,14 +2562,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2565,7 +2586,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2581,7 +2602,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2591,14 +2612,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>49</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2607,14 +2628,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2624,14 +2645,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2640,14 +2661,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2657,14 +2678,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2673,14 +2694,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>28</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2690,14 +2711,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2706,14 +2727,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2723,14 +2744,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2739,14 +2760,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2756,14 +2777,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2772,14 +2793,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2789,14 +2810,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>110</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2812,7 +2833,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2829,7 +2850,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2845,7 +2866,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2855,14 +2876,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2871,14 +2892,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>30</v>
+        <v>137</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2888,14 +2909,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>117</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2904,14 +2925,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2921,14 +2942,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2937,14 +2958,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>171</v>
+        <v>28</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2954,11 +2975,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>62</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -2970,14 +2991,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2987,14 +3008,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>57</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3010,7 +3031,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3020,14 +3041,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>39</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3036,14 +3057,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3053,14 +3074,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>70</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3069,31 +3090,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>66</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3109,24 +3130,24 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>182</v>
+        <v>130</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>49</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3135,31 +3156,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3168,31 +3189,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3201,20 +3222,20 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>42</v>
+        <v>189</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3222,10 +3243,10 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3234,31 +3255,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>85</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3267,31 +3288,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3300,31 +3321,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>198</v>
+        <v>52</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3333,31 +3354,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>30</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3366,31 +3387,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3399,31 +3420,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>123</v>
+        <v>205</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3439,24 +3460,24 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>207</v>
+        <v>52</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3465,31 +3486,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>209</v>
+        <v>32</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3498,66 +3519,165 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>213</v>
+        <v>130</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>90</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
-      <c r="P75" s="13">
-        <v>3658.1599999999999</v>
-      </c>
-      <c r="Q75" s="13"/>
-    </row>
-    <row r="76" ht="16.5" customHeight="1">
-      <c t="s" r="A76" s="14">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>213</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
         <v>214</v>
       </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c t="s" r="G76" s="15">
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>24</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>190</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>191</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
         <v>215</v>
       </c>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="16"/>
-      <c t="s" r="K76" s="17">
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
         <v>216</v>
       </c>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
-      <c r="O76" s="17"/>
-      <c r="P76" s="17"/>
-      <c r="Q76" s="17"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>24</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>217</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>218</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>219</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>220</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>24</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>211</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="P78" s="13">
+        <v>3836.54</v>
+      </c>
+      <c r="Q78" s="13"/>
+    </row>
+    <row r="79" ht="16.5" customHeight="1">
+      <c t="s" r="A79" s="14">
+        <v>221</v>
+      </c>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c t="s" r="G79" s="15">
+        <v>222</v>
+      </c>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="16"/>
+      <c t="s" r="K79" s="17">
+        <v>223</v>
+      </c>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="352">
+  <mergeCells count="367">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3906,10 +4026,25 @@
     <mergeCell ref="H74:K74"/>
     <mergeCell ref="L74:M74"/>
     <mergeCell ref="N74:O74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="K76:Q76"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="K79:Q79"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -65,78 +65,81 @@
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>AM GINKO TAB</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>AMARYL M 2/500 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>AMOCEREBRAL PLUS 20/40 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>ANDOPENTENE XR 300 MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>67.5000</t>
+  </si>
+  <si>
+    <t>ANGIOFOX (EFFOX) 25MG LONG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>ANTODINE 20MG 30 F.C.TAB</t>
+  </si>
+  <si>
     <t>1:2</t>
   </si>
   <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>28.7100</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>AM GINKO TAB</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>300.00</t>
-  </si>
-  <si>
-    <t>99.0000</t>
-  </si>
-  <si>
-    <t>AMARYL M 2/500 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>33.6600</t>
-  </si>
-  <si>
-    <t>AMOCEREBRAL PLUS 20/40 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>ANDOPENTENE XR 300 MG 20 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>67.5000</t>
-  </si>
-  <si>
-    <t>ANGIOFOX (EFFOX) 25MG LONG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>ANTODINE 20MG 30 F.C.TAB</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
@@ -146,6 +149,9 @@
     <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
   </si>
   <si>
+    <t>2:1</t>
+  </si>
+  <si>
     <t>78.00</t>
   </si>
   <si>
@@ -167,183 +173,183 @@
     <t>BLOKATENS 10/160MG 28 F.C.TABS.</t>
   </si>
   <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>160.0000</t>
+  </si>
+  <si>
+    <t>BUDEXAN 0.5 MG/2ML 20 SUSP. AMP. FOR INH</t>
+  </si>
+  <si>
+    <t>0:15</t>
+  </si>
+  <si>
+    <t>398.00</t>
+  </si>
+  <si>
+    <t>39.8000</t>
+  </si>
+  <si>
+    <t>CARBAMIDE 10% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>CARVID 6.25MG 30TAB</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>14.8500</t>
+  </si>
+  <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>CIDOPHAGE 1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>CONVENTIN 300MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>CONVENTIN XR 600MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>198.00</t>
+  </si>
+  <si>
+    <t>198.0000</t>
+  </si>
+  <si>
+    <t>CYNCHOLINE PLUS 20 CAPS.</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>11.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>8:1</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>EUTHYROX 100MCG 50 TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>17.2800</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLAMOGEST  30TABS</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>64.3500</t>
+  </si>
+  <si>
+    <t>FLECTOR 50MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>GINKGO BILOBA 30 CAPS.</t>
+  </si>
+  <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>160.00</t>
-  </si>
-  <si>
-    <t>160.0000</t>
-  </si>
-  <si>
-    <t>BUDEXAN 0.5 MG/2ML 20 SUSP. AMP. FOR INH</t>
-  </si>
-  <si>
-    <t>0:15</t>
-  </si>
-  <si>
-    <t>398.00</t>
-  </si>
-  <si>
-    <t>39.8000</t>
-  </si>
-  <si>
-    <t>CARBAMIDE 10% CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>CARVID 6.25MG 30TAB</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>14.8500</t>
-  </si>
-  <si>
-    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>CIDOPHAGE 1000MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>COLOVATIL 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>63.0000</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>CONVENTIN 300MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>CONVENTIN XR 600MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>198.00</t>
-  </si>
-  <si>
-    <t>198.0000</t>
-  </si>
-  <si>
-    <t>CYNCHOLINE PLUS 20 CAPS.</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>11.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>8:1</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>ELICA-M CREAM 30 GRAM</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>EUTHYROX 100MCG 50 TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>17.2800</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLAMOGEST  30TABS</t>
-  </si>
-  <si>
-    <t>195.00</t>
-  </si>
-  <si>
-    <t>64.3500</t>
-  </si>
-  <si>
-    <t>FLECTOR 50MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>GINKGO BILOBA 30 CAPS.</t>
-  </si>
-  <si>
     <t>186.00</t>
   </si>
   <si>
@@ -422,9 +428,6 @@
     <t>MILGA ADVANCE 30 F.C. TABS</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>150.00</t>
   </si>
   <si>
@@ -545,7 +548,7 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>3:3</t>
+    <t>8:3</t>
   </si>
   <si>
     <t>XITHRONE 500MG 5 F.C.TAB.</t>
@@ -674,7 +677,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 5:58 PM</t>
+    <t>Sunday, 5 October, 2025 6:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1546,7 +1549,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1556,11 +1559,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>21</v>
@@ -1572,14 +1575,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1589,11 +1592,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>32</v>
@@ -1605,14 +1608,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1622,11 +1625,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1638,14 +1641,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1655,11 +1658,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>32</v>
@@ -1671,14 +1674,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1688,11 +1691,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>23</v>
@@ -1704,7 +1707,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1721,11 +1724,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>32</v>
@@ -1737,7 +1740,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1754,11 +1757,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1770,14 +1773,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1787,11 +1790,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1803,14 +1806,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1820,11 +1823,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1836,14 +1839,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1853,11 +1856,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>32</v>
@@ -1869,14 +1872,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1886,11 +1889,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>32</v>
@@ -1902,7 +1905,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1923,7 +1926,7 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1935,14 +1938,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1952,11 +1955,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>32</v>
@@ -1968,7 +1971,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1985,11 +1988,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -2001,14 +2004,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2034,14 +2037,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2051,11 +2054,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>23</v>
@@ -2067,14 +2070,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2084,11 +2087,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>32</v>
@@ -2100,7 +2103,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2117,11 +2120,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -2133,14 +2136,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2150,11 +2153,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>23</v>
@@ -2166,14 +2169,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2183,11 +2186,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2199,7 +2202,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2216,11 +2219,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2232,7 +2235,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2265,14 +2268,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2282,11 +2285,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>32</v>
@@ -2298,7 +2301,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2315,11 +2318,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2331,14 +2334,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2348,11 +2351,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>23</v>
@@ -2364,14 +2367,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2381,11 +2384,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2397,14 +2400,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2414,11 +2417,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>32</v>
@@ -2430,14 +2433,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2447,11 +2450,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>32</v>
@@ -2463,14 +2466,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2480,11 +2483,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>32</v>
@@ -2496,14 +2499,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2513,11 +2516,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2529,14 +2532,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2546,11 +2549,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>32</v>
@@ -2562,14 +2565,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>46</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2579,11 +2582,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>32</v>
@@ -2595,7 +2598,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2612,11 +2615,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>32</v>
@@ -2628,7 +2631,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2645,11 +2648,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2661,14 +2664,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2678,11 +2681,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>32</v>
@@ -2694,7 +2697,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2711,11 +2714,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2727,14 +2730,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2744,11 +2747,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>32</v>
@@ -2760,14 +2763,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2777,11 +2780,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>32</v>
@@ -2793,14 +2796,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2810,11 +2813,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>32</v>
@@ -2826,14 +2829,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2843,11 +2846,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>32</v>
@@ -2859,7 +2862,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2876,11 +2879,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>32</v>
@@ -2892,14 +2895,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>137</v>
+        <v>46</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2909,11 +2912,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -2925,7 +2928,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2942,11 +2945,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>32</v>
@@ -2958,7 +2961,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2979,7 +2982,7 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -2991,7 +2994,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3008,11 +3011,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>32</v>
@@ -3024,14 +3027,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3041,11 +3044,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>32</v>
@@ -3057,14 +3060,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3074,11 +3077,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3090,14 +3093,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3107,11 +3110,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>32</v>
@@ -3123,14 +3126,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3140,11 +3143,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>32</v>
@@ -3156,14 +3159,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3173,11 +3176,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>32</v>
@@ -3189,14 +3192,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3206,11 +3209,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>32</v>
@@ -3222,14 +3225,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3239,11 +3242,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>32</v>
@@ -3255,14 +3258,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3272,11 +3275,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>32</v>
@@ -3288,14 +3291,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3305,11 +3308,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>32</v>
@@ -3321,14 +3324,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3338,11 +3341,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>28</v>
@@ -3354,14 +3357,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3371,14 +3374,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3387,7 +3390,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3404,11 +3407,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>32</v>
@@ -3420,14 +3423,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3437,11 +3440,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>32</v>
@@ -3453,14 +3456,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3470,11 +3473,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>32</v>
@@ -3486,7 +3489,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3503,11 +3506,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>32</v>
@@ -3519,14 +3522,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3536,11 +3539,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>28</v>
@@ -3552,14 +3555,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3569,11 +3572,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>32</v>
@@ -3585,14 +3588,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3602,11 +3605,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>32</v>
@@ -3618,14 +3621,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3635,11 +3638,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>32</v>
@@ -3653,7 +3656,7 @@
     </row>
     <row r="79" ht="16.5" customHeight="1">
       <c t="s" r="A79" s="14">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
@@ -3661,13 +3664,13 @@
       <c r="E79" s="14"/>
       <c r="F79" s="14"/>
       <c t="s" r="G79" s="15">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H79" s="15"/>
       <c r="I79" s="15"/>
       <c r="J79" s="16"/>
       <c t="s" r="K79" s="17">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L79" s="17"/>
       <c r="M79" s="17"/>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -491,6 +491,15 @@
     <t>21.0000</t>
   </si>
   <si>
+    <t>TAMSULIN 0.4MG 28 CAPS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
     <t>THYROXINE 100MCG 100 TAB.</t>
   </si>
   <si>
@@ -593,6 +602,21 @@
     <t>جل صبار للبشره</t>
   </si>
   <si>
+    <t>حفاضات كبار سن جير ميني 36ق</t>
+  </si>
+  <si>
+    <t>0:10</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -677,7 +701,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 6:19 PM</t>
+    <t>Sunday, 5 October, 2025 6:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2836,7 +2860,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2869,7 +2893,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2902,7 +2926,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2912,14 +2936,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2928,14 +2952,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2945,14 +2969,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>119</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2968,7 +2992,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2978,14 +3002,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>33</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2994,14 +3018,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3011,14 +3035,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>33</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3034,7 +3058,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3067,7 +3091,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>179</v>
+        <v>112</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3077,14 +3101,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>71</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>72</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3093,14 +3117,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>112</v>
+        <v>182</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3110,14 +3134,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3126,14 +3150,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3143,11 +3167,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>142</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>32</v>
@@ -3159,14 +3183,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3176,11 +3200,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>51</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>32</v>
@@ -3199,13 +3223,13 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3232,7 +3256,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3242,11 +3266,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>32</v>
@@ -3258,14 +3282,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>112</v>
+        <v>193</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3275,11 +3299,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>32</v>
@@ -3291,7 +3315,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3308,11 +3332,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>32</v>
@@ -3331,7 +3355,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>112</v>
+        <v>198</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3341,14 +3365,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>28</v>
+        <v>201</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3357,7 +3381,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3374,14 +3398,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>93</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3390,14 +3414,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3407,14 +3431,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3423,14 +3447,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>206</v>
+        <v>112</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3440,14 +3464,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>32</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3456,14 +3480,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3473,11 +3497,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>32</v>
@@ -3489,14 +3513,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>32</v>
+        <v>214</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3506,11 +3530,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>32</v>
@@ -3522,14 +3546,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3539,14 +3563,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3555,14 +3579,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>215</v>
+        <v>32</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3572,11 +3596,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>32</v>
@@ -3588,14 +3612,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>217</v>
+        <v>132</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3605,14 +3629,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3621,14 +3645,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3638,49 +3662,115 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
+        <v>195</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>224</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>225</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>24</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>226</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>227</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>228</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>229</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>24</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>220</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
         <v>98</v>
       </c>
-      <c t="s" r="Q77" s="12">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="78" ht="24.75" customHeight="1">
-      <c r="P78" s="13">
-        <v>3836.54</v>
-      </c>
-      <c r="Q78" s="13"/>
-    </row>
-    <row r="79" ht="16.5" customHeight="1">
-      <c t="s" r="A79" s="14">
-        <v>222</v>
-      </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c t="s" r="G79" s="15">
-        <v>223</v>
-      </c>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="16"/>
-      <c t="s" r="K79" s="17">
-        <v>224</v>
-      </c>
-      <c r="L79" s="17"/>
-      <c r="M79" s="17"/>
-      <c r="N79" s="17"/>
-      <c r="O79" s="17"/>
-      <c r="P79" s="17"/>
-      <c r="Q79" s="17"/>
+      <c t="s" r="Q79" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="P80" s="13">
+        <v>3996.54</v>
+      </c>
+      <c r="Q80" s="13"/>
+    </row>
+    <row r="81" ht="16.5" customHeight="1">
+      <c t="s" r="A81" s="14">
+        <v>230</v>
+      </c>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c t="s" r="G81" s="15">
+        <v>231</v>
+      </c>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="16"/>
+      <c t="s" r="K81" s="17">
+        <v>232</v>
+      </c>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="367">
+  <mergeCells count="377">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4044,10 +4134,20 @@
     <mergeCell ref="H77:K77"/>
     <mergeCell ref="L77:M77"/>
     <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="K79:Q79"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="K81:Q81"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -287,6 +287,15 @@
     <t>31.6800</t>
   </si>
   <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>ELICA-M CREAM 30 GRAM</t>
   </si>
   <si>
@@ -477,6 +486,18 @@
   </si>
   <si>
     <t>75.00</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:19</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>7.0500</t>
   </si>
   <si>
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
@@ -2101,7 +2122,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2111,11 +2132,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>32</v>
@@ -2127,14 +2148,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2151,7 +2172,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2167,7 +2188,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2177,14 +2198,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2193,14 +2214,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2210,14 +2231,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2226,20 +2247,20 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2272,15 +2293,15 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2292,14 +2313,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2309,14 +2330,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2325,14 +2346,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2349,7 +2370,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2365,7 +2386,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2382,7 +2403,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2398,7 +2419,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2408,14 +2429,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2424,20 +2445,20 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2448,7 +2469,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2464,13 +2485,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2497,7 +2518,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2507,11 +2528,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>32</v>
@@ -2523,14 +2544,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2540,14 +2561,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2556,14 +2577,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2573,14 +2594,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2589,14 +2610,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2606,11 +2627,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>61</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>32</v>
@@ -2629,7 +2650,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2639,11 +2660,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>32</v>
@@ -2655,7 +2676,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2672,14 +2693,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>51</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2688,14 +2709,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2705,14 +2726,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2728,7 +2749,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2745,7 +2766,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2761,7 +2782,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2778,7 +2799,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2794,7 +2815,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2808,7 +2829,7 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>32</v>
@@ -2820,14 +2841,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>157</v>
+        <v>32</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2841,7 +2862,7 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>32</v>
@@ -2853,14 +2874,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2877,7 +2898,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2893,7 +2914,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>112</v>
+        <v>164</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2903,11 +2924,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>32</v>
@@ -2919,14 +2940,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2936,11 +2957,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>32</v>
@@ -2952,14 +2973,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2969,14 +2990,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>119</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2985,7 +3006,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3002,11 +3023,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>32</v>
@@ -3018,14 +3039,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3035,11 +3056,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3051,7 +3072,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3068,11 +3089,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>32</v>
@@ -3084,14 +3105,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3101,14 +3122,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>33</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3117,14 +3138,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>182</v>
+        <v>32</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3134,14 +3155,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>71</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>72</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3150,14 +3171,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3167,11 +3188,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>67</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>32</v>
@@ -3183,14 +3204,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>132</v>
+        <v>189</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3200,14 +3221,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3216,14 +3237,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3233,11 +3254,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>67</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>32</v>
@@ -3249,28 +3270,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>51</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>32</v>
@@ -3282,20 +3303,20 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3322,7 +3343,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3332,11 +3353,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>32</v>
@@ -3348,14 +3369,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3365,14 +3386,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>201</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3381,14 +3402,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3398,11 +3419,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>32</v>
@@ -3414,14 +3435,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>112</v>
+        <v>205</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3435,10 +3456,10 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>28</v>
+        <v>208</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3447,14 +3468,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3464,14 +3485,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>93</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3480,14 +3501,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3497,14 +3518,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3513,14 +3534,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>214</v>
+        <v>115</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3530,14 +3551,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>32</v>
+        <v>96</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3546,14 +3567,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3563,11 +3584,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>32</v>
@@ -3579,14 +3600,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>32</v>
+        <v>221</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3596,11 +3617,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>32</v>
@@ -3612,14 +3633,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3629,14 +3650,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3645,14 +3666,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>223</v>
+        <v>32</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3662,11 +3683,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>32</v>
@@ -3678,14 +3699,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3695,14 +3716,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3711,14 +3732,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3728,49 +3749,115 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>98</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>32</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
-      <c r="P80" s="13">
-        <v>3996.54</v>
-      </c>
-      <c r="Q80" s="13"/>
-    </row>
-    <row r="81" ht="16.5" customHeight="1">
-      <c t="s" r="A81" s="14">
-        <v>230</v>
-      </c>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c t="s" r="G81" s="15">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
         <v>231</v>
       </c>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="16"/>
-      <c t="s" r="K81" s="17">
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
         <v>232</v>
       </c>
-      <c r="L81" s="17"/>
-      <c r="M81" s="17"/>
-      <c r="N81" s="17"/>
-      <c r="O81" s="17"/>
-      <c r="P81" s="17"/>
-      <c r="Q81" s="17"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>24</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>233</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>234</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>235</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>236</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>24</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>227</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="P82" s="13">
+        <v>4037.5900000000001</v>
+      </c>
+      <c r="Q82" s="13"/>
+    </row>
+    <row r="83" ht="16.5" customHeight="1">
+      <c t="s" r="A83" s="14">
+        <v>237</v>
+      </c>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c t="s" r="G83" s="15">
+        <v>238</v>
+      </c>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="16"/>
+      <c t="s" r="K83" s="17">
+        <v>239</v>
+      </c>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="377">
+  <mergeCells count="387">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4144,10 +4231,20 @@
     <mergeCell ref="H79:K79"/>
     <mergeCell ref="L79:M79"/>
     <mergeCell ref="N79:O79"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="G81:I81"/>
-    <mergeCell ref="K81:Q81"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="K83:Q83"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -158,6 +158,15 @@
     <t>78.0000</t>
   </si>
   <si>
+    <t>AUGMENTIN 457MG/5ML SUSP. 70 ML</t>
+  </si>
+  <si>
+    <t>137.00</t>
+  </si>
+  <si>
+    <t>137.0000</t>
+  </si>
+  <si>
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
@@ -191,6 +200,15 @@
     <t>39.8000</t>
   </si>
   <si>
+    <t>CAPOZIDE 50/25MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
     <t>CARBAMIDE 10% CREAM 30 GM</t>
   </si>
   <si>
@@ -473,6 +491,15 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>PARAGESIC 500MG 5 SUPP.</t>
   </si>
   <si>
@@ -722,7 +749,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 6:24 PM</t>
+    <t>Sunday, 5 October, 2025 6:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1660,7 +1687,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1670,14 +1697,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1686,14 +1713,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1710,7 +1737,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1726,7 +1753,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1736,14 +1763,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1752,14 +1779,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1776,7 +1803,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1792,13 +1819,13 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1842,7 +1869,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1858,21 +1885,21 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1884,14 +1911,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1901,14 +1928,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1917,14 +1944,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1934,14 +1961,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1950,14 +1977,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1967,14 +1994,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1990,7 +2017,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2000,11 +2027,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>32</v>
@@ -2016,14 +2043,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2033,7 +2060,7 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
@@ -2056,7 +2083,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2066,14 +2093,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2082,14 +2109,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2099,14 +2126,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2115,14 +2142,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2132,14 +2159,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2165,14 +2192,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2181,14 +2208,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2198,14 +2225,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2214,14 +2241,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2231,14 +2258,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2247,14 +2274,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2264,11 +2291,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2280,31 +2307,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2313,14 +2340,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2330,11 +2357,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2346,31 +2373,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2379,7 +2406,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2396,11 +2423,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2412,14 +2439,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2436,7 +2463,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2452,7 +2479,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>23</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2462,11 +2489,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2478,31 +2505,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2511,14 +2538,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2535,7 +2562,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2551,21 +2578,21 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>135</v>
+        <v>32</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>32</v>
@@ -2577,14 +2604,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2594,14 +2621,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2617,7 +2644,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2627,11 +2654,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>62</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>32</v>
@@ -2643,14 +2670,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2660,14 +2687,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>43</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2676,14 +2703,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2693,11 +2720,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>32</v>
@@ -2709,14 +2736,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2726,14 +2753,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2742,14 +2769,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2759,11 +2786,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>54</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>32</v>
@@ -2775,14 +2802,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2792,7 +2819,7 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -2815,7 +2842,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2848,7 +2875,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2862,10 +2889,10 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2874,14 +2901,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2898,7 +2925,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2914,7 +2941,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>164</v>
+        <v>102</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2924,11 +2951,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>32</v>
@@ -2940,14 +2967,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2957,11 +2984,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>32</v>
@@ -2973,14 +3000,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>115</v>
+        <v>169</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2990,14 +3017,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3006,14 +3033,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3046,7 +3073,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3056,14 +3083,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>122</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3072,14 +3099,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3089,11 +3116,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>32</v>
@@ -3105,14 +3132,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3122,14 +3149,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>33</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3138,14 +3165,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3155,14 +3182,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>128</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3171,14 +3198,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3188,11 +3215,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>32</v>
@@ -3204,14 +3231,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>189</v>
+        <v>28</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3221,11 +3248,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>72</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3237,14 +3264,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3254,11 +3281,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>67</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>32</v>
@@ -3270,14 +3297,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3287,11 +3314,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>51</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>32</v>
@@ -3303,14 +3330,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3320,14 +3347,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3336,28 +3363,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>73</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>32</v>
@@ -3369,28 +3396,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>200</v>
+        <v>141</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>54</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>32</v>
@@ -3402,28 +3429,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>115</v>
+        <v>173</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>32</v>
@@ -3435,14 +3462,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>205</v>
+        <v>141</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3459,7 +3486,7 @@
         <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>208</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3468,14 +3495,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>115</v>
+        <v>209</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3508,7 +3535,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3518,14 +3545,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3534,14 +3561,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>115</v>
+        <v>214</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3558,7 +3585,7 @@
         <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>96</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3567,14 +3594,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3584,11 +3611,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>32</v>
@@ -3600,14 +3627,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>221</v>
+        <v>121</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3617,14 +3644,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3633,14 +3660,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3650,14 +3677,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>32</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3666,7 +3693,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3683,11 +3710,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>32</v>
@@ -3699,14 +3726,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>135</v>
+        <v>230</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3716,14 +3743,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3732,14 +3759,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>230</v>
+        <v>121</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3749,11 +3776,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>32</v>
@@ -3765,14 +3792,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>232</v>
+        <v>32</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3805,7 +3832,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>236</v>
+        <v>141</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3815,49 +3842,148 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>101</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
-      <c r="P82" s="13">
-        <v>4037.5900000000001</v>
-      </c>
-      <c r="Q82" s="13"/>
-    </row>
-    <row r="83" ht="16.5" customHeight="1">
-      <c t="s" r="A83" s="14">
-        <v>237</v>
-      </c>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c t="s" r="G83" s="15">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
         <v>238</v>
       </c>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="16"/>
-      <c t="s" r="K83" s="17">
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
         <v>239</v>
       </c>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17"/>
-      <c r="Q83" s="17"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>24</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>210</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>211</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>240</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>241</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>24</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>242</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>243</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>244</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>245</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>24</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>236</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="P85" s="13">
+        <v>4285.2799999999997</v>
+      </c>
+      <c r="Q85" s="13"/>
+    </row>
+    <row r="86" ht="16.5" customHeight="1">
+      <c t="s" r="A86" s="14">
+        <v>246</v>
+      </c>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c t="s" r="G86" s="15">
+        <v>247</v>
+      </c>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="16"/>
+      <c t="s" r="K86" s="17">
+        <v>248</v>
+      </c>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="387">
+  <mergeCells count="402">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4241,10 +4367,25 @@
     <mergeCell ref="H81:K81"/>
     <mergeCell ref="L81:M81"/>
     <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="K83:Q83"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="K86:Q86"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -188,6 +188,15 @@
     <t>160.0000</t>
   </si>
   <si>
+    <t>BRONCHICUM ELIXIR 100 ML</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
     <t>BUDEXAN 0.5 MG/2ML 20 SUSP. AMP. FOR INH</t>
   </si>
   <si>
@@ -473,6 +482,15 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
   </si>
   <si>
@@ -485,10 +503,22 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
+    <t>1:3</t>
+  </si>
+  <si>
     <t>92.00</t>
   </si>
   <si>
-    <t>23.0000</t>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>PANADOL COLD &amp; FLU DAY 24 F.C. TABS</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
   </si>
   <si>
     <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
@@ -749,7 +779,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 6:36 PM</t>
+    <t>Sunday, 5 October, 2025 6:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1786,7 +1816,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1796,14 +1826,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1812,14 +1842,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1836,7 +1866,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1852,7 +1882,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1869,7 +1899,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1885,13 +1915,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1902,7 +1932,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1918,13 +1948,13 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1951,7 +1981,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1961,11 +1991,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1977,14 +2007,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2001,7 +2031,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2017,7 +2047,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2027,11 +2057,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>32</v>
@@ -2043,14 +2073,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2060,14 +2090,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2076,14 +2106,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2093,14 +2123,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2116,7 +2146,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2133,7 +2163,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2149,7 +2179,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2159,11 +2189,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -2175,14 +2205,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2192,14 +2222,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2215,7 +2245,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2225,14 +2255,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2248,7 +2278,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2258,11 +2288,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>32</v>
@@ -2274,14 +2304,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2298,7 +2328,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2314,7 +2344,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2324,14 +2354,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2340,14 +2370,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2357,14 +2387,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2373,20 +2403,20 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2419,15 +2449,15 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2439,14 +2469,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2456,14 +2486,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2472,14 +2502,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2496,7 +2526,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2512,7 +2542,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2529,7 +2559,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2545,7 +2575,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2555,14 +2585,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2571,20 +2601,20 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>32</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2595,7 +2625,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2611,13 +2641,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2644,7 +2674,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2654,11 +2684,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>32</v>
@@ -2670,14 +2700,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2687,14 +2717,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2703,14 +2733,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2720,14 +2750,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>68</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2736,14 +2766,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2753,11 +2783,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>70</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>32</v>
@@ -2776,7 +2806,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2786,11 +2816,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>54</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>32</v>
@@ -2802,7 +2832,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2819,14 +2849,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2835,14 +2865,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2852,14 +2882,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2875,7 +2905,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2892,7 +2922,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2908,7 +2938,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2941,7 +2971,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>102</v>
+        <v>164</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2951,14 +2981,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2967,14 +2997,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2984,14 +3014,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3000,14 +3030,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>169</v>
+        <v>124</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3017,14 +3047,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3033,14 +3063,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3073,7 +3103,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3087,7 +3117,7 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>32</v>
@@ -3099,14 +3129,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>121</v>
+        <v>179</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3123,7 +3153,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3139,7 +3169,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3149,11 +3179,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>32</v>
@@ -3165,14 +3195,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3182,14 +3212,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>128</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3198,14 +3228,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3215,11 +3245,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>32</v>
@@ -3231,14 +3261,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3248,14 +3278,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>33</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3264,14 +3294,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3281,14 +3311,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>131</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3297,14 +3327,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3314,11 +3344,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>32</v>
@@ -3330,14 +3360,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>198</v>
+        <v>28</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3347,11 +3377,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>78</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3363,14 +3393,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3380,11 +3410,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>73</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>32</v>
@@ -3396,14 +3426,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3413,11 +3443,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>54</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>151</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>32</v>
@@ -3429,14 +3459,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>173</v>
+        <v>208</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3446,14 +3476,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>80</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3462,28 +3492,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>76</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>32</v>
@@ -3495,28 +3525,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>209</v>
+        <v>144</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>54</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>32</v>
@@ -3535,21 +3565,21 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>121</v>
+        <v>183</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>32</v>
@@ -3561,14 +3591,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>214</v>
+        <v>144</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3578,14 +3608,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>217</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3601,7 +3631,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>121</v>
+        <v>219</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3611,11 +3641,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>32</v>
@@ -3627,14 +3657,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3644,14 +3674,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3667,7 +3697,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3677,14 +3707,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>102</v>
+        <v>227</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3693,14 +3723,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3710,11 +3740,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>32</v>
@@ -3726,14 +3756,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>230</v>
+        <v>124</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3743,14 +3773,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3759,14 +3789,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3776,14 +3806,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>32</v>
+        <v>105</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3792,7 +3822,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3809,11 +3839,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>32</v>
@@ -3825,14 +3855,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>141</v>
+        <v>240</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3842,14 +3872,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3858,14 +3888,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>239</v>
+        <v>124</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3875,11 +3905,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>32</v>
@@ -3891,14 +3921,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>241</v>
+        <v>32</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3908,11 +3938,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>32</v>
@@ -3924,14 +3954,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>245</v>
+        <v>144</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3941,49 +3971,148 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>107</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
-      <c r="P85" s="13">
-        <v>4285.2799999999997</v>
-      </c>
-      <c r="Q85" s="13"/>
-    </row>
-    <row r="86" ht="16.5" customHeight="1">
-      <c t="s" r="A86" s="14">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>248</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>249</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>24</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>220</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>221</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>250</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>251</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>24</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>252</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>253</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>254</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>255</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>24</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
         <v>246</v>
       </c>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c t="s" r="G86" s="15">
-        <v>247</v>
-      </c>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="16"/>
-      <c t="s" r="K86" s="17">
-        <v>248</v>
-      </c>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="17"/>
-      <c r="P86" s="17"/>
-      <c r="Q86" s="17"/>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="P88" s="13">
+        <v>4439.2799999999997</v>
+      </c>
+      <c r="Q88" s="13"/>
+    </row>
+    <row r="89" ht="16.5" customHeight="1">
+      <c t="s" r="A89" s="14">
+        <v>256</v>
+      </c>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c t="s" r="G89" s="15">
+        <v>257</v>
+      </c>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="16"/>
+      <c t="s" r="K89" s="17">
+        <v>258</v>
+      </c>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="402">
+  <mergeCells count="417">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4382,10 +4511,25 @@
     <mergeCell ref="H84:K84"/>
     <mergeCell ref="L84:M84"/>
     <mergeCell ref="N84:O84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="K86:Q86"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="K89:Q89"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -779,7 +779,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 6:39 PM</t>
+    <t>Sunday, 5 October, 2025 6:49 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -269,13 +269,13 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
-    <t>9:0</t>
+    <t>8:0</t>
   </si>
   <si>
     <t>33.00</t>
   </si>
   <si>
-    <t>33.0000</t>
+    <t>66.0000</t>
   </si>
   <si>
     <t>CONVENTIN 300MG 30 CAPS.</t>
@@ -422,6 +422,15 @@
     <t>9.5000</t>
   </si>
   <si>
+    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
     <t>HUSH SACHET</t>
   </si>
   <si>
@@ -461,6 +470,15 @@
     <t>LICID LOTION 30 ML</t>
   </si>
   <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
     <t>MILGA ADVANCE 30 F.C. TABS</t>
   </si>
   <si>
@@ -506,9 +524,6 @@
     <t>1:3</t>
   </si>
   <si>
-    <t>92.00</t>
-  </si>
-  <si>
     <t>46.0000</t>
   </si>
   <si>
@@ -638,6 +653,18 @@
     <t>8:3</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8201:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
     <t>XITHRONE 500MG 5 F.C.TAB.</t>
   </si>
   <si>
@@ -701,15 +728,9 @@
     <t>4.00</t>
   </si>
   <si>
-    <t>4.0000</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -731,9 +752,6 @@
     <t>فرشه اسنان POWER GOLD كبار</t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -779,7 +797,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 6:49 PM</t>
+    <t>Sunday, 5 October, 2025 7:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2097,7 +2115,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2641,13 +2659,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2674,13 +2692,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2707,7 +2725,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2717,11 +2735,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>32</v>
@@ -2733,14 +2751,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2750,14 +2768,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>43</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2766,14 +2784,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2783,14 +2801,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>71</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2799,14 +2817,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2816,11 +2834,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>70</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>32</v>
@@ -2839,7 +2857,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2849,11 +2867,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>54</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>32</v>
@@ -2865,14 +2883,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2882,14 +2900,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2898,14 +2916,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2915,11 +2933,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>54</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>32</v>
@@ -2931,14 +2949,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2948,14 +2966,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2971,7 +2989,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>164</v>
+        <v>112</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2981,14 +2999,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2997,14 +3015,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3014,14 +3032,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3030,14 +3048,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>124</v>
+        <v>170</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3047,14 +3065,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3063,14 +3081,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3080,14 +3098,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3096,14 +3114,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3113,11 +3131,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>32</v>
@@ -3136,7 +3154,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>179</v>
+        <v>105</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3146,14 +3164,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3162,14 +3180,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3179,11 +3197,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>32</v>
@@ -3195,14 +3213,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>53</v>
+        <v>184</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3212,14 +3230,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3228,14 +3246,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>124</v>
+        <v>188</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3245,11 +3263,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>32</v>
@@ -3261,14 +3279,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3278,11 +3296,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>32</v>
@@ -3294,14 +3312,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3311,14 +3329,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>131</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3327,7 +3345,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3344,11 +3362,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>32</v>
@@ -3360,14 +3378,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3377,11 +3395,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3433,7 +3451,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3443,14 +3461,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>33</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3459,14 +3477,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>208</v>
+        <v>32</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3476,14 +3494,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>80</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>81</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3509,11 +3527,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>32</v>
@@ -3525,14 +3543,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>144</v>
+        <v>213</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3542,14 +3560,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3558,14 +3576,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3575,14 +3593,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3591,28 +3609,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>32</v>
@@ -3624,28 +3642,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>219</v>
+        <v>147</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>54</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>32</v>
@@ -3657,28 +3675,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>124</v>
+        <v>188</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>32</v>
@@ -3690,14 +3708,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>224</v>
+        <v>147</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3714,7 +3732,7 @@
         <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>227</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3723,14 +3741,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>124</v>
+        <v>228</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3773,14 +3791,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3789,14 +3807,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>124</v>
+        <v>233</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3813,7 +3831,7 @@
         <v>235</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>105</v>
+        <v>236</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3822,14 +3840,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3839,11 +3857,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>32</v>
@@ -3862,7 +3880,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>240</v>
+        <v>124</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3872,14 +3890,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3888,7 +3906,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3905,14 +3923,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>32</v>
+        <v>105</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3921,7 +3939,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3938,11 +3956,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>32</v>
@@ -3954,14 +3972,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3971,14 +3989,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3987,14 +4005,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>249</v>
+        <v>124</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4004,11 +4022,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>32</v>
@@ -4020,14 +4038,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>251</v>
+        <v>32</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4037,11 +4055,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>32</v>
@@ -4053,14 +4071,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>255</v>
+        <v>147</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4070,49 +4088,148 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
+        <v>253</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>254</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>255</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>24</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>229</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>230</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>256</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>257</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>24</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>258</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>259</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>260</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>261</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>24</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>252</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
         <v>110</v>
       </c>
-      <c t="s" r="Q87" s="12">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="88" ht="24.75" customHeight="1">
-      <c r="P88" s="13">
-        <v>4439.2799999999997</v>
-      </c>
-      <c r="Q88" s="13"/>
-    </row>
-    <row r="89" ht="16.5" customHeight="1">
-      <c t="s" r="A89" s="14">
-        <v>256</v>
-      </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c t="s" r="G89" s="15">
-        <v>257</v>
-      </c>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="16"/>
-      <c t="s" r="K89" s="17">
-        <v>258</v>
-      </c>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
+      <c t="s" r="Q90" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="P91" s="13">
+        <v>4625.2799999999997</v>
+      </c>
+      <c r="Q91" s="13"/>
+    </row>
+    <row r="92" ht="16.5" customHeight="1">
+      <c t="s" r="A92" s="14">
+        <v>262</v>
+      </c>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c t="s" r="G92" s="15">
+        <v>263</v>
+      </c>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="16"/>
+      <c t="s" r="K92" s="17">
+        <v>264</v>
+      </c>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="417">
+  <mergeCells count="432">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4526,10 +4643,25 @@
     <mergeCell ref="H87:K87"/>
     <mergeCell ref="L87:M87"/>
     <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="K89:Q89"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="K92:Q92"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -671,6 +671,15 @@
     <t>86.0000</t>
   </si>
   <si>
+    <t>YASMIN 0.03/3 MG 21 TABS.</t>
+  </si>
+  <si>
+    <t>205.00</t>
+  </si>
+  <si>
+    <t>205.0000</t>
+  </si>
+  <si>
     <t>ZINOL 1GM I.M./I.V. VIAL</t>
   </si>
   <si>
@@ -797,7 +806,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 7:11 PM</t>
+    <t>Sunday, 5 October, 2025 7:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3649,7 +3658,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3659,11 +3668,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>54</v>
+        <v>221</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>160</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>32</v>
@@ -3675,14 +3684,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3692,11 +3701,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>54</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>32</v>
@@ -3715,13 +3724,13 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
@@ -3748,7 +3757,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>228</v>
+        <v>147</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3758,11 +3767,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>32</v>
@@ -3774,14 +3783,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>124</v>
+        <v>231</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3791,11 +3800,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>32</v>
@@ -3807,14 +3816,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>233</v>
+        <v>124</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3824,14 +3833,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>236</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3840,14 +3849,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>124</v>
+        <v>236</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3857,14 +3866,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>32</v>
+        <v>239</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3873,7 +3882,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3890,14 +3899,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>217</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3906,7 +3915,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3923,14 +3932,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>105</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3946,7 +3955,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3963,7 +3972,7 @@
         <v>245</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>32</v>
+        <v>105</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3979,7 +3988,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3989,11 +3998,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>32</v>
@@ -4005,14 +4014,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4022,11 +4031,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>32</v>
@@ -4038,14 +4047,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4055,11 +4064,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>32</v>
@@ -4078,7 +4087,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>147</v>
+        <v>32</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4095,7 +4104,7 @@
         <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4111,7 +4120,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>255</v>
+        <v>147</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4121,14 +4130,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4137,14 +4146,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4154,11 +4163,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>32</v>
@@ -4170,14 +4179,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4187,49 +4196,82 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
+        <v>262</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>263</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>264</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>24</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>255</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
         <v>110</v>
       </c>
-      <c t="s" r="Q90" s="12">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="91" ht="25.5" customHeight="1">
-      <c r="P91" s="13">
-        <v>4625.2799999999997</v>
-      </c>
-      <c r="Q91" s="13"/>
-    </row>
-    <row r="92" ht="16.5" customHeight="1">
-      <c t="s" r="A92" s="14">
-        <v>262</v>
-      </c>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c t="s" r="G92" s="15">
-        <v>263</v>
-      </c>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="16"/>
-      <c t="s" r="K92" s="17">
-        <v>264</v>
-      </c>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
+      <c t="s" r="Q91" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="P92" s="13">
+        <v>4830.2799999999997</v>
+      </c>
+      <c r="Q92" s="13"/>
+    </row>
+    <row r="93" ht="16.5" customHeight="1">
+      <c t="s" r="A93" s="14">
+        <v>265</v>
+      </c>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c t="s" r="G93" s="15">
+        <v>266</v>
+      </c>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="16"/>
+      <c t="s" r="K93" s="17">
+        <v>267</v>
+      </c>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="432">
+  <mergeCells count="437">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4658,10 +4700,15 @@
     <mergeCell ref="H90:K90"/>
     <mergeCell ref="L90:M90"/>
     <mergeCell ref="N90:O90"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="K92:Q92"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="K93:Q93"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -305,6 +305,15 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
+    <t>DEXAZONE 0.5MG 60 TAB</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -335,6 +344,15 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>ESSENTIALE 300MG 30CAP</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>31.3500</t>
+  </si>
+  <si>
     <t>EUTHYROX 100MCG 50 TAB.</t>
   </si>
   <si>
@@ -488,6 +506,12 @@
     <t>150.0000</t>
   </si>
   <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
     <t>OPTIDEX -T EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -584,6 +608,15 @@
     <t>21.0000</t>
   </si>
   <si>
+    <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>TAMSULIN 0.4MG 28 CAPS</t>
   </si>
   <si>
@@ -611,6 +644,15 @@
     <t>120.0000</t>
   </si>
   <si>
+    <t>TORSERETIC 20MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>40.5900</t>
+  </si>
+  <si>
     <t>URINEX 24 CAPS</t>
   </si>
   <si>
@@ -641,9 +683,6 @@
     <t>VINOSIN CREAM 75GM</t>
   </si>
   <si>
-    <t>95.00</t>
-  </si>
-  <si>
     <t>95.0000</t>
   </si>
   <si>
@@ -740,6 +779,9 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>16.0000</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -806,7 +848,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 7:15 PM</t>
+    <t>Sunday, 5 October, 2025 7:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2282,14 +2324,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2305,7 +2347,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2315,14 +2357,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2338,7 +2380,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2348,11 +2390,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>32</v>
@@ -2364,14 +2406,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2388,7 +2430,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2404,24 +2446,24 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2430,14 +2472,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2447,11 +2489,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2463,31 +2505,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2496,14 +2538,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2513,11 +2555,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2529,31 +2571,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2562,7 +2604,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2579,11 +2621,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2595,14 +2637,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2619,7 +2661,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2635,7 +2677,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2645,11 +2687,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2661,14 +2703,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2678,14 +2720,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2694,20 +2736,20 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2718,7 +2760,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2734,7 +2776,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2767,21 +2809,21 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>147</v>
+        <v>32</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>32</v>
@@ -2793,14 +2835,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2810,14 +2852,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>43</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2833,7 +2875,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2843,11 +2885,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>70</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>32</v>
@@ -2859,14 +2901,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2876,14 +2918,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2892,14 +2934,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2909,11 +2951,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>70</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>32</v>
@@ -2932,7 +2974,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2942,11 +2984,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>54</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>32</v>
@@ -2958,14 +3000,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2975,14 +3017,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2991,14 +3033,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3008,11 +3050,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>32</v>
@@ -3024,14 +3066,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3041,7 +3083,7 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>54</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
@@ -3064,7 +3106,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>170</v>
+        <v>32</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3074,14 +3116,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3090,14 +3132,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3107,14 +3149,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3123,14 +3165,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3140,11 +3182,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>32</v>
@@ -3156,14 +3198,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>105</v>
+        <v>178</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3173,14 +3215,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3189,14 +3231,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3206,14 +3248,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3229,7 +3271,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3239,14 +3281,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3255,14 +3297,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3272,11 +3314,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>32</v>
@@ -3288,14 +3330,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3305,11 +3347,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>32</v>
@@ -3321,14 +3363,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>124</v>
+        <v>192</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3338,14 +3380,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3354,14 +3396,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>32</v>
+        <v>196</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3371,11 +3413,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>32</v>
@@ -3387,14 +3429,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3404,14 +3446,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>131</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3420,14 +3462,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3437,11 +3479,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>32</v>
@@ -3453,14 +3495,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3470,14 +3512,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>33</v>
+        <v>206</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3486,7 +3528,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3503,11 +3545,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>32</v>
@@ -3519,14 +3561,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3536,14 +3578,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3552,14 +3594,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>213</v>
+        <v>46</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3569,11 +3611,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>81</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3585,14 +3627,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>215</v>
+        <v>32</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3609,7 +3651,7 @@
         <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3625,7 +3667,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3635,14 +3677,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3658,7 +3700,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3691,7 +3733,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3701,11 +3743,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>160</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>32</v>
@@ -3717,14 +3759,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>188</v>
+        <v>226</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3734,14 +3776,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>225</v>
+        <v>80</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>226</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3757,24 +3799,24 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>147</v>
+        <v>228</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3783,28 +3825,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>231</v>
+        <v>130</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>232</v>
+        <v>76</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>32</v>
@@ -3816,28 +3858,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>32</v>
@@ -3849,31 +3891,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>236</v>
+        <v>153</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>237</v>
+        <v>54</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>238</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>239</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3882,28 +3924,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>124</v>
+        <v>196</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>32</v>
@@ -3915,14 +3957,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3932,14 +3974,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3955,7 +3997,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>124</v>
+        <v>244</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3965,14 +4007,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>105</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3981,14 +4023,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3998,11 +4040,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>32</v>
@@ -4014,14 +4056,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>86</v>
+        <v>249</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4031,14 +4073,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>32</v>
+        <v>252</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4047,14 +4089,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4064,11 +4106,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>32</v>
@@ -4080,14 +4122,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4097,14 +4139,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>32</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4113,14 +4155,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4130,14 +4172,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>28</v>
+        <v>108</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4146,14 +4188,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>258</v>
+        <v>32</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4163,11 +4205,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>32</v>
@@ -4179,14 +4221,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4196,11 +4238,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>32</v>
@@ -4212,14 +4254,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>264</v>
+        <v>130</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4229,49 +4271,214 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>110</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>32</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
-      <c r="P92" s="13">
-        <v>4830.2799999999997</v>
-      </c>
-      <c r="Q92" s="13"/>
-    </row>
-    <row r="93" ht="16.5" customHeight="1">
-      <c t="s" r="A93" s="14">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
         <v>265</v>
       </c>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c t="s" r="G93" s="15">
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>32</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>24</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
         <v>266</v>
       </c>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="16"/>
-      <c t="s" r="K93" s="17">
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
         <v>267</v>
       </c>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
-      <c r="Q93" s="17"/>
+      <c t="s" r="Q92" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>268</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>153</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>24</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>269</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>270</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>271</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>272</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>24</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>245</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>246</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>273</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>274</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>24</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>275</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>276</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>277</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>278</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>24</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>269</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="P97" s="13">
+        <v>5070.2200000000003</v>
+      </c>
+      <c r="Q97" s="13"/>
+    </row>
+    <row r="98" ht="16.5" customHeight="1">
+      <c t="s" r="A98" s="14">
+        <v>279</v>
+      </c>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c t="s" r="G98" s="15">
+        <v>280</v>
+      </c>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="16"/>
+      <c t="s" r="K98" s="17">
+        <v>281</v>
+      </c>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="437">
+  <mergeCells count="462">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4705,10 +4912,35 @@
     <mergeCell ref="H91:K91"/>
     <mergeCell ref="L91:M91"/>
     <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="K93:Q93"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="K98:Q98"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -485,6 +485,12 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>LICID LOTION 30 ML</t>
   </si>
   <si>
@@ -512,6 +518,12 @@
     <t>66.00</t>
   </si>
   <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
     <t>OPTIDEX -T EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -599,9 +611,6 @@
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>21.00</t>
   </si>
   <si>
@@ -827,7 +836,7 @@
     <t>ماكينه حلاقه جليت فليكتور</t>
   </si>
   <si>
-    <t>26:0</t>
+    <t>25:0</t>
   </si>
   <si>
     <t>معجون سيجنال 25 مل</t>
@@ -848,7 +857,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 7:36 PM</t>
+    <t>Sunday, 5 October, 2025 7:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2941,7 +2950,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2951,14 +2960,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>71</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2967,7 +2976,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2984,11 +2993,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>32</v>
@@ -3000,14 +3009,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3017,11 +3026,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>32</v>
@@ -3033,14 +3042,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3050,11 +3059,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>88</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>32</v>
@@ -3073,7 +3082,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3083,11 +3092,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>54</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>32</v>
@@ -3106,7 +3115,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3116,14 +3125,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3139,7 +3148,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3149,11 +3158,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>54</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>32</v>
@@ -3165,14 +3174,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3182,14 +3191,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3198,14 +3207,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>178</v>
+        <v>118</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3215,14 +3224,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3231,14 +3240,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3248,14 +3257,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3264,14 +3273,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>130</v>
+        <v>182</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3281,14 +3290,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3297,14 +3306,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3314,14 +3323,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3330,14 +3339,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3347,11 +3356,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>32</v>
@@ -3363,14 +3372,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>192</v>
+        <v>108</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3380,14 +3389,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3396,14 +3405,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>196</v>
+        <v>32</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3413,11 +3422,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>32</v>
@@ -3429,14 +3438,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>28</v>
+        <v>196</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3446,14 +3455,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3462,14 +3471,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>53</v>
+        <v>170</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3479,11 +3488,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>32</v>
@@ -3495,14 +3504,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3512,11 +3521,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>32</v>
@@ -3528,14 +3537,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3545,11 +3554,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>32</v>
@@ -3561,14 +3570,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3578,14 +3587,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3594,14 +3603,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3611,14 +3620,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>137</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3627,14 +3636,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3644,14 +3653,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3660,14 +3669,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3677,11 +3686,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>33</v>
+        <v>137</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3693,7 +3702,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3710,11 +3719,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>32</v>
@@ -3726,14 +3735,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3743,14 +3752,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3759,14 +3768,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>226</v>
+        <v>32</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3776,14 +3785,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>80</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>81</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3792,14 +3801,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>228</v>
+        <v>130</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3809,14 +3818,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>229</v>
+        <v>112</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3825,14 +3834,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>130</v>
+        <v>229</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3842,14 +3851,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>232</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3858,14 +3867,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>130</v>
+        <v>231</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3875,14 +3884,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3891,14 +3900,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3908,11 +3917,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>168</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>32</v>
@@ -3924,14 +3933,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>196</v>
+        <v>130</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3941,11 +3950,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>32</v>
@@ -3957,7 +3966,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3970,15 +3979,15 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>241</v>
+        <v>54</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>242</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>32</v>
@@ -3990,28 +3999,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>244</v>
+        <v>170</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>32</v>
@@ -4023,14 +4032,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4040,11 +4049,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>32</v>
@@ -4056,14 +4065,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4073,14 +4082,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>252</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4089,7 +4098,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4106,11 +4115,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>32</v>
@@ -4122,14 +4131,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>130</v>
+        <v>252</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4139,14 +4148,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>86</v>
+        <v>255</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4155,7 +4164,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4172,14 +4181,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>108</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4188,14 +4197,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4205,14 +4214,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>32</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4221,14 +4230,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4238,14 +4247,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>32</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4254,14 +4263,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4271,11 +4280,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>32</v>
@@ -4287,14 +4296,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4304,11 +4313,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>32</v>
@@ -4320,14 +4329,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4337,14 +4346,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4353,14 +4362,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>272</v>
+        <v>32</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4370,11 +4379,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>32</v>
@@ -4386,14 +4395,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>274</v>
+        <v>153</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4403,14 +4412,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4419,14 +4428,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4436,49 +4445,115 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
+        <v>270</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>276</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>277</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>24</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>278</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>279</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>280</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>281</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>24</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>272</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
         <v>116</v>
       </c>
-      <c t="s" r="Q96" s="12">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="97" ht="25.5" customHeight="1">
-      <c r="P97" s="13">
-        <v>5070.2200000000003</v>
-      </c>
-      <c r="Q97" s="13"/>
-    </row>
-    <row r="98" ht="16.5" customHeight="1">
-      <c t="s" r="A98" s="14">
-        <v>279</v>
-      </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c t="s" r="G98" s="15">
-        <v>280</v>
-      </c>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="16"/>
-      <c t="s" r="K98" s="17">
-        <v>281</v>
-      </c>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
+      <c t="s" r="Q98" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="P99" s="13">
+        <v>5138.2200000000003</v>
+      </c>
+      <c r="Q99" s="13"/>
+    </row>
+    <row r="100" ht="16.5" customHeight="1">
+      <c t="s" r="A100" s="14">
+        <v>282</v>
+      </c>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c t="s" r="G100" s="15">
+        <v>283</v>
+      </c>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+      <c t="s" r="K100" s="17">
+        <v>284</v>
+      </c>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="462">
+  <mergeCells count="472">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4937,10 +5012,20 @@
     <mergeCell ref="H96:K96"/>
     <mergeCell ref="L96:M96"/>
     <mergeCell ref="N96:O96"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="K98:Q98"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="K100:Q100"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -95,30 +95,33 @@
     <t>AMARYL M 2/500 MG 30 F.C.TABS.</t>
   </si>
   <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>135.6600</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>AMOCEREBRAL PLUS 20/40 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>ANDOPENTENE XR 300 MG 20 F.C. TABS.</t>
+  </si>
+  <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>33.6600</t>
-  </si>
-  <si>
-    <t>AMOCEREBRAL PLUS 20/40 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>ANDOPENTENE XR 300 MG 20 F.C. TABS.</t>
-  </si>
-  <si>
     <t>135.00</t>
   </si>
   <si>
@@ -170,9 +173,6 @@
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>48.00</t>
   </si>
   <si>
@@ -317,10 +317,13 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>8:1</t>
-  </si>
-  <si>
-    <t>31.6800</t>
+    <t>7:3</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>0:3</t>
   </si>
   <si>
     <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
@@ -572,6 +575,12 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
   </si>
   <si>
@@ -719,6 +728,12 @@
     <t>86.0000</t>
   </si>
   <si>
+    <t>X-TENSION PLUS 150/12.5MG 28 SCORED TAB.</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
     <t>YASMIN 0.03/3 MG 21 TABS.</t>
   </si>
   <si>
@@ -776,9 +791,6 @@
     <t>36.0000</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -857,7 +869,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 7:57 PM</t>
+    <t>Sunday, 5 October, 2025 8:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1614,7 +1626,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1623,14 +1635,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1663,7 +1675,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1673,11 +1685,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>21</v>
@@ -1689,7 +1701,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1706,14 +1718,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1722,14 +1734,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1739,11 +1751,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>21</v>
@@ -1755,14 +1767,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1772,14 +1784,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1788,14 +1800,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1805,14 +1817,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1821,14 +1833,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1861,7 +1873,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1878,7 +1890,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1894,7 +1906,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1911,7 +1923,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1960,7 +1972,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1993,7 +2005,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2010,7 +2022,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2026,7 +2038,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2059,7 +2071,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2125,7 +2137,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2142,7 +2154,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2175,7 +2187,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2201,7 +2213,7 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
@@ -2224,7 +2236,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2241,7 +2253,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2290,7 +2302,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2340,7 +2352,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2373,7 +2385,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>23</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2382,14 +2394,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2399,14 +2411,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2415,14 +2427,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2432,14 +2444,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2448,7 +2460,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2465,11 +2477,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2481,7 +2493,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2498,11 +2510,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2514,14 +2526,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2531,11 +2543,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>23</v>
@@ -2547,14 +2559,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2564,11 +2576,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2580,7 +2592,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2597,11 +2609,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2613,7 +2625,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2646,14 +2658,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2663,14 +2675,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2679,7 +2691,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2696,11 +2708,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2712,14 +2724,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2729,11 +2741,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>23</v>
@@ -2745,14 +2757,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2762,11 +2774,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2778,14 +2790,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2795,14 +2807,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2811,14 +2823,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2828,14 +2840,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2844,14 +2856,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2861,14 +2873,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2877,14 +2889,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2894,14 +2906,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2910,7 +2922,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2927,11 +2939,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2943,14 +2955,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2960,11 +2972,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2976,14 +2988,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3000,7 +3012,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3009,14 +3021,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3026,14 +3038,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3042,14 +3054,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3059,14 +3071,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3075,14 +3087,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3092,14 +3104,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>88</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3108,14 +3120,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3125,14 +3137,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3141,14 +3153,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3162,10 +3174,10 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3174,14 +3186,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3191,11 +3203,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3207,14 +3219,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3224,14 +3236,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3240,14 +3252,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3257,14 +3269,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3273,14 +3285,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3290,11 +3302,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>23</v>
@@ -3306,14 +3318,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3323,11 +3335,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3339,31 +3351,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>130</v>
+        <v>183</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>120</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3379,7 +3391,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3396,7 +3408,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3412,7 +3424,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3426,10 +3438,10 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3438,14 +3450,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>196</v>
+        <v>28</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3459,10 +3471,10 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3471,14 +3483,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3495,7 +3507,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3511,7 +3523,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3528,7 +3540,7 @@
         <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3544,7 +3556,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3561,7 +3573,7 @@
         <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3577,7 +3589,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3594,7 +3606,7 @@
         <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3610,7 +3622,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3627,7 +3639,7 @@
         <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3643,7 +3655,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3660,7 +3672,7 @@
         <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3676,7 +3688,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3686,11 +3698,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>137</v>
+        <v>218</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3702,14 +3714,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3719,14 +3731,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>138</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3752,14 +3764,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>33</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3768,14 +3780,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3785,14 +3797,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>33</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3808,7 +3820,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3818,14 +3830,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>112</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3834,14 +3846,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>229</v>
+        <v>131</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3851,14 +3863,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>81</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3867,14 +3879,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3884,14 +3896,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>232</v>
+        <v>80</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3900,14 +3912,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>130</v>
+        <v>234</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3917,14 +3929,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>76</v>
+        <v>235</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3933,14 +3945,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3950,14 +3962,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>237</v>
+        <v>76</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3973,7 +3985,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3983,14 +3995,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>172</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3999,14 +4011,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4016,14 +4028,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4032,31 +4044,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>54</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4065,31 +4077,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>247</v>
+        <v>171</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4098,14 +4110,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4115,14 +4127,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4155,7 +4167,7 @@
         <v>254</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>255</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4164,14 +4176,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4181,14 +4193,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4197,14 +4209,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>130</v>
+        <v>257</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4214,14 +4226,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>259</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>86</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4237,7 +4249,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4251,10 +4263,10 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>108</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4263,14 +4275,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4280,14 +4292,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>32</v>
+        <v>86</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4296,14 +4308,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4313,14 +4325,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>32</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4336,7 +4348,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4346,14 +4358,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4362,14 +4374,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4379,14 +4391,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4402,7 +4414,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4412,11 +4424,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>28</v>
@@ -4428,14 +4440,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>275</v>
+        <v>28</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4445,11 +4457,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>28</v>
@@ -4461,14 +4473,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>277</v>
+        <v>154</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4478,14 +4490,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4494,14 +4506,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4511,49 +4523,115 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>116</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
-      <c r="P99" s="13">
-        <v>5138.2200000000003</v>
-      </c>
-      <c r="Q99" s="13"/>
-    </row>
-    <row r="100" ht="16.5" customHeight="1">
-      <c t="s" r="A100" s="14">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>280</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>281</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>24</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
         <v>282</v>
       </c>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c t="s" r="G100" s="15">
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
         <v>283</v>
       </c>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="16"/>
-      <c t="s" r="K100" s="17">
+      <c t="s" r="Q99" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
         <v>284</v>
       </c>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="17"/>
-      <c r="P100" s="17"/>
-      <c r="Q100" s="17"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>285</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>24</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>276</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="P101" s="13">
+        <v>5391.0600000000004</v>
+      </c>
+      <c r="Q101" s="13"/>
+    </row>
+    <row r="102" ht="16.5" customHeight="1">
+      <c t="s" r="A102" s="14">
+        <v>286</v>
+      </c>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c t="s" r="G102" s="15">
+        <v>287</v>
+      </c>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="16"/>
+      <c t="s" r="K102" s="17">
+        <v>288</v>
+      </c>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="472">
+  <mergeCells count="482">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5022,10 +5100,20 @@
     <mergeCell ref="H98:K98"/>
     <mergeCell ref="L98:M98"/>
     <mergeCell ref="N98:O98"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="K100:Q100"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="K102:Q102"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -179,6 +179,15 @@
     <t>7.6800</t>
   </si>
   <si>
+    <t>BIOWORLD TAB</t>
+  </si>
+  <si>
+    <t>133.00</t>
+  </si>
+  <si>
+    <t>66.5000</t>
+  </si>
+  <si>
     <t>BLOKATENS 10/160MG 28 F.C.TABS.</t>
   </si>
   <si>
@@ -197,6 +206,15 @@
     <t>69.0000</t>
   </si>
   <si>
+    <t>BRUFEN 600MG 30 TAB</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>32.6700</t>
+  </si>
+  <si>
     <t>BUDEXAN 0.5 MG/2ML 20 SUSP. AMP. FOR INH</t>
   </si>
   <si>
@@ -245,6 +263,15 @@
     <t>43.0000</t>
   </si>
   <si>
+    <t>CETAL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>CIDOPHAGE 1000MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -317,480 +344,492 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>7:3</t>
-  </si>
-  <si>
-    <t>47.5200</t>
+    <t>7:2</t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>ESSENTIALE 300MG 30CAP</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>31.3500</t>
+  </si>
+  <si>
+    <t>EUTHYROX 100MCG 50 TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>17.2800</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLAMOGEST  30TABS</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>64.3500</t>
+  </si>
+  <si>
+    <t>FLECTOR 50MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>GINKGO BILOBA 30 CAPS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>186.00</t>
+  </si>
+  <si>
+    <t>186.0000</t>
+  </si>
+  <si>
+    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>55.4400</t>
+  </si>
+  <si>
+    <t>GLUCOLIGHT XR 1000MG 30 EX. REL .F.C. TAB.</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
+    <t>GLYCERIN INFANTILE 10 SUPP. (GLAXO)</t>
+  </si>
+  <si>
+    <t>34:0</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>9.5000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>HUSH SACHET</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>HYDROFERRIN 50MG/ML ORAL DROPS 30 ML</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>KERELLA LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>LICID LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>LIPONA 20MG 10 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>MILGA ADVANCE 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>OPTIDEX -T EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>OSTEOCARE 30 TABS</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>PANADOL COLD &amp; FLU DAY 24 F.C. TABS</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>PARAGESIC 500MG 5 SUPP.</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>PARAMOL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>PERLOC 40MG 14 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:19</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>7.0500</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>TAMSULIN 0.4MG 28 CAPS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
+    <t>THYROXINE 100MCG 100 TAB.</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>TORSERETIC 20MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>40.5900</t>
+  </si>
+  <si>
+    <t>URINEX 24 CAPS</t>
+  </si>
+  <si>
+    <t>URSOFALK 250MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>175.0000</t>
+  </si>
+  <si>
+    <t>VINOSIN CREAM 75GM</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>8:3</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8201:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>XITHRONE 500MG 5 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>X-TENSION PLUS 150/12.5MG 28 SCORED TAB.</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
+    <t>YASMIN 0.03/3 MG 21 TABS.</t>
+  </si>
+  <si>
+    <t>205.00</t>
+  </si>
+  <si>
+    <t>205.0000</t>
+  </si>
+  <si>
+    <t>ZINOL 1GM I.M./I.V. VIAL</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>امواس لورد</t>
+  </si>
+  <si>
+    <t>22:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>جل صبار للبشره</t>
+  </si>
+  <si>
+    <t>حفاضات كبار سن جير ميني 36ق</t>
+  </si>
+  <si>
+    <t>0:10</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
   </si>
   <si>
     <t>0:3</t>
   </si>
   <si>
-    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>ELICA-M CREAM 30 GRAM</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>ESSENTIALE 300MG 30CAP</t>
-  </si>
-  <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>31.3500</t>
-  </si>
-  <si>
-    <t>EUTHYROX 100MCG 50 TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>17.2800</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLAMOGEST  30TABS</t>
-  </si>
-  <si>
-    <t>195.00</t>
-  </si>
-  <si>
-    <t>64.3500</t>
-  </si>
-  <si>
-    <t>FLECTOR 50MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>GINKGO BILOBA 30 CAPS.</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>186.00</t>
-  </si>
-  <si>
-    <t>186.0000</t>
-  </si>
-  <si>
-    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>168.00</t>
-  </si>
-  <si>
-    <t>55.4400</t>
-  </si>
-  <si>
-    <t>GLUCOLIGHT XR 1000MG 30 EX. REL .F.C. TAB.</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>27.7200</t>
-  </si>
-  <si>
-    <t>GLYCERIN INFANTILE 10 SUPP. (GLAXO)</t>
-  </si>
-  <si>
-    <t>34:0</t>
-  </si>
-  <si>
-    <t>19.00</t>
-  </si>
-  <si>
-    <t>9.5000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>92.0000</t>
-  </si>
-  <si>
-    <t>HUSH SACHET</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>HYDROFERRIN 50MG/ML ORAL DROPS 30 ML</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>KERELLA LOTION 30 ML</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>LARYPRO 20 LOZENGES</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>LICID LOTION 30 ML</t>
-  </si>
-  <si>
-    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>MILGA ADVANCE 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>150.0000</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>OPTIDEX -T EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>OSTEOCARE 30 TABS</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
-  </si>
-  <si>
-    <t>89.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>PANADOL COLD &amp; FLU DAY 24 F.C. TABS</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>80.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>PARAGESIC 500MG 5 SUPP.</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>PERLOC 40MG 14 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>0:19</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>7.0500</t>
-  </si>
-  <si>
-    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>TAMSULIN 0.4MG 28 CAPS</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>124.0000</t>
-  </si>
-  <si>
-    <t>THYROXINE 100MCG 100 TAB.</t>
-  </si>
-  <si>
-    <t>58.00</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>TORSERETIC 20MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>123.00</t>
-  </si>
-  <si>
-    <t>40.5900</t>
-  </si>
-  <si>
-    <t>URINEX 24 CAPS</t>
-  </si>
-  <si>
-    <t>URSOFALK 250MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>122.0000</t>
-  </si>
-  <si>
-    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>175.00</t>
-  </si>
-  <si>
-    <t>175.0000</t>
-  </si>
-  <si>
-    <t>VINOSIN CREAM 75GM</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>8:3</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8201:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>XITHRONE 500MG 5 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>86.0000</t>
-  </si>
-  <si>
-    <t>X-TENSION PLUS 150/12.5MG 28 SCORED TAB.</t>
-  </si>
-  <si>
-    <t>108.0000</t>
-  </si>
-  <si>
-    <t>YASMIN 0.03/3 MG 21 TABS.</t>
-  </si>
-  <si>
-    <t>205.00</t>
-  </si>
-  <si>
-    <t>205.0000</t>
-  </si>
-  <si>
-    <t>ZINOL 1GM I.M./I.V. VIAL</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>امواس لورد</t>
-  </si>
-  <si>
-    <t>22:0</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>جل صبار للبشره</t>
-  </si>
-  <si>
-    <t>حفاضات كبار سن جير ميني 36ق</t>
-  </si>
-  <si>
-    <t>0:10</t>
-  </si>
-  <si>
-    <t>450.00</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -869,7 +908,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 8:17 PM</t>
+    <t>Sunday, 5 October, 2025 8:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1873,13 +1912,13 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1890,7 +1929,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1939,7 +1978,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1949,14 +1988,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1965,14 +2004,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1982,11 +2021,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1998,14 +2037,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2022,7 +2061,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2038,13 +2077,13 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -2088,7 +2127,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2104,21 +2143,21 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -2130,14 +2169,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2147,14 +2186,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2163,14 +2202,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2180,14 +2219,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2196,14 +2235,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2213,7 +2252,7 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
@@ -2236,7 +2275,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2269,7 +2308,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2279,14 +2318,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2295,14 +2334,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2312,11 +2351,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -2328,14 +2367,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2345,11 +2384,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>28</v>
@@ -2361,14 +2400,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2378,14 +2417,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>104</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2394,14 +2433,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2411,14 +2450,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>33</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2427,14 +2466,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2444,11 +2483,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>28</v>
@@ -2460,31 +2499,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2493,14 +2532,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2510,14 +2549,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2526,14 +2565,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2543,14 +2582,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2559,28 +2598,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2592,28 +2631,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2625,14 +2664,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2642,14 +2681,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2682,7 +2721,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2704,7 +2743,7 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2731,7 +2770,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2741,14 +2780,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2757,14 +2796,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2774,14 +2813,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2790,14 +2829,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2807,14 +2846,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2823,31 +2862,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>28</v>
+        <v>139</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2856,14 +2895,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2873,14 +2912,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2889,14 +2928,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>154</v>
+        <v>36</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2906,11 +2945,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>28</v>
@@ -2922,31 +2961,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>44</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2955,14 +2994,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>28</v>
+        <v>139</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2972,14 +3011,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2995,7 +3034,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3005,11 +3044,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>70</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>71</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>28</v>
@@ -3021,14 +3060,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3038,14 +3077,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3054,14 +3093,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3071,14 +3110,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3094,7 +3133,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3104,11 +3143,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>76</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>28</v>
@@ -3120,14 +3159,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3137,11 +3176,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>28</v>
@@ -3160,7 +3199,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3170,11 +3209,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>54</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>28</v>
@@ -3186,14 +3225,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3203,14 +3242,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3219,14 +3258,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3236,11 +3275,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>28</v>
@@ -3252,14 +3291,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3269,11 +3308,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>28</v>
@@ -3292,7 +3331,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>183</v>
+        <v>28</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3302,14 +3341,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>145</v>
+        <v>54</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3318,14 +3357,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3335,11 +3374,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3351,31 +3390,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3384,14 +3423,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3401,11 +3440,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>28</v>
@@ -3417,14 +3456,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>109</v>
+        <v>192</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3434,14 +3473,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3450,14 +3489,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3467,14 +3506,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3483,28 +3522,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3516,14 +3555,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3533,11 +3572,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>28</v>
@@ -3549,14 +3588,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3566,11 +3605,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>28</v>
@@ -3582,14 +3621,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3599,14 +3638,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3615,14 +3654,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>131</v>
+        <v>28</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3632,11 +3671,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>28</v>
@@ -3648,14 +3687,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>28</v>
+        <v>211</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3665,14 +3704,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3681,14 +3720,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>23</v>
+        <v>181</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3698,14 +3737,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3714,14 +3753,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3731,14 +3770,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>138</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3747,14 +3786,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3764,11 +3803,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>28</v>
@@ -3780,14 +3819,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3797,14 +3836,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>33</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3853,7 +3892,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3863,14 +3902,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>113</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3879,14 +3918,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>232</v>
+        <v>47</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3896,11 +3935,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>81</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -3919,7 +3958,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>234</v>
+        <v>28</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3929,14 +3968,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3945,14 +3984,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>131</v>
+        <v>36</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3962,14 +4001,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3978,14 +4017,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>131</v>
+        <v>28</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3995,7 +4034,7 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>120</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
@@ -4018,7 +4057,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4028,11 +4067,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>242</v>
+        <v>121</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>28</v>
@@ -4044,14 +4083,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>154</v>
+        <v>244</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4061,14 +4100,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>173</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4084,7 +4123,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>171</v>
+        <v>246</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4094,14 +4133,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4110,24 +4149,24 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>249</v>
+        <v>82</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
@@ -4150,21 +4189,21 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>252</v>
+        <v>139</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>253</v>
+        <v>128</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>28</v>
@@ -4176,28 +4215,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>28</v>
@@ -4216,24 +4255,24 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>257</v>
+        <v>162</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>258</v>
+        <v>54</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>259</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>104</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4242,28 +4281,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>28</v>
@@ -4275,14 +4314,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4292,14 +4331,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>86</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4308,14 +4347,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>131</v>
+        <v>264</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4332,7 +4371,7 @@
         <v>266</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>109</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4348,7 +4387,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>28</v>
+        <v>139</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4358,11 +4397,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>28</v>
@@ -4374,14 +4413,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>86</v>
+        <v>269</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4391,14 +4430,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>28</v>
+        <v>272</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4407,14 +4446,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4424,11 +4463,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>28</v>
@@ -4440,14 +4479,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>28</v>
+        <v>139</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4457,14 +4496,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>28</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4473,14 +4512,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4490,14 +4529,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>36</v>
+        <v>117</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4506,14 +4545,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>279</v>
+        <v>28</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4523,14 +4562,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4539,14 +4578,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4556,11 +4595,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>28</v>
@@ -4579,7 +4618,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>285</v>
+        <v>139</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4589,49 +4628,214 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>117</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>28</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
-      <c r="P101" s="13">
-        <v>5391.0600000000004</v>
-      </c>
-      <c r="Q101" s="13"/>
-    </row>
-    <row r="102" ht="16.5" customHeight="1">
-      <c t="s" r="A102" s="14">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>285</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>28</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>24</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
         <v>286</v>
       </c>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c t="s" r="G102" s="15">
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
         <v>287</v>
       </c>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="16"/>
-      <c t="s" r="K102" s="17">
+      <c t="s" r="Q101" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
         <v>288</v>
       </c>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="17"/>
-      <c r="Q102" s="17"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>162</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>24</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>289</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>290</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>291</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>292</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>24</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>265</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>287</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>293</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>294</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>24</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>295</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>296</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>297</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>298</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>24</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>289</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="P106" s="13">
+        <v>5578.0699999999997</v>
+      </c>
+      <c r="Q106" s="13"/>
+    </row>
+    <row r="107" ht="16.5" customHeight="1">
+      <c t="s" r="A107" s="14">
+        <v>299</v>
+      </c>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c t="s" r="G107" s="15">
+        <v>300</v>
+      </c>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="16"/>
+      <c t="s" r="K107" s="17">
+        <v>301</v>
+      </c>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="17"/>
+      <c r="P107" s="17"/>
+      <c r="Q107" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="482">
+  <mergeCells count="507">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5110,10 +5314,35 @@
     <mergeCell ref="H100:K100"/>
     <mergeCell ref="L100:M100"/>
     <mergeCell ref="N100:O100"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="K102:Q102"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="K107:Q107"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -329,6 +329,15 @@
     <t>11.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">DELTACLAV 1 GM 14F.C  TAB</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -425,6 +434,21 @@
     <t>FLECTOR 50MG 30 CAPS</t>
   </si>
   <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>GINKGO BILOBA 30 CAPS.</t>
   </si>
   <si>
@@ -479,9 +503,6 @@
     <t>HUSH SACHET</t>
   </si>
   <si>
-    <t>130.00</t>
-  </si>
-  <si>
     <t>130.0000</t>
   </si>
   <si>
@@ -512,9 +533,6 @@
     <t>LARYPRO 20 LOZENGES</t>
   </si>
   <si>
-    <t>22.0000</t>
-  </si>
-  <si>
     <t>LICID LOTION 30 ML</t>
   </si>
   <si>
@@ -599,7 +617,7 @@
     <t>76.00</t>
   </si>
   <si>
-    <t>38.0000</t>
+    <t>76.0000</t>
   </si>
   <si>
     <t>PANADOL EXTRA 48 TAB</t>
@@ -779,6 +797,9 @@
     <t>205.0000</t>
   </si>
   <si>
+    <t>ZIAWET SYRUP 120ML</t>
+  </si>
+  <si>
     <t>ZINOL 1GM I.M./I.V. VIAL</t>
   </si>
   <si>
@@ -908,7 +929,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 8:27 PM</t>
+    <t>Sunday, 5 October, 2025 8:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2440,21 +2461,21 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2466,14 +2487,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2483,14 +2504,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2516,14 +2537,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2539,7 +2560,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2549,14 +2570,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2572,7 +2593,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>28</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2582,11 +2603,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>28</v>
@@ -2598,20 +2619,20 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2622,7 +2643,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2638,13 +2659,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2671,7 +2692,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2681,14 +2702,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2697,14 +2718,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2714,14 +2735,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2730,20 +2751,20 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2776,15 +2797,15 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2796,14 +2817,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>139</v>
+        <v>23</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2813,14 +2834,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2829,14 +2850,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2846,11 +2867,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2862,14 +2883,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2879,14 +2900,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2895,14 +2916,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2912,14 +2933,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2928,14 +2949,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2945,14 +2966,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2961,31 +2982,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>28</v>
+        <v>147</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2994,14 +3015,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3011,14 +3032,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3027,14 +3048,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>162</v>
+        <v>36</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3044,11 +3065,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>28</v>
@@ -3060,31 +3081,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3093,14 +3114,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>28</v>
+        <v>147</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3110,14 +3131,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3133,7 +3154,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3143,11 +3164,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>28</v>
@@ -3159,14 +3180,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>139</v>
+        <v>88</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3176,14 +3197,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>44</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3192,14 +3213,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>117</v>
+        <v>28</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3209,14 +3230,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3225,14 +3246,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3242,11 +3263,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>76</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>28</v>
@@ -3258,14 +3279,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>36</v>
+        <v>147</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3275,11 +3296,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>97</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>28</v>
@@ -3291,14 +3312,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>181</v>
+        <v>120</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3308,11 +3329,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>28</v>
@@ -3324,14 +3345,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3341,7 +3362,7 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>54</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3364,7 +3385,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3374,14 +3395,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3397,7 +3418,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>127</v>
+        <v>187</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3407,11 +3428,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>28</v>
@@ -3430,7 +3451,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3440,11 +3461,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>54</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>28</v>
@@ -3456,14 +3477,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>192</v>
+        <v>28</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3473,14 +3494,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3489,14 +3510,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>47</v>
+        <v>130</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3506,14 +3527,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>85</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3522,31 +3543,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>128</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3555,14 +3576,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>139</v>
+        <v>198</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3572,14 +3593,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>161</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3588,14 +3609,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3605,11 +3626,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>28</v>
@@ -3621,28 +3642,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>198</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>131</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3654,14 +3675,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>28</v>
+        <v>147</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3671,11 +3692,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>28</v>
@@ -3687,14 +3708,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>211</v>
+        <v>120</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3704,14 +3725,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3720,14 +3741,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>181</v>
+        <v>21</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3737,14 +3758,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3753,14 +3774,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3770,11 +3791,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>28</v>
@@ -3786,14 +3807,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>31</v>
+        <v>217</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3803,14 +3824,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3819,14 +3840,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3836,11 +3857,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>28</v>
@@ -3852,14 +3873,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3869,11 +3890,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>28</v>
@@ -3885,14 +3906,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3902,14 +3923,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3918,14 +3939,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>47</v>
+        <v>147</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3935,14 +3956,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>146</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3951,7 +3972,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3968,11 +3989,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>28</v>
@@ -3984,14 +4005,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4001,7 +4022,7 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>33</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
@@ -4024,7 +4045,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4034,14 +4055,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>239</v>
+        <v>154</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4050,14 +4071,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4067,11 +4088,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>121</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>28</v>
@@ -4083,14 +4104,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>244</v>
+        <v>36</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4100,11 +4121,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>90</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>21</v>
@@ -4116,14 +4137,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>246</v>
+        <v>28</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4133,14 +4154,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4149,14 +4170,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4166,11 +4187,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>28</v>
@@ -4182,14 +4203,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>139</v>
+        <v>250</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4199,14 +4220,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>252</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4215,14 +4236,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>139</v>
+        <v>252</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4232,14 +4253,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4248,14 +4269,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4265,11 +4286,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>183</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>28</v>
@@ -4288,7 +4309,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4298,11 +4319,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>258</v>
+        <v>131</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>28</v>
@@ -4314,28 +4335,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>28</v>
@@ -4347,28 +4368,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>264</v>
+        <v>28</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>265</v>
+        <v>54</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>266</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>28</v>
@@ -4380,28 +4401,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>261</v>
+        <v>54</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>28</v>
@@ -4413,31 +4434,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>269</v>
+        <v>187</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>272</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4446,14 +4467,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4463,11 +4484,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>28</v>
@@ -4479,14 +4500,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>139</v>
+        <v>271</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4496,14 +4517,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>95</v>
+        <v>28</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4512,14 +4533,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4529,14 +4550,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>117</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4545,14 +4566,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4562,14 +4583,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>28</v>
+        <v>279</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4578,14 +4599,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4595,11 +4616,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>28</v>
@@ -4611,14 +4632,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4628,14 +4649,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>28</v>
+        <v>95</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4644,14 +4665,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>28</v>
+        <v>147</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4661,14 +4682,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>28</v>
+        <v>120</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4677,14 +4698,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>162</v>
+        <v>28</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4694,14 +4715,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4710,14 +4731,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>292</v>
+        <v>95</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4727,14 +4748,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4743,14 +4764,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>294</v>
+        <v>147</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4760,11 +4781,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>28</v>
@@ -4776,14 +4797,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>298</v>
+        <v>28</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4793,49 +4814,181 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>125</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>28</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
-      <c r="P106" s="13">
-        <v>5578.0699999999997</v>
-      </c>
-      <c r="Q106" s="13"/>
-    </row>
-    <row r="107" ht="16.5" customHeight="1">
-      <c t="s" r="A107" s="14">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>295</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>169</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>24</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>296</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>297</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>298</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
         <v>299</v>
       </c>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c t="s" r="G107" s="15">
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>24</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>272</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>294</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
         <v>300</v>
       </c>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="16"/>
-      <c t="s" r="K107" s="17">
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
         <v>301</v>
       </c>
-      <c r="L107" s="17"/>
-      <c r="M107" s="17"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="17"/>
-      <c r="P107" s="17"/>
-      <c r="Q107" s="17"/>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>24</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>302</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>303</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>304</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>305</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>24</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>296</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>128</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="P110" s="13">
+        <v>5804.5100000000002</v>
+      </c>
+      <c r="Q110" s="13"/>
+    </row>
+    <row r="111" ht="16.5" customHeight="1">
+      <c t="s" r="A111" s="14">
+        <v>306</v>
+      </c>
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c t="s" r="G111" s="15">
+        <v>307</v>
+      </c>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="16"/>
+      <c t="s" r="K111" s="17">
+        <v>308</v>
+      </c>
+      <c r="L111" s="17"/>
+      <c r="M111" s="17"/>
+      <c r="N111" s="17"/>
+      <c r="O111" s="17"/>
+      <c r="P111" s="17"/>
+      <c r="Q111" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="507">
+  <mergeCells count="527">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5339,10 +5492,30 @@
     <mergeCell ref="H105:K105"/>
     <mergeCell ref="L105:M105"/>
     <mergeCell ref="N105:O105"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="K107:Q107"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="P110:Q110"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="K111:Q111"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -353,10 +353,13 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>7:2</t>
-  </si>
-  <si>
-    <t>63.3600</t>
+    <t>6:3</t>
+  </si>
+  <si>
+    <t>95.0400</t>
+  </si>
+  <si>
+    <t>1:3</t>
   </si>
   <si>
     <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
@@ -605,9 +608,6 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>1:3</t>
-  </si>
-  <si>
     <t>46.0000</t>
   </si>
   <si>
@@ -929,7 +929,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 8:34 PM</t>
+    <t>Sunday, 5 October, 2025 8:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2577,7 +2577,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>31</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2586,7 +2586,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2603,11 +2603,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>28</v>
@@ -2619,14 +2619,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2636,11 +2636,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>28</v>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2669,11 +2669,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2702,11 +2702,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2718,14 +2718,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2735,11 +2735,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>23</v>
@@ -2751,14 +2751,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2768,11 +2768,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2784,7 +2784,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2801,11 +2801,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2817,7 +2817,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2850,7 +2850,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2867,11 +2867,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2883,14 +2883,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>28</v>
@@ -2916,14 +2916,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2933,11 +2933,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>28</v>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2966,11 +2966,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2982,14 +2982,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2999,11 +2999,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>23</v>
@@ -3015,14 +3015,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3032,11 +3032,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -3048,7 +3048,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3065,11 +3065,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>28</v>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3102,7 +3102,7 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>28</v>
@@ -3114,14 +3114,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3131,11 +3131,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>28</v>
@@ -3147,14 +3147,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3164,11 +3164,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>28</v>
@@ -3180,7 +3180,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3230,11 +3230,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3246,14 +3246,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3279,14 +3279,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3296,11 +3296,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>28</v>
@@ -3312,14 +3312,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3329,11 +3329,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>28</v>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3362,11 +3362,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>28</v>
@@ -3378,7 +3378,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3411,14 +3411,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3428,11 +3428,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>28</v>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3465,7 +3465,7 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>28</v>
@@ -3477,7 +3477,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3494,11 +3494,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3510,14 +3510,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>28</v>
@@ -3543,14 +3543,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3560,11 +3560,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>28</v>
@@ -3576,14 +3576,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>198</v>
+        <v>116</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3593,7 +3593,7 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3649,7 +3649,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>198</v>
+        <v>116</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3682,7 +3682,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3715,7 +3715,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>28</v>
@@ -3847,7 +3847,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3946,7 +3946,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4055,7 +4055,7 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
@@ -4177,7 +4177,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4187,7 +4187,7 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
@@ -4276,7 +4276,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4309,7 +4309,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4319,7 +4319,7 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
@@ -4342,7 +4342,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4389,7 +4389,7 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>28</v>
@@ -4408,7 +4408,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4422,7 +4422,7 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>28</v>
@@ -4441,7 +4441,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4474,7 +4474,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4540,7 +4540,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4606,7 +4606,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4639,7 +4639,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4672,7 +4672,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4689,7 +4689,7 @@
         <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4771,7 +4771,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4837,7 +4837,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4950,7 +4950,7 @@
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>28</v>
@@ -4958,7 +4958,7 @@
     </row>
     <row r="110" ht="24.75" customHeight="1">
       <c r="P110" s="13">
-        <v>5804.5100000000002</v>
+        <v>5836.1899999999996</v>
       </c>
       <c r="Q110" s="13"/>
     </row>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -659,6 +659,18 @@
     <t>75.00</t>
   </si>
   <si>
+    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>752.00</t>
+  </si>
+  <si>
+    <t>37.6000</t>
+  </si>
+  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -689,6 +701,18 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>SWABIVENT NEBULIZER SOLN. 20 AMP. 2.5ML</t>
+  </si>
+  <si>
+    <t>1:9</t>
+  </si>
+  <si>
+    <t>176.00</t>
+  </si>
+  <si>
+    <t>8.8000</t>
+  </si>
+  <si>
     <t>TAMSULIN 0.4MG 28 CAPS</t>
   </si>
   <si>
@@ -848,9 +872,6 @@
     <t>36.0000</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -869,7 +890,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>9.0000</t>
+    <t>4:0</t>
   </si>
   <si>
     <t>سيتي بيبي رقم 4</t>
@@ -911,6 +932,18 @@
     <t>25:0</t>
   </si>
   <si>
+    <t>مجموعه برد</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
@@ -929,7 +962,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 8:37 PM</t>
+    <t>Sunday, 5 October, 2025 8:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3847,7 +3880,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3857,14 +3890,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3873,14 +3906,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>36</v>
+        <v>188</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3890,11 +3923,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>28</v>
@@ -3906,14 +3939,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3923,11 +3956,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>28</v>
@@ -3939,14 +3972,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>148</v>
+        <v>231</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3956,14 +3989,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3972,14 +4005,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3989,11 +4022,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>28</v>
@@ -4005,14 +4038,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>23</v>
+        <v>148</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4022,14 +4055,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4038,14 +4071,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4055,14 +4088,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>155</v>
+        <v>241</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4071,14 +4104,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4088,14 +4121,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4104,14 +4137,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4121,11 +4154,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>33</v>
+        <v>155</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>21</v>
@@ -4137,7 +4170,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4154,11 +4187,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>28</v>
@@ -4170,14 +4203,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>148</v>
+        <v>36</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4187,14 +4220,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>125</v>
+        <v>33</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4203,14 +4236,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>250</v>
+        <v>28</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4220,14 +4253,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>89</v>
+        <v>253</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>90</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4236,14 +4269,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>252</v>
+        <v>148</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4253,14 +4286,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>125</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4269,14 +4302,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>148</v>
+        <v>258</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4286,14 +4319,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4302,14 +4335,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>148</v>
+        <v>260</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4319,14 +4352,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>132</v>
+        <v>261</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4335,7 +4368,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4352,11 +4385,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>82</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>28</v>
@@ -4368,14 +4401,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>28</v>
+        <v>148</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4385,11 +4418,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>190</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>28</v>
@@ -4401,14 +4434,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4418,11 +4451,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>54</v>
+        <v>268</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>190</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>28</v>
@@ -4434,14 +4467,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>188</v>
+        <v>28</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4451,11 +4484,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>265</v>
+        <v>54</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>28</v>
@@ -4467,7 +4500,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4480,15 +4513,15 @@
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>268</v>
+        <v>54</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>269</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>28</v>
@@ -4500,28 +4533,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>271</v>
+        <v>188</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>28</v>
@@ -4533,14 +4566,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4550,11 +4583,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>28</v>
@@ -4566,14 +4599,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4583,14 +4616,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>279</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4599,7 +4632,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4616,11 +4649,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>28</v>
@@ -4632,14 +4665,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>148</v>
+        <v>284</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4649,14 +4682,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>95</v>
+        <v>217</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4665,7 +4698,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4682,14 +4715,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>121</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4698,14 +4731,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>28</v>
+        <v>148</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4715,14 +4748,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>28</v>
+        <v>95</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4731,14 +4764,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>95</v>
+        <v>148</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4748,14 +4781,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>273</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>28</v>
+        <v>293</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4764,14 +4797,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>148</v>
+        <v>28</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4781,11 +4814,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>28</v>
@@ -4797,14 +4830,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4814,11 +4847,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>28</v>
@@ -4830,14 +4863,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4847,14 +4880,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4863,14 +4896,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>299</v>
+        <v>28</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4880,14 +4913,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4896,14 +4929,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>301</v>
+        <v>170</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4913,14 +4946,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4929,14 +4962,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4946,49 +4979,181 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
+        <v>301</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>307</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>148</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>24</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>308</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>309</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>310</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>306</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>24</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>85</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>194</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>311</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>312</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>24</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>313</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>314</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>315</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>316</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>24</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>303</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
         <v>129</v>
       </c>
-      <c t="s" r="Q109" s="12">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="110" ht="24.75" customHeight="1">
-      <c r="P110" s="13">
-        <v>5836.1899999999996</v>
-      </c>
-      <c r="Q110" s="13"/>
-    </row>
-    <row r="111" ht="16.5" customHeight="1">
-      <c t="s" r="A111" s="14">
-        <v>306</v>
-      </c>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c t="s" r="G111" s="15">
-        <v>307</v>
-      </c>
-      <c r="H111" s="15"/>
-      <c r="I111" s="15"/>
-      <c r="J111" s="16"/>
-      <c t="s" r="K111" s="17">
-        <v>308</v>
-      </c>
-      <c r="L111" s="17"/>
-      <c r="M111" s="17"/>
-      <c r="N111" s="17"/>
-      <c r="O111" s="17"/>
-      <c r="P111" s="17"/>
-      <c r="Q111" s="17"/>
+      <c t="s" r="Q113" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="P114" s="13">
+        <v>5917.5900000000001</v>
+      </c>
+      <c r="Q114" s="13"/>
+    </row>
+    <row r="115" ht="16.5" customHeight="1">
+      <c t="s" r="A115" s="14">
+        <v>317</v>
+      </c>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c t="s" r="G115" s="15">
+        <v>318</v>
+      </c>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="16"/>
+      <c t="s" r="K115" s="17">
+        <v>319</v>
+      </c>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
+      <c r="N115" s="17"/>
+      <c r="O115" s="17"/>
+      <c r="P115" s="17"/>
+      <c r="Q115" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="527">
+  <mergeCells count="547">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5512,10 +5677,30 @@
     <mergeCell ref="H109:K109"/>
     <mergeCell ref="L109:M109"/>
     <mergeCell ref="N109:O109"/>
-    <mergeCell ref="P110:Q110"/>
-    <mergeCell ref="A111:F111"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="K111:Q111"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="G115:I115"/>
+    <mergeCell ref="K115:Q115"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -179,6 +179,15 @@
     <t>7.6800</t>
   </si>
   <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
     <t>BIOWORLD TAB</t>
   </si>
   <si>
@@ -683,6 +692,15 @@
     <t>7.0500</t>
   </si>
   <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
@@ -695,9 +713,6 @@
     <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
   </si>
   <si>
-    <t>39.00</t>
-  </si>
-  <si>
     <t>39.0000</t>
   </si>
   <si>
@@ -881,7 +896,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>16.0000</t>
+    <t>9:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1966,13 +1981,13 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1999,13 +2014,13 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -2016,7 +2031,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2065,7 +2080,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2082,7 +2097,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2098,7 +2113,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2108,14 +2123,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2124,14 +2139,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2148,7 +2163,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2164,7 +2179,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2181,7 +2196,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2197,13 +2212,13 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -2214,7 +2229,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2230,13 +2245,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -2296,7 +2311,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2306,11 +2321,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -2322,14 +2337,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2346,7 +2361,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2362,7 +2377,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2372,14 +2387,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2388,14 +2403,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2405,14 +2420,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2421,14 +2436,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2438,14 +2453,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2461,7 +2476,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2478,7 +2493,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2494,13 +2509,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2527,21 +2542,21 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2553,14 +2568,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2570,14 +2585,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2603,14 +2618,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>116</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2619,14 +2634,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2636,14 +2651,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>54</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q38" s="12">
         <v>119</v>
-      </c>
-      <c t="s" r="Q38" s="12">
-        <v>28</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2659,7 +2674,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>28</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2669,11 +2684,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>28</v>
@@ -2685,20 +2700,20 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2709,7 +2724,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2725,13 +2740,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2758,7 +2773,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2768,14 +2783,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2784,14 +2799,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2801,14 +2816,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2817,20 +2832,20 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2863,15 +2878,15 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2883,14 +2898,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2900,11 +2915,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>19</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2923,7 +2938,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2933,14 +2948,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>104</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2949,14 +2964,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2966,11 +2981,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>28</v>
@@ -2982,14 +2997,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>23</v>
+        <v>151</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3006,7 +3021,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3022,7 +3037,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>148</v>
+        <v>23</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3039,7 +3054,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3055,7 +3070,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3065,14 +3080,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3081,14 +3096,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3105,7 +3120,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3121,21 +3136,21 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>107</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>28</v>
@@ -3147,24 +3162,24 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>148</v>
+        <v>28</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>110</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -3187,7 +3202,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3197,11 +3212,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>28</v>
@@ -3213,14 +3228,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3230,14 +3245,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>86</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3246,14 +3261,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3263,11 +3278,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>44</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3279,14 +3294,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>121</v>
+        <v>28</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3296,14 +3311,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3312,14 +3327,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3329,11 +3344,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>28</v>
@@ -3352,7 +3367,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3385,7 +3400,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3418,7 +3433,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3432,7 +3447,7 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>97</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>28</v>
@@ -3444,14 +3459,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>188</v>
+        <v>36</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3461,11 +3476,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>28</v>
@@ -3477,14 +3492,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>28</v>
+        <v>191</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3494,11 +3509,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>54</v>
+        <v>174</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>28</v>
@@ -3510,7 +3525,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3527,14 +3542,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>183</v>
+        <v>54</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3543,14 +3558,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>131</v>
+        <v>28</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3560,14 +3575,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>85</v>
+        <v>186</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3576,14 +3591,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3593,7 +3608,7 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>88</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
@@ -3616,7 +3631,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3626,14 +3641,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>162</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3642,14 +3657,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3659,14 +3674,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3682,24 +3697,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>132</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3708,31 +3723,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>135</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3748,7 +3763,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3781,7 +3796,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3798,7 +3813,7 @@
         <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3814,7 +3829,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3828,10 +3843,10 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3840,14 +3855,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>217</v>
+        <v>28</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3861,10 +3876,10 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3873,14 +3888,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3890,11 +3905,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3906,14 +3921,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3930,7 +3945,7 @@
         <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3946,7 +3961,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3963,7 +3978,7 @@
         <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3979,7 +3994,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3989,14 +4004,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4005,14 +4020,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4022,11 +4037,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>28</v>
@@ -4038,14 +4053,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>148</v>
+        <v>236</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4055,14 +4070,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4071,14 +4086,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4088,11 +4103,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>28</v>
@@ -4104,14 +4119,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>23</v>
+        <v>151</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4121,14 +4136,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4137,14 +4152,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4154,14 +4169,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>155</v>
+        <v>246</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4170,14 +4185,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4187,14 +4202,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4203,14 +4218,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4220,11 +4235,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>33</v>
+        <v>158</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4276,7 +4291,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>148</v>
+        <v>36</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4286,14 +4301,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>125</v>
+        <v>33</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>256</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4309,7 +4324,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>258</v>
+        <v>28</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4319,14 +4334,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>89</v>
+        <v>258</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>90</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4335,14 +4350,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>260</v>
+        <v>151</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4352,14 +4367,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>261</v>
+        <v>128</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4368,14 +4383,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>148</v>
+        <v>263</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4385,14 +4400,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>264</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4401,14 +4416,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>148</v>
+        <v>265</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4418,14 +4433,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>132</v>
+        <v>266</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4434,14 +4449,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4451,7 +4466,7 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>268</v>
+        <v>85</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
@@ -4474,7 +4489,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4484,11 +4499,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>190</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>28</v>
@@ -4500,14 +4515,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4517,11 +4532,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>54</v>
+        <v>273</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>190</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>28</v>
@@ -4533,14 +4548,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>188</v>
+        <v>28</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4550,11 +4565,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>273</v>
+        <v>54</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>274</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>28</v>
@@ -4566,28 +4581,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>276</v>
+        <v>54</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>277</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>28</v>
@@ -4599,28 +4614,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>279</v>
+        <v>191</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>28</v>
@@ -4632,14 +4647,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4649,11 +4664,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>28</v>
@@ -4689,7 +4704,7 @@
         <v>286</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>217</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4705,7 +4720,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4715,11 +4730,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>28</v>
@@ -4731,14 +4746,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>148</v>
+        <v>289</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4748,14 +4763,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>95</v>
+        <v>220</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4764,14 +4779,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4781,14 +4796,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>86</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>293</v>
+        <v>28</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4804,7 +4819,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4814,14 +4829,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>296</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>28</v>
+        <v>295</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4830,14 +4845,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>95</v>
+        <v>151</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4847,14 +4862,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>281</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>28</v>
+        <v>298</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4863,14 +4878,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>148</v>
+        <v>28</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4880,11 +4895,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>28</v>
@@ -4896,14 +4911,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4913,11 +4928,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>28</v>
@@ -4929,14 +4944,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4946,14 +4961,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4962,14 +4977,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>306</v>
+        <v>28</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4979,14 +4994,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5002,7 +5017,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5019,7 +5034,7 @@
         <v>309</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5035,7 +5050,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5045,14 +5060,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>85</v>
+        <v>285</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>194</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5061,14 +5076,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>312</v>
+        <v>151</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5101,7 +5116,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5111,49 +5126,115 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>303</v>
+        <v>88</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>129</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>28</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
-      <c r="P114" s="13">
-        <v>5917.5900000000001</v>
-      </c>
-      <c r="Q114" s="13"/>
-    </row>
-    <row r="115" ht="16.5" customHeight="1">
-      <c t="s" r="A115" s="14">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>316</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
         <v>317</v>
       </c>
-      <c r="B115" s="14"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c t="s" r="G115" s="15">
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>24</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
         <v>318</v>
       </c>
-      <c r="H115" s="15"/>
-      <c r="I115" s="15"/>
-      <c r="J115" s="16"/>
-      <c t="s" r="K115" s="17">
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
         <v>319</v>
       </c>
-      <c r="L115" s="17"/>
-      <c r="M115" s="17"/>
-      <c r="N115" s="17"/>
-      <c r="O115" s="17"/>
-      <c r="P115" s="17"/>
-      <c r="Q115" s="17"/>
+      <c t="s" r="Q114" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>320</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>321</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>24</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>308</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="P116" s="13">
+        <v>5959.1899999999996</v>
+      </c>
+      <c r="Q116" s="13"/>
+    </row>
+    <row r="117" ht="16.5" customHeight="1">
+      <c t="s" r="A117" s="14">
+        <v>322</v>
+      </c>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c t="s" r="G117" s="15">
+        <v>323</v>
+      </c>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="16"/>
+      <c t="s" r="K117" s="17">
+        <v>324</v>
+      </c>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+      <c r="N117" s="17"/>
+      <c r="O117" s="17"/>
+      <c r="P117" s="17"/>
+      <c r="Q117" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="547">
+  <mergeCells count="557">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5697,10 +5778,20 @@
     <mergeCell ref="H113:K113"/>
     <mergeCell ref="L113:M113"/>
     <mergeCell ref="N113:O113"/>
-    <mergeCell ref="P114:Q114"/>
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="G115:I115"/>
-    <mergeCell ref="K115:Q115"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="K117:Q117"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -977,7 +977,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 8:39 PM</t>
+    <t>Sunday, 5 October, 2025 8:40 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -870,6 +870,15 @@
   </si>
   <si>
     <t>15.0000</t>
+  </si>
+  <si>
+    <t>بادي سبلاش ايفا</t>
+  </si>
+  <si>
+    <t>185.00</t>
+  </si>
+  <si>
+    <t>185.0000</t>
   </si>
   <si>
     <t>جل صبار للبشره</t>
@@ -4730,11 +4739,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>28</v>
@@ -4746,14 +4755,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>289</v>
+        <v>151</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4763,14 +4772,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>220</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4779,14 +4788,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>151</v>
+        <v>292</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4800,10 +4809,10 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>28</v>
+        <v>220</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4812,7 +4821,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4829,14 +4838,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>295</v>
+        <v>28</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4845,7 +4854,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4862,11 +4871,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>297</v>
+        <v>266</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>89</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>298</v>
@@ -4885,7 +4894,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4899,10 +4908,10 @@
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q106" s="12">
         <v>301</v>
-      </c>
-      <c t="s" r="Q106" s="12">
-        <v>28</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4918,7 +4927,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4928,11 +4937,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>28</v>
@@ -4944,14 +4953,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>151</v>
+        <v>98</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4977,14 +4986,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4994,11 +5003,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>28</v>
@@ -5017,7 +5026,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>173</v>
+        <v>28</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5034,7 +5043,7 @@
         <v>309</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5050,7 +5059,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>311</v>
+        <v>173</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5060,11 +5069,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>36</v>
@@ -5076,14 +5085,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>151</v>
+        <v>314</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5093,14 +5102,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5116,7 +5125,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>311</v>
+        <v>151</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5126,11 +5135,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>88</v>
+        <v>316</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>197</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>28</v>
@@ -5142,14 +5151,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5159,11 +5168,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>318</v>
+        <v>88</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>319</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>28</v>
@@ -5175,14 +5184,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5192,49 +5201,82 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
+        <v>322</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>323</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>324</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>24</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>311</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
         <v>132</v>
       </c>
-      <c t="s" r="Q115" s="12">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="116" ht="25.5" customHeight="1">
-      <c r="P116" s="13">
-        <v>5959.1899999999996</v>
-      </c>
-      <c r="Q116" s="13"/>
-    </row>
-    <row r="117" ht="16.5" customHeight="1">
-      <c t="s" r="A117" s="14">
-        <v>322</v>
-      </c>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c t="s" r="G117" s="15">
-        <v>323</v>
-      </c>
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
-      <c r="J117" s="16"/>
-      <c t="s" r="K117" s="17">
-        <v>324</v>
-      </c>
-      <c r="L117" s="17"/>
-      <c r="M117" s="17"/>
-      <c r="N117" s="17"/>
-      <c r="O117" s="17"/>
-      <c r="P117" s="17"/>
-      <c r="Q117" s="17"/>
+      <c t="s" r="Q116" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="P117" s="13">
+        <v>6144.1899999999996</v>
+      </c>
+      <c r="Q117" s="13"/>
+    </row>
+    <row r="118" ht="16.5" customHeight="1">
+      <c t="s" r="A118" s="14">
+        <v>325</v>
+      </c>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c t="s" r="G118" s="15">
+        <v>326</v>
+      </c>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="16"/>
+      <c t="s" r="K118" s="17">
+        <v>327</v>
+      </c>
+      <c r="L118" s="17"/>
+      <c r="M118" s="17"/>
+      <c r="N118" s="17"/>
+      <c r="O118" s="17"/>
+      <c r="P118" s="17"/>
+      <c r="Q118" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="557">
+  <mergeCells count="562">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5788,10 +5830,15 @@
     <mergeCell ref="H115:K115"/>
     <mergeCell ref="L115:M115"/>
     <mergeCell ref="N115:O115"/>
-    <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="G117:I117"/>
-    <mergeCell ref="K117:Q117"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="G118:I118"/>
+    <mergeCell ref="K118:Q118"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -986,7 +986,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 8:40 PM</t>
+    <t>Sunday, 5 October, 2025 8:42 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -353,10 +353,10 @@
     <t>DEXAZONE 0.5MG 60 TAB</t>
   </si>
   <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>51.0000</t>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>33.6600</t>
   </si>
   <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
@@ -464,9 +464,6 @@
     <t>GINKGO BILOBA 30 CAPS.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>186.00</t>
   </si>
   <si>
@@ -986,7 +983,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 8:42 PM</t>
+    <t>Sunday, 5 October, 2025 8:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2634,7 +2631,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -3013,7 +3010,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3023,11 +3020,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>28</v>
@@ -3039,7 +3036,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3056,11 +3053,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -3072,14 +3069,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3089,11 +3086,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>23</v>
@@ -3105,14 +3102,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3122,11 +3119,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -3138,7 +3135,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3155,11 +3152,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>28</v>
@@ -3171,7 +3168,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3192,7 +3189,7 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>28</v>
@@ -3204,14 +3201,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3221,11 +3218,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>28</v>
@@ -3237,14 +3234,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3254,11 +3251,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>28</v>
@@ -3270,7 +3267,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3303,7 +3300,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3320,7 +3317,7 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -3336,7 +3333,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3369,14 +3366,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3386,11 +3383,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>28</v>
@@ -3402,7 +3399,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3419,11 +3416,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>28</v>
@@ -3435,7 +3432,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3452,11 +3449,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>28</v>
@@ -3468,7 +3465,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3485,7 +3482,7 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3501,14 +3498,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3518,11 +3515,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>28</v>
@@ -3534,7 +3531,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3555,7 +3552,7 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>28</v>
@@ -3567,7 +3564,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3584,11 +3581,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3600,7 +3597,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3621,7 +3618,7 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>28</v>
@@ -3633,14 +3630,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3650,11 +3647,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>28</v>
@@ -3666,7 +3663,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3683,11 +3680,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>23</v>
@@ -3699,7 +3696,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3716,11 +3713,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>28</v>
@@ -3732,7 +3729,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3753,7 +3750,7 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3765,14 +3762,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3782,11 +3779,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>28</v>
@@ -3798,7 +3795,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3815,11 +3812,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>28</v>
@@ -3831,7 +3828,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3848,11 +3845,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3864,7 +3861,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3881,11 +3878,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>28</v>
@@ -3897,14 +3894,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3914,11 +3911,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3930,14 +3927,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3947,11 +3944,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3963,7 +3960,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3980,11 +3977,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -3996,14 +3993,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4013,11 +4010,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>28</v>
@@ -4029,7 +4026,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4046,11 +4043,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>28</v>
@@ -4062,14 +4059,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4079,11 +4076,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -4095,7 +4092,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4112,11 +4109,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>28</v>
@@ -4128,14 +4125,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4145,11 +4142,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>28</v>
@@ -4161,7 +4158,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4178,11 +4175,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>28</v>
@@ -4194,7 +4191,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4211,11 +4208,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -4227,7 +4224,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4244,11 +4241,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4260,7 +4257,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4277,11 +4274,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>28</v>
@@ -4293,7 +4290,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4314,7 +4311,7 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4326,7 +4323,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4343,11 +4340,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>28</v>
@@ -4359,14 +4356,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4380,7 +4377,7 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>28</v>
@@ -4392,14 +4389,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4425,14 +4422,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4442,11 +4439,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>36</v>
@@ -4458,14 +4455,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4479,7 +4476,7 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>28</v>
@@ -4491,14 +4488,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4512,7 +4509,7 @@
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>28</v>
@@ -4524,14 +4521,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4541,11 +4538,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>28</v>
@@ -4557,7 +4554,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4578,7 +4575,7 @@
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>28</v>
@@ -4590,14 +4587,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4611,7 +4608,7 @@
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>28</v>
@@ -4623,14 +4620,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4640,11 +4637,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>28</v>
@@ -4656,14 +4653,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4673,11 +4670,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>28</v>
@@ -4689,14 +4686,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4706,11 +4703,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>28</v>
@@ -4722,14 +4719,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4739,11 +4736,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>28</v>
@@ -4755,14 +4752,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4772,11 +4769,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>28</v>
@@ -4788,14 +4785,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4805,14 +4802,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4821,14 +4818,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4838,11 +4835,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>28</v>
@@ -4854,14 +4851,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4871,14 +4868,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4887,14 +4884,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4904,14 +4901,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
         <v>89</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4920,7 +4917,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4937,11 +4934,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>28</v>
@@ -4953,7 +4950,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4970,11 +4967,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>28</v>
@@ -4986,14 +4983,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5003,11 +5000,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>28</v>
@@ -5019,7 +5016,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5036,11 +5033,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>28</v>
@@ -5052,14 +5049,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5069,11 +5066,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>36</v>
@@ -5085,14 +5082,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5102,11 +5099,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>36</v>
@@ -5118,14 +5115,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5135,11 +5132,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>28</v>
@@ -5151,14 +5148,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5172,7 +5169,7 @@
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>28</v>
@@ -5184,14 +5181,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5201,11 +5198,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>28</v>
@@ -5217,14 +5214,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5234,7 +5231,7 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
@@ -5246,13 +5243,13 @@
     </row>
     <row r="117" ht="25.5" customHeight="1">
       <c r="P117" s="13">
-        <v>6144.1899999999996</v>
+        <v>6126.8500000000004</v>
       </c>
       <c r="Q117" s="13"/>
     </row>
     <row r="118" ht="16.5" customHeight="1">
       <c t="s" r="A118" s="14">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B118" s="14"/>
       <c r="C118" s="14"/>
@@ -5260,13 +5257,13 @@
       <c r="E118" s="14"/>
       <c r="F118" s="14"/>
       <c t="s" r="G118" s="15">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H118" s="15"/>
       <c r="I118" s="15"/>
       <c r="J118" s="16"/>
       <c t="s" r="K118" s="17">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L118" s="17"/>
       <c r="M118" s="17"/>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -983,7 +983,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 8:44 PM</t>
+    <t>Sunday, 5 October, 2025 8:45 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -338,6 +338,15 @@
     <t>11.0000</t>
   </si>
   <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
     <t xml:space="preserve">DELTACLAV 1 GM 14F.C  TAB</t>
   </si>
   <si>
@@ -524,6 +533,15 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">IVY PRONT  SYRUP</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
     <t>KERELLA LOTION 30 ML</t>
   </si>
   <si>
@@ -557,12 +575,6 @@
     <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
   </si>
   <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
     <t>MILGA ADVANCE 30 F.C. TABS</t>
   </si>
   <si>
@@ -578,6 +590,15 @@
     <t>66.00</t>
   </si>
   <si>
+    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>71.0000</t>
+  </si>
+  <si>
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
@@ -911,9 +932,6 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>سيتي بيبي رقم 4</t>
   </si>
   <si>
@@ -983,7 +1001,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 8:45 PM</t>
+    <t>Sunday, 5 October, 2025 8:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2548,13 +2566,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2581,21 +2599,21 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>34</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2607,14 +2625,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2624,14 +2642,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2657,14 +2675,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>119</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2673,14 +2691,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2690,14 +2708,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q39" s="12">
         <v>122</v>
-      </c>
-      <c t="s" r="Q39" s="12">
-        <v>28</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2713,7 +2731,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2723,11 +2741,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>28</v>
@@ -2739,20 +2757,20 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2763,7 +2781,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2779,13 +2797,13 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2812,7 +2830,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2822,14 +2840,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2838,14 +2856,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2855,14 +2873,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2871,20 +2889,20 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2917,15 +2935,15 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2937,14 +2955,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2954,11 +2972,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2977,7 +2995,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2987,14 +3005,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3003,14 +3021,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3020,7 +3038,7 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -3043,7 +3061,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3060,7 +3078,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3076,7 +3094,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3093,7 +3111,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3109,7 +3127,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>160</v>
+        <v>117</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3119,14 +3137,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3135,14 +3153,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>36</v>
+        <v>163</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3159,7 +3177,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3175,21 +3193,21 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>28</v>
@@ -3201,24 +3219,24 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
@@ -3241,7 +3259,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>172</v>
+        <v>117</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3251,11 +3269,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>28</v>
@@ -3267,31 +3285,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>44</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>89</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3300,14 +3318,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>28</v>
+        <v>178</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3317,14 +3335,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3333,14 +3351,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3350,14 +3368,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3366,14 +3384,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3383,14 +3401,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3399,14 +3417,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3416,11 +3434,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>79</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>28</v>
@@ -3439,7 +3457,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3472,7 +3490,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3482,11 +3500,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>100</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>28</v>
@@ -3498,14 +3516,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>190</v>
+        <v>47</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3515,11 +3533,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>28</v>
@@ -3538,7 +3556,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3548,11 +3566,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>54</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>28</v>
@@ -3571,7 +3589,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3581,14 +3599,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3597,14 +3615,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>134</v>
+        <v>197</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3614,11 +3632,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>88</v>
+        <v>179</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>28</v>
@@ -3630,14 +3648,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3647,7 +3665,7 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>54</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3670,7 +3688,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>119</v>
+        <v>28</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3680,14 +3698,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3703,7 +3721,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3713,11 +3731,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>88</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>28</v>
@@ -3729,31 +3747,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>135</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3769,7 +3787,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3779,14 +3797,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>167</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3795,14 +3813,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3812,11 +3830,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>28</v>
@@ -3828,28 +3846,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>138</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3861,14 +3879,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3878,11 +3896,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>28</v>
@@ -3894,14 +3912,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>219</v>
+        <v>127</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3911,14 +3929,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3927,14 +3945,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>223</v>
+        <v>21</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3944,11 +3962,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3960,14 +3978,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3977,14 +3995,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3993,14 +4011,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4010,14 +4028,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4026,14 +4044,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>36</v>
+        <v>230</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4043,14 +4061,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4059,14 +4077,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>235</v>
+        <v>91</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4076,11 +4094,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -4092,14 +4110,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>31</v>
+        <v>197</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4109,11 +4127,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>28</v>
@@ -4125,14 +4143,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4142,11 +4160,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>28</v>
@@ -4158,14 +4176,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>28</v>
+        <v>242</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4175,14 +4193,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4191,14 +4209,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4208,14 +4226,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4224,14 +4242,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4241,14 +4259,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>157</v>
+        <v>249</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4297,7 +4315,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4307,11 +4325,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>33</v>
+        <v>255</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4323,14 +4341,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4340,14 +4358,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>257</v>
+        <v>160</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4356,14 +4374,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4373,7 +4391,7 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>128</v>
+        <v>259</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
@@ -4396,7 +4414,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>262</v>
+        <v>36</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4406,11 +4424,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>93</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4429,7 +4447,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>264</v>
+        <v>28</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4439,14 +4457,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4455,14 +4473,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4472,11 +4490,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>28</v>
@@ -4488,14 +4506,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>114</v>
+        <v>269</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4505,14 +4523,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>135</v>
+        <v>92</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>270</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4521,14 +4539,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>114</v>
+        <v>271</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4545,7 +4563,7 @@
         <v>273</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4561,7 +4579,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4571,11 +4589,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>192</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>28</v>
@@ -4587,14 +4605,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>172</v>
+        <v>117</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4604,11 +4622,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>192</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>28</v>
@@ -4620,14 +4638,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>190</v>
+        <v>117</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4637,11 +4655,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>28</v>
@@ -4653,28 +4671,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>280</v>
+        <v>54</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>281</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>28</v>
@@ -4693,21 +4711,21 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>283</v>
+        <v>178</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>284</v>
+        <v>54</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>285</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>28</v>
@@ -4719,28 +4737,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>114</v>
+        <v>197</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>28</v>
@@ -4752,14 +4770,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4769,11 +4787,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>28</v>
@@ -4785,14 +4803,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4802,14 +4820,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>219</v>
+        <v>28</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4818,14 +4836,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4835,11 +4853,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>28</v>
@@ -4858,7 +4876,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4868,14 +4886,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>265</v>
+        <v>287</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>297</v>
+        <v>28</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4884,14 +4902,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>114</v>
+        <v>298</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4905,10 +4923,10 @@
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>89</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>300</v>
+        <v>226</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4924,7 +4942,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4938,7 +4956,7 @@
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>28</v>
@@ -4950,14 +4968,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4967,14 +4985,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>28</v>
+        <v>304</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4990,7 +5008,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5000,14 +5018,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>28</v>
+        <v>197</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5016,7 +5034,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5033,11 +5051,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>28</v>
@@ -5049,14 +5067,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>172</v>
+        <v>98</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5066,14 +5084,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5082,14 +5100,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>313</v>
+        <v>117</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5099,14 +5117,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5115,14 +5133,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5132,11 +5150,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>28</v>
@@ -5148,14 +5166,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>313</v>
+        <v>178</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5165,14 +5183,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>88</v>
+        <v>316</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>196</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5198,14 +5216,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5214,14 +5232,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>323</v>
+        <v>117</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5231,49 +5249,148 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>132</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>28</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
-      <c r="P117" s="13">
-        <v>6126.8500000000004</v>
-      </c>
-      <c r="Q117" s="13"/>
-    </row>
-    <row r="118" ht="16.5" customHeight="1">
-      <c t="s" r="A118" s="14">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>323</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>319</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>24</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>88</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>203</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
         <v>324</v>
       </c>
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c t="s" r="G118" s="15">
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
         <v>325</v>
       </c>
-      <c r="H118" s="15"/>
-      <c r="I118" s="15"/>
-      <c r="J118" s="16"/>
-      <c t="s" r="K118" s="17">
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>24</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
         <v>326</v>
       </c>
-      <c r="L118" s="17"/>
-      <c r="M118" s="17"/>
-      <c r="N118" s="17"/>
-      <c r="O118" s="17"/>
-      <c r="P118" s="17"/>
-      <c r="Q118" s="17"/>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>327</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>328</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>329</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>24</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>316</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="P120" s="13">
+        <v>6304.875</v>
+      </c>
+      <c r="Q120" s="13"/>
+    </row>
+    <row r="121" ht="16.5" customHeight="1">
+      <c t="s" r="A121" s="14">
+        <v>330</v>
+      </c>
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c t="s" r="G121" s="15">
+        <v>331</v>
+      </c>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="16"/>
+      <c t="s" r="K121" s="17">
+        <v>332</v>
+      </c>
+      <c r="L121" s="17"/>
+      <c r="M121" s="17"/>
+      <c r="N121" s="17"/>
+      <c r="O121" s="17"/>
+      <c r="P121" s="17"/>
+      <c r="Q121" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="562">
+  <mergeCells count="577">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5832,10 +5949,25 @@
     <mergeCell ref="H116:K116"/>
     <mergeCell ref="L116:M116"/>
     <mergeCell ref="N116:O116"/>
-    <mergeCell ref="P117:Q117"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="G118:I118"/>
-    <mergeCell ref="K118:Q118"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="G121:I121"/>
+    <mergeCell ref="K121:Q121"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -170,6 +170,15 @@
     <t>137.0000</t>
   </si>
   <si>
+    <t>AUGRAM 642.9MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>87.0000</t>
+  </si>
+  <si>
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
@@ -305,645 +314,654 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>CONVENTIN 300MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>CONVENTIN XR 600MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>198.00</t>
+  </si>
+  <si>
+    <t>198.0000</t>
+  </si>
+  <si>
+    <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>CYNCHOLINE PLUS 20 CAPS.</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>11.0000</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELTACLAV 1 GM 14F.C  TAB</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>DEXAZONE 0.5MG 60 TAB</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>6:3</t>
+  </si>
+  <si>
+    <t>95.0400</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>ESSENTIALE 300MG 30CAP</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>31.3500</t>
+  </si>
+  <si>
+    <t>EUTHYROX 100MCG 50 TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>17.2800</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLAMOGEST  30TABS</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>64.3500</t>
+  </si>
+  <si>
+    <t>FLECTOR 50MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>GINKGO BILOBA 30 CAPS.</t>
+  </si>
+  <si>
+    <t>186.00</t>
+  </si>
+  <si>
+    <t>186.0000</t>
+  </si>
+  <si>
+    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>55.4400</t>
+  </si>
+  <si>
+    <t>GLUCOLIGHT XR 1000MG 30 EX. REL .F.C. TAB.</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
+    <t>GLYCERIN INFANTILE 10 SUPP. (GLAXO)</t>
+  </si>
+  <si>
+    <t>34:0</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>9.5000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>HUSH SACHET</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>HYDROFERRIN 50MG/ML ORAL DROPS 30 ML</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVY PRONT  SYRUP</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>KERELLA LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>LICID LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>LIPONA 20MG 10 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>MILGA ADVANCE 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>71.0000</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>OPTIDEX -T EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>OSTEOCARE 30 TABS</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>PANADOL COLD &amp; FLU DAY 24 F.C. TABS</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>PARAGESIC 500MG 5 SUPP.</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>PARAMOL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>PERLOC 40MG 14 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>752.00</t>
+  </si>
+  <si>
+    <t>37.6000</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:19</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>7.0500</t>
+  </si>
+  <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>SWABIVENT NEBULIZER SOLN. 20 AMP. 2.5ML</t>
+  </si>
+  <si>
+    <t>1:9</t>
+  </si>
+  <si>
+    <t>176.00</t>
+  </si>
+  <si>
+    <t>8.8000</t>
+  </si>
+  <si>
+    <t>TAMSULIN 0.4MG 28 CAPS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
+    <t>THYROXINE 100MCG 100 TAB.</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>TORSERETIC 20MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>40.5900</t>
+  </si>
+  <si>
+    <t>URINEX 24 CAPS</t>
+  </si>
+  <si>
+    <t>URSOFALK 250MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>175.0000</t>
+  </si>
+  <si>
+    <t>VINOSIN CREAM 75GM</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>8:3</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8199:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>XITHRONE 500MG 5 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>X-TENSION PLUS 150/12.5MG 28 SCORED TAB.</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
+    <t>YASMIN 0.03/3 MG 21 TABS.</t>
+  </si>
+  <si>
+    <t>205.00</t>
+  </si>
+  <si>
+    <t>205.0000</t>
+  </si>
+  <si>
+    <t>ZIAWET SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>ZINOL 1GM I.M./I.V. VIAL</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>امواس لورد</t>
+  </si>
+  <si>
+    <t>22:0</t>
+  </si>
+  <si>
+    <t>بادي سبلاش ايفا</t>
+  </si>
+  <si>
+    <t>185.00</t>
+  </si>
+  <si>
+    <t>185.0000</t>
+  </si>
+  <si>
+    <t>جل صبار للبشره</t>
+  </si>
+  <si>
+    <t>حفاضات كبار سن جير ميني 36ق</t>
+  </si>
+  <si>
+    <t>0:10</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>سيتي بيبي رقم 4</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
+    <t>فرشه اسنان POWER GOLD كبار</t>
+  </si>
+  <si>
     <t>8:0</t>
   </si>
   <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>CONVENTIN 300MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>CONVENTIN XR 600MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>198.00</t>
-  </si>
-  <si>
-    <t>198.0000</t>
-  </si>
-  <si>
-    <t>CYNCHOLINE PLUS 20 CAPS.</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>11.0000</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DELTACLAV 1 GM 14F.C  TAB</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>DEXAZONE 0.5MG 60 TAB</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>33.6600</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>6:3</t>
-  </si>
-  <si>
-    <t>95.0400</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>ELICA-M CREAM 30 GRAM</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>ESSENTIALE 300MG 30CAP</t>
-  </si>
-  <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>31.3500</t>
-  </si>
-  <si>
-    <t>EUTHYROX 100MCG 50 TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>17.2800</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLAMOGEST  30TABS</t>
-  </si>
-  <si>
-    <t>195.00</t>
-  </si>
-  <si>
-    <t>64.3500</t>
-  </si>
-  <si>
-    <t>FLECTOR 50MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>53.4400</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>GINKGO BILOBA 30 CAPS.</t>
-  </si>
-  <si>
-    <t>186.00</t>
-  </si>
-  <si>
-    <t>186.0000</t>
-  </si>
-  <si>
-    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>168.00</t>
-  </si>
-  <si>
-    <t>55.4400</t>
-  </si>
-  <si>
-    <t>GLUCOLIGHT XR 1000MG 30 EX. REL .F.C. TAB.</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>27.7200</t>
-  </si>
-  <si>
-    <t>GLYCERIN INFANTILE 10 SUPP. (GLAXO)</t>
-  </si>
-  <si>
-    <t>34:0</t>
-  </si>
-  <si>
-    <t>19.00</t>
-  </si>
-  <si>
-    <t>9.5000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>92.0000</t>
-  </si>
-  <si>
-    <t>HUSH SACHET</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>HYDROFERRIN 50MG/ML ORAL DROPS 30 ML</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVY PRONT  SYRUP</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>KERELLA LOTION 30 ML</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>LARYPRO 20 LOZENGES</t>
-  </si>
-  <si>
-    <t>LICID LOTION 30 ML</t>
-  </si>
-  <si>
-    <t>LIPONA 20MG 10 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>41.0000</t>
-  </si>
-  <si>
-    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>MILGA ADVANCE 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>150.0000</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>71.0000</t>
-  </si>
-  <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>OPTIDEX -T EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>OSTEOCARE 30 TABS</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
-  </si>
-  <si>
-    <t>89.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>PANADOL COLD &amp; FLU DAY 24 F.C. TABS</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>80.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>PARAGESIC 500MG 5 SUPP.</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>PARAMOL 500MG 20 TAB</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>PERLOC 40MG 14 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>752.00</t>
-  </si>
-  <si>
-    <t>37.6000</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>0:19</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>7.0500</t>
-  </si>
-  <si>
-    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>12.8700</t>
-  </si>
-  <si>
-    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>SWABIVENT NEBULIZER SOLN. 20 AMP. 2.5ML</t>
-  </si>
-  <si>
-    <t>1:9</t>
-  </si>
-  <si>
-    <t>176.00</t>
-  </si>
-  <si>
-    <t>8.8000</t>
-  </si>
-  <si>
-    <t>TAMSULIN 0.4MG 28 CAPS</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>124.0000</t>
-  </si>
-  <si>
-    <t>THYROXINE 100MCG 100 TAB.</t>
-  </si>
-  <si>
-    <t>58.00</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>TORSERETIC 20MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>123.00</t>
-  </si>
-  <si>
-    <t>40.5900</t>
-  </si>
-  <si>
-    <t>URINEX 24 CAPS</t>
-  </si>
-  <si>
-    <t>URSOFALK 250MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>122.0000</t>
-  </si>
-  <si>
-    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>175.00</t>
-  </si>
-  <si>
-    <t>175.0000</t>
-  </si>
-  <si>
-    <t>VINOSIN CREAM 75GM</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>8:3</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8201:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>XITHRONE 500MG 5 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>86.0000</t>
-  </si>
-  <si>
-    <t>X-TENSION PLUS 150/12.5MG 28 SCORED TAB.</t>
-  </si>
-  <si>
-    <t>108.0000</t>
-  </si>
-  <si>
-    <t>YASMIN 0.03/3 MG 21 TABS.</t>
-  </si>
-  <si>
-    <t>205.00</t>
-  </si>
-  <si>
-    <t>205.0000</t>
-  </si>
-  <si>
-    <t>ZIAWET SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>ZINOL 1GM I.M./I.V. VIAL</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>امواس لورد</t>
-  </si>
-  <si>
-    <t>22:0</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>بادي سبلاش ايفا</t>
-  </si>
-  <si>
-    <t>185.00</t>
-  </si>
-  <si>
-    <t>185.0000</t>
-  </si>
-  <si>
-    <t>جل صبار للبشره</t>
-  </si>
-  <si>
-    <t>حفاضات كبار سن جير ميني 36ق</t>
-  </si>
-  <si>
-    <t>0:10</t>
-  </si>
-  <si>
-    <t>450.00</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 10 سم</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>سيتي بيبي رقم 4</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>190.0000</t>
-  </si>
-  <si>
-    <t>فرشه اسنان POWER GOLD كبار</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -977,9 +995,6 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>8.0000</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -1001,7 +1016,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 8:56 PM</t>
+    <t>Sunday, 5 October, 2025 8:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1972,7 +1987,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1982,14 +1997,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2005,7 +2020,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2038,13 +2053,13 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -2071,13 +2086,13 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -2088,7 +2103,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2137,7 +2152,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2154,7 +2169,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2170,7 +2185,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2180,14 +2195,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2196,14 +2211,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2220,7 +2235,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2236,7 +2251,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2253,7 +2268,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2269,13 +2284,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -2286,7 +2301,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2302,13 +2317,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -2368,7 +2383,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2378,11 +2393,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -2394,14 +2409,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2418,7 +2433,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2434,7 +2449,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2444,14 +2459,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2460,14 +2475,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2477,14 +2492,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2500,7 +2515,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2510,14 +2525,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2526,14 +2541,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2543,14 +2558,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2559,14 +2574,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2576,11 +2591,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2592,28 +2607,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2625,14 +2640,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2642,11 +2657,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2658,31 +2673,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>28</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2691,14 +2706,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>31</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2708,14 +2723,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>122</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2724,14 +2739,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2741,14 +2756,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2757,14 +2772,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2774,14 +2789,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>28</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2790,31 +2805,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2823,14 +2838,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2840,14 +2855,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2856,31 +2871,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>23</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2889,14 +2904,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2906,11 +2921,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2922,31 +2937,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2955,14 +2970,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2972,11 +2987,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2995,13 +3010,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -3028,7 +3043,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>127</v>
+        <v>23</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3038,14 +3053,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3054,14 +3069,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3071,14 +3086,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3087,14 +3102,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3104,14 +3119,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>112</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3120,14 +3135,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3137,14 +3152,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3153,14 +3168,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3170,11 +3185,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -3186,14 +3201,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3203,14 +3218,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>109</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3219,31 +3234,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>28</v>
+        <v>166</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>113</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3252,14 +3267,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3269,11 +3284,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>28</v>
@@ -3285,14 +3300,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3302,11 +3317,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>118</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>28</v>
@@ -3318,14 +3333,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3335,11 +3350,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>28</v>
@@ -3351,31 +3366,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>44</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>89</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3384,14 +3399,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3401,14 +3416,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3424,7 +3439,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3434,14 +3449,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3457,7 +3472,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>117</v>
+        <v>28</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3467,14 +3482,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3483,14 +3498,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3500,11 +3515,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>175</v>
+        <v>82</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>176</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>28</v>
@@ -3516,14 +3531,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3533,11 +3548,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>28</v>
@@ -3549,14 +3564,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3566,11 +3581,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>100</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>28</v>
@@ -3582,14 +3597,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3599,11 +3614,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>28</v>
@@ -3615,14 +3630,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>197</v>
+        <v>36</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3632,11 +3647,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>28</v>
@@ -3648,14 +3663,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3665,11 +3680,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>54</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>28</v>
@@ -3681,14 +3696,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>28</v>
+        <v>200</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3698,14 +3713,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3714,14 +3729,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>137</v>
+        <v>28</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3731,11 +3746,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>28</v>
@@ -3747,14 +3762,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>117</v>
+        <v>28</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3764,14 +3779,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3780,14 +3795,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3797,14 +3812,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>167</v>
+        <v>91</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3813,14 +3828,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3830,11 +3845,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>28</v>
@@ -3846,31 +3861,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>138</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3879,14 +3894,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3896,14 +3911,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3912,14 +3927,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3929,11 +3944,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>28</v>
@@ -3945,28 +3960,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>142</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3978,14 +3993,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3995,11 +4010,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>28</v>
@@ -4011,14 +4026,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>226</v>
+        <v>54</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4028,14 +4043,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4044,14 +4059,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>230</v>
+        <v>21</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4061,11 +4076,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -4077,14 +4092,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4094,14 +4109,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4110,14 +4125,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4127,14 +4142,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4143,14 +4158,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>36</v>
+        <v>236</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4160,14 +4175,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4176,14 +4191,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>242</v>
+        <v>94</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4193,11 +4208,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>21</v>
@@ -4209,14 +4224,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>31</v>
+        <v>200</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4226,11 +4241,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>28</v>
@@ -4242,14 +4257,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4259,11 +4274,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>28</v>
@@ -4275,14 +4290,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>28</v>
+        <v>247</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4292,14 +4307,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4308,14 +4323,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4325,14 +4340,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4341,14 +4356,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4358,14 +4373,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>160</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4374,7 +4389,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4391,11 +4406,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>28</v>
@@ -4407,14 +4422,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4424,11 +4439,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>33</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4440,14 +4455,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4457,14 +4472,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>264</v>
+        <v>109</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>265</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4473,14 +4488,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>117</v>
+        <v>28</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4490,11 +4505,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>131</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>28</v>
@@ -4506,14 +4521,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>269</v>
+        <v>36</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4523,11 +4538,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>93</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>21</v>
@@ -4539,14 +4554,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>271</v>
+        <v>28</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4556,14 +4571,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4572,14 +4587,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4589,11 +4604,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>28</v>
@@ -4605,14 +4620,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>117</v>
+        <v>274</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4622,14 +4637,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>277</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4638,14 +4653,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>117</v>
+        <v>276</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4655,14 +4670,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>28</v>
+        <v>279</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4671,14 +4686,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4688,11 +4703,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>199</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>28</v>
@@ -4711,7 +4726,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4721,11 +4736,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>199</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>28</v>
@@ -4737,14 +4752,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>197</v>
+        <v>122</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4754,11 +4769,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>28</v>
@@ -4770,28 +4785,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>178</v>
+        <v>28</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>287</v>
+        <v>57</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>288</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>28</v>
@@ -4803,28 +4818,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>290</v>
+        <v>101</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>291</v>
+        <v>57</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>292</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>28</v>
@@ -4836,28 +4851,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>117</v>
+        <v>200</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>28</v>
@@ -4869,14 +4884,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4886,11 +4901,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>28</v>
@@ -4902,14 +4917,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4919,14 +4934,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>299</v>
+        <v>211</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>300</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>226</v>
+        <v>28</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4935,14 +4950,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4952,11 +4967,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>28</v>
@@ -4968,14 +4983,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4985,14 +5000,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>304</v>
+        <v>28</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5001,14 +5016,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>117</v>
+        <v>302</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5018,14 +5033,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>197</v>
+        <v>232</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5034,14 +5049,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5051,11 +5066,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>28</v>
@@ -5067,14 +5082,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5084,14 +5099,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>28</v>
+        <v>309</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5100,14 +5115,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5117,14 +5132,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>292</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>28</v>
+        <v>200</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5173,7 +5188,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>178</v>
+        <v>316</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5183,14 +5198,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>316</v>
+        <v>211</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>317</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5199,14 +5214,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>319</v>
+        <v>122</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5216,14 +5231,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>291</v>
+        <v>211</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>314</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5232,14 +5247,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>117</v>
+        <v>28</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5249,11 +5264,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>28</v>
@@ -5265,14 +5280,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>319</v>
+        <v>101</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5282,14 +5297,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>88</v>
+        <v>322</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>203</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5315,14 +5330,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>326</v>
+        <v>211</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5331,14 +5346,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>329</v>
+        <v>122</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5348,49 +5363,148 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>135</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>28</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
-      <c r="P120" s="13">
-        <v>6304.875</v>
-      </c>
-      <c r="Q120" s="13"/>
-    </row>
-    <row r="121" ht="16.5" customHeight="1">
-      <c t="s" r="A121" s="14">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>328</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>325</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>24</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>91</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>206</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>329</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
         <v>330</v>
       </c>
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c t="s" r="G121" s="15">
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>24</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
         <v>331</v>
       </c>
-      <c r="H121" s="15"/>
-      <c r="I121" s="15"/>
-      <c r="J121" s="16"/>
-      <c t="s" r="K121" s="17">
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
         <v>332</v>
       </c>
-      <c r="L121" s="17"/>
-      <c r="M121" s="17"/>
-      <c r="N121" s="17"/>
-      <c r="O121" s="17"/>
-      <c r="P121" s="17"/>
-      <c r="Q121" s="17"/>
+      <c t="s" r="Q121" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>333</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>334</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>24</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>322</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="P123" s="13">
+        <v>6464.875</v>
+      </c>
+      <c r="Q123" s="13"/>
+    </row>
+    <row r="124" ht="16.5" customHeight="1">
+      <c t="s" r="A124" s="14">
+        <v>335</v>
+      </c>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c t="s" r="G124" s="15">
+        <v>336</v>
+      </c>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="16"/>
+      <c t="s" r="K124" s="17">
+        <v>337</v>
+      </c>
+      <c r="L124" s="17"/>
+      <c r="M124" s="17"/>
+      <c r="N124" s="17"/>
+      <c r="O124" s="17"/>
+      <c r="P124" s="17"/>
+      <c r="Q124" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="577">
+  <mergeCells count="592">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5964,10 +6078,25 @@
     <mergeCell ref="H119:K119"/>
     <mergeCell ref="L119:M119"/>
     <mergeCell ref="N119:O119"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="G121:I121"/>
-    <mergeCell ref="K121:Q121"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="K124:Q124"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -314,273 +314,279 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>132.0000</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>CONVENTIN 300MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>CONVENTIN XR 600MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>198.00</t>
+  </si>
+  <si>
+    <t>198.0000</t>
+  </si>
+  <si>
+    <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>CYNCHOLINE PLUS 20 CAPS.</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>11.0000</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELTACLAV 1 GM 14F.C  TAB</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>DEXAZONE 0.5MG 60 TAB</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>6:3</t>
+  </si>
+  <si>
+    <t>95.0400</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>ESSENTIALE 300MG 30CAP</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>31.3500</t>
+  </si>
+  <si>
+    <t>EUTHYROX 100MCG 50 TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>17.2800</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLAMOGEST  30TABS</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>64.3500</t>
+  </si>
+  <si>
+    <t>FLECTOR 50MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>GINKGO BILOBA 30 CAPS.</t>
+  </si>
+  <si>
+    <t>186.00</t>
+  </si>
+  <si>
+    <t>186.0000</t>
+  </si>
+  <si>
+    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>55.4400</t>
+  </si>
+  <si>
+    <t>GLUCOLIGHT XR 1000MG 30 EX. REL .F.C. TAB.</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
+    <t>GLYCERIN INFANTILE 10 SUPP. (GLAXO)</t>
+  </si>
+  <si>
+    <t>34:0</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>9.5000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>HUSH SACHET</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>HYDROFERRIN 50MG/ML ORAL DROPS 30 ML</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVY PRONT  SYRUP</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>KERELLA LOTION 30 ML</t>
+  </si>
+  <si>
     <t>7:0</t>
   </si>
   <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>CONVENTIN 300MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>CONVENTIN XR 600MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>198.00</t>
-  </si>
-  <si>
-    <t>198.0000</t>
-  </si>
-  <si>
-    <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>CYNCHOLINE PLUS 20 CAPS.</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>11.0000</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DELTACLAV 1 GM 14F.C  TAB</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>DEXAZONE 0.5MG 60 TAB</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>33.6600</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>6:3</t>
-  </si>
-  <si>
-    <t>95.0400</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>ELICA-M CREAM 30 GRAM</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>ESSENTIALE 300MG 30CAP</t>
-  </si>
-  <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>31.3500</t>
-  </si>
-  <si>
-    <t>EUTHYROX 100MCG 50 TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>17.2800</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLAMOGEST  30TABS</t>
-  </si>
-  <si>
-    <t>195.00</t>
-  </si>
-  <si>
-    <t>64.3500</t>
-  </si>
-  <si>
-    <t>FLECTOR 50MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>53.4400</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>GINKGO BILOBA 30 CAPS.</t>
-  </si>
-  <si>
-    <t>186.00</t>
-  </si>
-  <si>
-    <t>186.0000</t>
-  </si>
-  <si>
-    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>168.00</t>
-  </si>
-  <si>
-    <t>55.4400</t>
-  </si>
-  <si>
-    <t>GLUCOLIGHT XR 1000MG 30 EX. REL .F.C. TAB.</t>
-  </si>
-  <si>
-    <t>27.7200</t>
-  </si>
-  <si>
-    <t>GLYCERIN INFANTILE 10 SUPP. (GLAXO)</t>
-  </si>
-  <si>
-    <t>34:0</t>
-  </si>
-  <si>
-    <t>19.00</t>
-  </si>
-  <si>
-    <t>9.5000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>92.0000</t>
-  </si>
-  <si>
-    <t>HUSH SACHET</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>HYDROFERRIN 50MG/ML ORAL DROPS 30 ML</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVY PRONT  SYRUP</t>
-  </si>
-  <si>
-    <t>57.00</t>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>LICID LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>LIPONA 20MG 10 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
   </si>
   <si>
     <t>57.0000</t>
   </si>
   <si>
-    <t>KERELLA LOTION 30 ML</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>LARYPRO 20 LOZENGES</t>
-  </si>
-  <si>
-    <t>LICID LOTION 30 ML</t>
-  </si>
-  <si>
-    <t>LIPONA 20MG 10 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>41.0000</t>
-  </si>
-  <si>
-    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
-  </si>
-  <si>
     <t>MILGA ADVANCE 30 F.C. TABS</t>
   </si>
   <si>
@@ -848,9 +854,6 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>XITHRONE 500MG 5 F.C.TAB.</t>
   </si>
   <si>
@@ -1016,7 +1019,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 8:57 PM</t>
+    <t>Sunday, 5 October, 2025 8:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2496,10 +2499,10 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>54</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2508,7 +2511,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2529,7 +2532,7 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2541,7 +2544,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2558,11 +2561,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>28</v>
@@ -2574,7 +2577,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2591,11 +2594,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2607,7 +2610,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2624,11 +2627,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2640,7 +2643,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2657,11 +2660,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2673,7 +2676,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2690,11 +2693,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2706,7 +2709,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2739,14 +2742,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2760,7 +2763,7 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>23</v>
@@ -2772,14 +2775,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2793,10 +2796,10 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2805,7 +2808,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2822,11 +2825,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>28</v>
@@ -2838,7 +2841,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2855,11 +2858,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>28</v>
@@ -2871,7 +2874,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2888,11 +2891,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2904,7 +2907,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2921,11 +2924,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2937,14 +2940,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2954,11 +2957,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>23</v>
@@ -2970,14 +2973,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2987,11 +2990,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -3003,7 +3006,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -3020,11 +3023,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -3036,7 +3039,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -3069,7 +3072,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3086,11 +3089,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -3102,7 +3105,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3119,11 +3122,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>28</v>
@@ -3135,14 +3138,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3152,11 +3155,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>28</v>
@@ -3168,7 +3171,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3185,11 +3188,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -3201,14 +3204,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3218,11 +3221,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>23</v>
@@ -3234,14 +3237,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3251,11 +3254,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -3267,7 +3270,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3284,11 +3287,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>28</v>
@@ -3300,7 +3303,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3317,11 +3320,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>28</v>
@@ -3333,14 +3336,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3350,11 +3353,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>28</v>
@@ -3366,14 +3369,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3383,14 +3386,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3406,7 +3409,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>101</v>
+        <v>181</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3416,11 +3419,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>28</v>
@@ -3432,7 +3435,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3465,7 +3468,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3482,11 +3485,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3498,7 +3501,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3531,14 +3534,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3548,11 +3551,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>28</v>
@@ -3564,7 +3567,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3581,11 +3584,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>28</v>
@@ -3597,7 +3600,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3614,11 +3617,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>28</v>
@@ -3630,7 +3633,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3647,11 +3650,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>28</v>
@@ -3663,14 +3666,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3680,11 +3683,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>28</v>
@@ -3696,14 +3699,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3713,11 +3716,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>28</v>
@@ -3729,7 +3732,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3750,7 +3753,7 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>28</v>
@@ -3762,7 +3765,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3779,11 +3782,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3795,14 +3798,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3816,7 +3819,7 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>28</v>
@@ -3828,14 +3831,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3845,11 +3848,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>28</v>
@@ -3861,14 +3864,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3878,11 +3881,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>28</v>
@@ -3894,14 +3897,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3911,11 +3914,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>23</v>
@@ -3927,7 +3930,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3944,11 +3947,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>28</v>
@@ -3960,14 +3963,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3977,11 +3980,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3993,14 +3996,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4010,11 +4013,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>28</v>
@@ -4026,7 +4029,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4043,11 +4046,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>28</v>
@@ -4059,7 +4062,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4076,11 +4079,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -4092,7 +4095,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4109,11 +4112,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>28</v>
@@ -4125,14 +4128,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4142,11 +4145,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>21</v>
@@ -4158,14 +4161,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4175,11 +4178,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -4191,7 +4194,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4208,11 +4211,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>21</v>
@@ -4224,14 +4227,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4241,11 +4244,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>28</v>
@@ -4257,7 +4260,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4274,11 +4277,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>28</v>
@@ -4290,14 +4293,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4307,11 +4310,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>21</v>
@@ -4323,7 +4326,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4340,11 +4343,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>28</v>
@@ -4356,14 +4359,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4373,11 +4376,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>28</v>
@@ -4389,7 +4392,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4406,11 +4409,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>28</v>
@@ -4422,7 +4425,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4439,11 +4442,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4455,7 +4458,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4472,11 +4475,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>21</v>
@@ -4488,7 +4491,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4505,11 +4508,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>28</v>
@@ -4521,7 +4524,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4542,7 +4545,7 @@
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>21</v>
@@ -4554,7 +4557,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4571,11 +4574,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>28</v>
@@ -4587,14 +4590,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4604,11 +4607,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>28</v>
@@ -4620,14 +4623,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4653,14 +4656,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4670,14 +4673,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>279</v>
+        <v>104</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4686,14 +4689,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4707,7 +4710,7 @@
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>28</v>
@@ -4719,14 +4722,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4736,11 +4739,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>28</v>
@@ -4752,14 +4755,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4769,11 +4772,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>28</v>
@@ -4785,7 +4788,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4806,7 +4809,7 @@
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>28</v>
@@ -4818,14 +4821,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>101</v>
+        <v>181</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4839,7 +4842,7 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>28</v>
@@ -4851,14 +4854,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4868,11 +4871,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>28</v>
@@ -4884,14 +4887,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>101</v>
+        <v>181</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4901,11 +4904,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>28</v>
@@ -4917,14 +4920,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4934,11 +4937,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>28</v>
@@ -4950,14 +4953,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4967,11 +4970,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>28</v>
@@ -4983,14 +4986,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5000,11 +5003,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>28</v>
@@ -5016,14 +5019,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5033,14 +5036,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5049,14 +5052,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5066,11 +5069,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>28</v>
@@ -5082,14 +5085,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5099,14 +5102,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5115,14 +5118,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5132,14 +5135,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5148,7 +5151,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5165,11 +5168,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>28</v>
@@ -5181,14 +5184,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5198,11 +5201,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>28</v>
@@ -5214,14 +5217,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5231,11 +5234,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>28</v>
@@ -5247,7 +5250,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5264,11 +5267,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>28</v>
@@ -5280,14 +5283,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>101</v>
+        <v>181</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5297,11 +5300,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>36</v>
@@ -5313,14 +5316,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5330,11 +5333,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>36</v>
@@ -5346,14 +5349,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5363,11 +5366,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>28</v>
@@ -5379,14 +5382,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5400,7 +5403,7 @@
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>28</v>
@@ -5412,14 +5415,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5429,11 +5432,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>28</v>
@@ -5445,14 +5448,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5462,11 +5465,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>28</v>
@@ -5474,13 +5477,13 @@
     </row>
     <row r="123" ht="24.75" customHeight="1">
       <c r="P123" s="13">
-        <v>6464.875</v>
+        <v>6554.875</v>
       </c>
       <c r="Q123" s="13"/>
     </row>
     <row r="124" ht="16.5" customHeight="1">
       <c t="s" r="A124" s="14">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B124" s="14"/>
       <c r="C124" s="14"/>
@@ -5488,13 +5491,13 @@
       <c r="E124" s="14"/>
       <c r="F124" s="14"/>
       <c t="s" r="G124" s="15">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H124" s="15"/>
       <c r="I124" s="15"/>
       <c r="J124" s="16"/>
       <c t="s" r="K124" s="17">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L124" s="17"/>
       <c r="M124" s="17"/>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -419,6 +419,15 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>EMETREX 20 TAB.</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>ESSENTIALE 300MG 30CAP</t>
   </si>
   <si>
@@ -482,9 +491,6 @@
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
-    <t>22.0000</t>
-  </si>
-  <si>
     <t>GINKGO BILOBA 30 CAPS.</t>
   </si>
   <si>
@@ -539,9 +545,6 @@
     <t>HYDROFERRIN 50MG/ML ORAL DROPS 30 ML</t>
   </si>
   <si>
-    <t>44.00</t>
-  </si>
-  <si>
     <t>44.0000</t>
   </si>
   <si>
@@ -674,7 +677,7 @@
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
-    <t>27.0000</t>
+    <t>54.0000</t>
   </si>
   <si>
     <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
@@ -710,6 +713,15 @@
     <t>75.00</t>
   </si>
   <si>
+    <t>PETRO 30 TAB</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
     <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
   </si>
   <si>
@@ -899,6 +911,9 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>املاح افونا</t>
+  </si>
+  <si>
     <t>امواس لورد</t>
   </si>
   <si>
@@ -1019,7 +1034,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 8:59 PM</t>
+    <t>Sunday, 5 October, 2025 9:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2881,13 +2896,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2914,13 +2929,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2947,7 +2962,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2964,7 +2979,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2980,7 +2995,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>146</v>
+        <v>101</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2990,14 +3005,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3006,20 +3021,20 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>23</v>
+        <v>149</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -3052,15 +3067,15 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -3072,14 +3087,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3089,11 +3104,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>19</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -3112,7 +3127,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3122,14 +3137,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3138,14 +3153,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3155,11 +3170,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>28</v>
@@ -3171,14 +3186,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3188,14 +3203,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3204,14 +3219,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3221,14 +3236,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3244,7 +3259,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3254,14 +3269,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3270,14 +3285,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>36</v>
+        <v>169</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3287,14 +3302,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3303,24 +3318,24 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3343,21 +3358,21 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>28</v>
@@ -3369,31 +3384,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>41</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3402,31 +3417,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>181</v>
+        <v>36</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3435,14 +3450,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>94</v>
+        <v>182</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3452,14 +3467,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>44</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>92</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3475,7 +3490,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3485,11 +3500,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>176</v>
+        <v>44</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>157</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3508,7 +3523,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3518,14 +3533,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3541,7 +3556,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3551,11 +3566,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>82</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>28</v>
@@ -3567,14 +3582,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3584,11 +3599,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>28</v>
@@ -3600,14 +3615,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3617,11 +3632,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>28</v>
@@ -3633,14 +3648,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3650,11 +3665,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>28</v>
@@ -3666,14 +3681,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3683,11 +3698,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>28</v>
@@ -3699,14 +3714,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>202</v>
+        <v>124</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3716,11 +3731,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>28</v>
@@ -3732,14 +3747,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>28</v>
+        <v>203</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3749,11 +3764,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>57</v>
+        <v>183</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>28</v>
@@ -3765,7 +3780,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3782,14 +3797,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>193</v>
+        <v>57</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3798,14 +3813,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3815,14 +3830,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>91</v>
+        <v>194</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3831,14 +3846,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3848,11 +3863,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>91</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>28</v>
@@ -3864,14 +3879,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3881,11 +3896,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>28</v>
@@ -3897,14 +3912,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3914,14 +3929,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3930,14 +3945,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3947,14 +3962,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>173</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3963,31 +3978,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>129</v>
+        <v>36</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>143</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3996,31 +4011,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>146</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4029,14 +4044,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4046,11 +4061,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>28</v>
@@ -4062,14 +4077,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4079,14 +4094,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4095,14 +4110,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4112,14 +4127,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4128,14 +4143,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>234</v>
+        <v>28</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4145,14 +4160,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4161,14 +4176,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4178,11 +4193,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>69</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -4194,14 +4209,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>94</v>
+        <v>238</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4211,11 +4226,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>21</v>
@@ -4227,14 +4242,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>202</v>
+        <v>242</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4244,14 +4259,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>112</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4260,14 +4275,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4277,14 +4292,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4300,7 +4315,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>249</v>
+        <v>203</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4310,14 +4325,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4326,14 +4341,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4343,11 +4358,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>28</v>
@@ -4359,14 +4374,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>124</v>
+        <v>253</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4376,14 +4391,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4392,14 +4407,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4409,11 +4424,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>28</v>
@@ -4425,14 +4440,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4442,14 +4457,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4458,14 +4473,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4475,14 +4490,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>111</v>
+        <v>263</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>112</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4498,7 +4513,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4515,7 +4530,7 @@
         <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4531,7 +4546,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4541,11 +4556,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>269</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>21</v>
@@ -4557,7 +4572,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4574,11 +4589,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>28</v>
@@ -4590,14 +4605,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4607,14 +4622,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>137</v>
+        <v>33</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4623,14 +4638,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>276</v>
+        <v>28</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4640,14 +4655,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>95</v>
+        <v>275</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>96</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4663,7 +4678,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>278</v>
+        <v>124</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4673,14 +4688,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>279</v>
+        <v>140</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>104</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4689,14 +4704,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>124</v>
+        <v>280</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4706,14 +4721,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4722,14 +4737,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>124</v>
+        <v>282</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4739,14 +4754,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>143</v>
+        <v>283</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
         <v>284</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>28</v>
+        <v>104</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4772,11 +4787,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>286</v>
+        <v>88</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>28</v>
@@ -4788,14 +4803,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4805,11 +4820,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>204</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>28</v>
@@ -4828,7 +4843,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>181</v>
+        <v>124</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4838,11 +4853,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>57</v>
+        <v>290</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>204</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>28</v>
@@ -4854,14 +4869,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>202</v>
+        <v>28</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4871,11 +4886,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>291</v>
+        <v>57</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>292</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>28</v>
@@ -4894,21 +4909,21 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>294</v>
+        <v>57</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>295</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>28</v>
@@ -4920,28 +4935,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>297</v>
+        <v>203</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>213</v>
+        <v>295</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>214</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>28</v>
@@ -4953,14 +4968,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>124</v>
+        <v>182</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4970,11 +4985,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>28</v>
@@ -4986,14 +5001,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5003,11 +5018,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>28</v>
@@ -5019,14 +5034,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5036,14 +5051,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>304</v>
+        <v>214</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>305</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>234</v>
+        <v>28</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5052,7 +5067,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5069,11 +5084,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>28</v>
@@ -5085,7 +5100,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5102,14 +5117,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>310</v>
+        <v>28</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5118,14 +5133,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>124</v>
+        <v>308</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5135,14 +5150,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>214</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>202</v>
+        <v>238</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5151,14 +5166,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5168,11 +5183,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>28</v>
@@ -5184,14 +5199,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>317</v>
+        <v>124</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5201,14 +5216,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>213</v>
+        <v>283</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>214</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>28</v>
+        <v>315</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5217,7 +5232,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5234,14 +5249,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>213</v>
+        <v>317</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>28</v>
+        <v>203</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5250,7 +5265,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5267,11 +5282,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>28</v>
@@ -5283,14 +5298,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>181</v>
+        <v>322</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5300,14 +5315,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>323</v>
+        <v>214</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>324</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5316,14 +5331,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>326</v>
+        <v>124</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5333,14 +5348,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>321</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5349,14 +5364,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5366,11 +5381,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>280</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>28</v>
@@ -5382,14 +5397,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>326</v>
+        <v>182</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5399,14 +5414,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>91</v>
+        <v>328</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>208</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5432,14 +5447,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>332</v>
+        <v>214</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5448,14 +5463,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>335</v>
+        <v>124</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5465,49 +5480,148 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>141</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>28</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
-      <c r="P123" s="13">
-        <v>6554.875</v>
-      </c>
-      <c r="Q123" s="13"/>
-    </row>
-    <row r="124" ht="16.5" customHeight="1">
-      <c t="s" r="A124" s="14">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>334</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>331</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>24</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>91</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>335</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
         <v>336</v>
       </c>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c t="s" r="G124" s="15">
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>24</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
         <v>337</v>
       </c>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="16"/>
-      <c t="s" r="K124" s="17">
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
         <v>338</v>
       </c>
-      <c r="L124" s="17"/>
-      <c r="M124" s="17"/>
-      <c r="N124" s="17"/>
-      <c r="O124" s="17"/>
-      <c r="P124" s="17"/>
-      <c r="Q124" s="17"/>
+      <c t="s" r="Q124" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>339</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>340</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>24</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>328</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="P126" s="13">
+        <v>6651.6450000000004</v>
+      </c>
+      <c r="Q126" s="13"/>
+    </row>
+    <row r="127" ht="16.5" customHeight="1">
+      <c t="s" r="A127" s="14">
+        <v>341</v>
+      </c>
+      <c r="B127" s="14"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14"/>
+      <c t="s" r="G127" s="15">
+        <v>342</v>
+      </c>
+      <c r="H127" s="15"/>
+      <c r="I127" s="15"/>
+      <c r="J127" s="16"/>
+      <c t="s" r="K127" s="17">
+        <v>343</v>
+      </c>
+      <c r="L127" s="17"/>
+      <c r="M127" s="17"/>
+      <c r="N127" s="17"/>
+      <c r="O127" s="17"/>
+      <c r="P127" s="17"/>
+      <c r="Q127" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="592">
+  <mergeCells count="607">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6096,10 +6210,25 @@
     <mergeCell ref="H122:K122"/>
     <mergeCell ref="L122:M122"/>
     <mergeCell ref="N122:O122"/>
-    <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="K124:Q124"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="P126:Q126"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="G127:I127"/>
+    <mergeCell ref="K127:Q127"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -972,6 +972,18 @@
   </si>
   <si>
     <t>190.0000</t>
+  </si>
+  <si>
+    <t>صوفي طويل جدا</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
   </si>
   <si>
     <t>فرشه اسنان POWER GOLD كبار</t>
@@ -5315,11 +5327,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>214</v>
+        <v>323</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>215</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>28</v>
@@ -5331,14 +5343,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>124</v>
+        <v>326</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5364,14 +5376,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5381,11 +5393,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>325</v>
+        <v>214</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>326</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>28</v>
@@ -5397,14 +5409,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>182</v>
+        <v>28</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5414,14 +5426,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5430,14 +5442,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>331</v>
+        <v>182</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5447,11 +5459,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>214</v>
+        <v>332</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>36</v>
@@ -5463,14 +5475,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>124</v>
+        <v>335</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5480,14 +5492,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>333</v>
+        <v>214</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>284</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5496,14 +5508,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>331</v>
+        <v>124</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5513,11 +5525,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>91</v>
+        <v>337</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>209</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>28</v>
@@ -5529,14 +5541,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5546,11 +5558,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>337</v>
+        <v>91</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>338</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>28</v>
@@ -5579,49 +5591,82 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
+        <v>342</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>343</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>344</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>24</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>332</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
         <v>144</v>
       </c>
-      <c t="s" r="Q125" s="12">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="126" ht="25.5" customHeight="1">
-      <c r="P126" s="13">
-        <v>6651.6450000000004</v>
-      </c>
-      <c r="Q126" s="13"/>
-    </row>
-    <row r="127" ht="16.5" customHeight="1">
-      <c t="s" r="A127" s="14">
-        <v>341</v>
-      </c>
-      <c r="B127" s="14"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="14"/>
-      <c t="s" r="G127" s="15">
-        <v>342</v>
-      </c>
-      <c r="H127" s="15"/>
-      <c r="I127" s="15"/>
-      <c r="J127" s="16"/>
-      <c t="s" r="K127" s="17">
-        <v>343</v>
-      </c>
-      <c r="L127" s="17"/>
-      <c r="M127" s="17"/>
-      <c r="N127" s="17"/>
-      <c r="O127" s="17"/>
-      <c r="P127" s="17"/>
-      <c r="Q127" s="17"/>
+      <c t="s" r="Q126" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="P127" s="13">
+        <v>6701.6450000000004</v>
+      </c>
+      <c r="Q127" s="13"/>
+    </row>
+    <row r="128" ht="16.5" customHeight="1">
+      <c t="s" r="A128" s="14">
+        <v>345</v>
+      </c>
+      <c r="B128" s="14"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c t="s" r="G128" s="15">
+        <v>346</v>
+      </c>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="16"/>
+      <c t="s" r="K128" s="17">
+        <v>347</v>
+      </c>
+      <c r="L128" s="17"/>
+      <c r="M128" s="17"/>
+      <c r="N128" s="17"/>
+      <c r="O128" s="17"/>
+      <c r="P128" s="17"/>
+      <c r="Q128" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="607">
+  <mergeCells count="612">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6225,10 +6270,15 @@
     <mergeCell ref="H125:K125"/>
     <mergeCell ref="L125:M125"/>
     <mergeCell ref="N125:O125"/>
-    <mergeCell ref="P126:Q126"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="G127:I127"/>
-    <mergeCell ref="K127:Q127"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="P127:Q127"/>
+    <mergeCell ref="A128:F128"/>
+    <mergeCell ref="G128:I128"/>
+    <mergeCell ref="K128:Q128"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -1046,7 +1046,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 9:01 PM</t>
+    <t>Sunday, 5 October, 2025 9:07 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -281,6 +281,18 @@
     <t>43.0000</t>
   </si>
   <si>
+    <t>CEFIDIME 1 GM VIAL I.M./I.V.</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
     <t>CETAL 500MG 20 TAB</t>
   </si>
   <si>
@@ -569,6 +581,9 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>LARYPRO 20 LOZENGES</t>
   </si>
   <si>
@@ -617,12 +632,18 @@
     <t>71.0000</t>
   </si>
   <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>OPTIDEX -T EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -638,9 +659,6 @@
     <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
   </si>
   <si>
@@ -956,7 +974,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>9:0</t>
+    <t>11:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1034,19 +1052,10 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>Sunday, 5 October, 2025 9:07 PM</t>
+    <t>Sunday, 5 October, 2025 9:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2413,7 +2422,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2423,14 +2432,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2439,14 +2448,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2479,7 +2488,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2489,14 +2498,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2505,14 +2514,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2529,7 +2538,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>104</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2538,14 +2547,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2555,14 +2564,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2571,14 +2580,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2588,14 +2597,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2604,14 +2613,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2621,14 +2630,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2637,14 +2646,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2654,11 +2663,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2670,14 +2679,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2687,11 +2696,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2703,28 +2712,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2736,28 +2745,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2769,14 +2778,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2786,14 +2795,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2802,14 +2811,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2819,14 +2828,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>129</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2842,7 +2851,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>28</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2852,14 +2861,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>57</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>28</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2868,14 +2877,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2885,11 +2894,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>28</v>
@@ -2901,14 +2910,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2918,14 +2927,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2934,28 +2943,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2967,28 +2976,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -3000,14 +3009,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3017,14 +3026,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3033,14 +3042,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3057,7 +3066,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3073,21 +3082,21 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>23</v>
+        <v>153</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -3099,7 +3108,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3112,15 +3121,15 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>20</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -3132,14 +3141,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3149,11 +3158,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>19</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -3165,14 +3174,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3182,14 +3191,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>114</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3198,14 +3207,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3215,11 +3224,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>28</v>
@@ -3231,14 +3240,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3248,14 +3257,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3264,14 +3273,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3281,14 +3290,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3297,14 +3306,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3314,14 +3323,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>115</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3337,7 +3346,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>36</v>
+        <v>173</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3347,14 +3356,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3363,28 +3372,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>120</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>28</v>
@@ -3396,28 +3405,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>28</v>
@@ -3429,31 +3438,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3462,31 +3471,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>182</v>
+        <v>36</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3502,7 +3511,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>94</v>
+        <v>186</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3512,14 +3521,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>44</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>92</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3528,14 +3537,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3545,14 +3554,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>137</v>
+        <v>44</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>138</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3561,14 +3570,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3578,14 +3587,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3594,14 +3603,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3611,11 +3620,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>82</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>28</v>
@@ -3627,14 +3636,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3644,11 +3653,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>28</v>
@@ -3660,14 +3669,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3677,11 +3686,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>28</v>
@@ -3693,14 +3702,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3710,11 +3719,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>28</v>
@@ -3726,14 +3735,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3743,11 +3752,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>28</v>
@@ -3759,14 +3768,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>203</v>
+        <v>128</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3776,11 +3785,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>28</v>
@@ -3792,7 +3801,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3809,11 +3818,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>57</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>28</v>
@@ -3825,14 +3834,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3842,14 +3851,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3858,14 +3867,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3875,11 +3884,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>28</v>
@@ -3891,14 +3900,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3908,14 +3917,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3924,14 +3933,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3941,11 +3950,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>95</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>28</v>
@@ -3964,7 +3973,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3974,14 +3983,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3990,14 +3999,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4007,11 +4016,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>28</v>
@@ -4023,28 +4032,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>23</v>
@@ -4056,14 +4065,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4073,11 +4082,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>28</v>
@@ -4089,31 +4098,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4129,7 +4138,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4146,7 +4155,7 @@
         <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4162,7 +4171,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4176,7 +4185,7 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>28</v>
@@ -4188,14 +4197,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>235</v>
+        <v>21</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4205,11 +4214,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>69</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -4221,14 +4230,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>238</v>
+        <v>28</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4242,10 +4251,10 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4254,14 +4263,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4271,11 +4280,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>69</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -4287,14 +4296,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>94</v>
+        <v>244</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4304,11 +4313,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4320,14 +4329,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>203</v>
+        <v>248</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4341,10 +4350,10 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4353,14 +4362,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4370,14 +4379,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4386,14 +4395,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>253</v>
+        <v>91</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4403,14 +4412,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4426,7 +4435,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4436,11 +4445,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>28</v>
@@ -4452,14 +4461,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>124</v>
+        <v>259</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4476,7 +4485,7 @@
         <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4492,7 +4501,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4525,7 +4534,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4542,7 +4551,7 @@
         <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4558,7 +4567,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4568,14 +4577,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>111</v>
+        <v>269</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>112</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4584,14 +4593,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4601,14 +4610,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4617,14 +4626,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4634,11 +4643,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>21</v>
@@ -4650,7 +4659,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4667,11 +4676,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>28</v>
@@ -4683,14 +4692,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4700,14 +4709,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>140</v>
+        <v>33</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4716,14 +4725,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>280</v>
+        <v>28</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4733,14 +4742,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>95</v>
+        <v>281</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>96</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4749,14 +4758,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>282</v>
+        <v>128</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4766,14 +4775,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>283</v>
+        <v>144</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
         <v>284</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>104</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4789,7 +4798,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>124</v>
+        <v>286</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4799,14 +4808,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>286</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4822,7 +4831,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>124</v>
+        <v>288</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4832,14 +4841,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>146</v>
+        <v>289</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>28</v>
+        <v>108</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4848,14 +4857,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4865,11 +4874,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>290</v>
+        <v>88</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>28</v>
@@ -4881,14 +4890,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4898,11 +4907,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>57</v>
+        <v>150</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>205</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>28</v>
@@ -4914,14 +4923,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4931,11 +4940,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>57</v>
+        <v>296</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>205</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>28</v>
@@ -4947,14 +4956,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>203</v>
+        <v>28</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4964,11 +4973,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>295</v>
+        <v>57</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>296</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>28</v>
@@ -4980,28 +4989,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>298</v>
+        <v>57</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>299</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>28</v>
@@ -5020,21 +5029,21 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>28</v>
@@ -5046,14 +5055,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>302</v>
+        <v>186</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5063,11 +5072,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>214</v>
+        <v>304</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>215</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>28</v>
@@ -5079,14 +5088,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5112,14 +5121,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>124</v>
+        <v>308</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5129,11 +5138,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>299</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>28</v>
@@ -5145,14 +5154,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>308</v>
+        <v>128</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5162,14 +5171,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>238</v>
+        <v>28</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5178,14 +5187,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5195,11 +5204,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>28</v>
@@ -5211,14 +5220,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>124</v>
+        <v>314</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5228,14 +5237,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>283</v>
+        <v>315</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>273</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>315</v>
+        <v>244</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5244,14 +5253,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5261,14 +5270,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>215</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>203</v>
+        <v>28</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5277,14 +5286,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5294,14 +5303,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>320</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>28</v>
+        <v>321</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5310,14 +5319,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>322</v>
+        <v>128</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5331,10 +5340,10 @@
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>324</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>28</v>
+        <v>91</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5343,14 +5352,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>326</v>
+        <v>28</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5360,11 +5369,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>214</v>
+        <v>325</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>215</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>28</v>
@@ -5383,7 +5392,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>124</v>
+        <v>328</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5393,11 +5402,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>214</v>
+        <v>329</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>215</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>28</v>
@@ -5409,14 +5418,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>28</v>
+        <v>332</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5426,11 +5435,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>329</v>
+        <v>220</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>330</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>28</v>
@@ -5442,14 +5451,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5459,14 +5468,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>332</v>
+        <v>220</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>333</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5482,7 +5491,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>335</v>
+        <v>28</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5492,14 +5501,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>214</v>
+        <v>335</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5508,14 +5517,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>124</v>
+        <v>186</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5525,14 +5534,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>284</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5541,14 +5550,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5558,14 +5567,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>91</v>
+        <v>220</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>209</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5574,14 +5583,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>340</v>
+        <v>128</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5591,11 +5600,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>342</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>28</v>
@@ -5607,14 +5616,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5624,49 +5633,115 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>332</v>
+        <v>95</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>28</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
-      <c r="P127" s="13">
-        <v>6701.6450000000004</v>
-      </c>
-      <c r="Q127" s="13"/>
-    </row>
-    <row r="128" ht="16.5" customHeight="1">
-      <c t="s" r="A128" s="14">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
         <v>345</v>
       </c>
-      <c r="B128" s="14"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
-      <c t="s" r="G128" s="15">
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
         <v>346</v>
       </c>
-      <c r="H128" s="15"/>
-      <c r="I128" s="15"/>
-      <c r="J128" s="16"/>
-      <c t="s" r="K128" s="17">
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>24</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>208</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
         <v>347</v>
       </c>
-      <c r="L128" s="17"/>
-      <c r="M128" s="17"/>
-      <c r="N128" s="17"/>
-      <c r="O128" s="17"/>
-      <c r="P128" s="17"/>
-      <c r="Q128" s="17"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>321</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>24</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>338</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="P129" s="13">
+        <v>6790.6450000000004</v>
+      </c>
+      <c r="Q129" s="13"/>
+    </row>
+    <row r="130" ht="16.5" customHeight="1">
+      <c t="s" r="A130" s="14">
+        <v>348</v>
+      </c>
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c t="s" r="G130" s="15">
+        <v>349</v>
+      </c>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="16"/>
+      <c t="s" r="K130" s="17">
+        <v>350</v>
+      </c>
+      <c r="L130" s="17"/>
+      <c r="M130" s="17"/>
+      <c r="N130" s="17"/>
+      <c r="O130" s="17"/>
+      <c r="P130" s="17"/>
+      <c r="Q130" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="612">
+  <mergeCells count="622">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6275,10 +6350,20 @@
     <mergeCell ref="H126:K126"/>
     <mergeCell ref="L126:M126"/>
     <mergeCell ref="N126:O126"/>
-    <mergeCell ref="P127:Q127"/>
-    <mergeCell ref="A128:F128"/>
-    <mergeCell ref="G128:I128"/>
-    <mergeCell ref="K128:Q128"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="P129:Q129"/>
+    <mergeCell ref="A130:F130"/>
+    <mergeCell ref="G130:I130"/>
+    <mergeCell ref="K130:Q130"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -968,9 +968,6 @@
     <t>4.00</t>
   </si>
   <si>
-    <t>4.0000</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -1055,7 +1052,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 9:12 PM</t>
+    <t>Sunday, 5 October, 2025 9:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -5274,10 +5271,10 @@
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5286,7 +5283,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5310,7 +5307,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5319,7 +5316,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5336,7 +5333,7 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
@@ -5352,7 +5349,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5369,11 +5366,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>28</v>
@@ -5385,14 +5382,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5402,11 +5399,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>28</v>
@@ -5418,14 +5415,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5451,7 +5448,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5484,7 +5481,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5501,11 +5498,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>28</v>
@@ -5517,7 +5514,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5534,11 +5531,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>36</v>
@@ -5550,14 +5547,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5571,7 +5568,7 @@
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>36</v>
@@ -5583,7 +5580,7 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -5600,7 +5597,7 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
@@ -5616,14 +5613,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5649,14 +5646,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5682,14 +5679,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5699,7 +5696,7 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
@@ -5711,13 +5708,13 @@
     </row>
     <row r="129" ht="25.5" customHeight="1">
       <c r="P129" s="13">
-        <v>6790.6450000000004</v>
+        <v>6794.6450000000004</v>
       </c>
       <c r="Q129" s="13"/>
     </row>
     <row r="130" ht="16.5" customHeight="1">
       <c t="s" r="A130" s="14">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B130" s="14"/>
       <c r="C130" s="14"/>
@@ -5725,13 +5722,13 @@
       <c r="E130" s="14"/>
       <c r="F130" s="14"/>
       <c t="s" r="G130" s="15">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H130" s="15"/>
       <c r="I130" s="15"/>
       <c r="J130" s="16"/>
       <c t="s" r="K130" s="17">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L130" s="17"/>
       <c r="M130" s="17"/>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -326,564 +326,561 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>CONVENTIN 300MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>CONVENTIN XR 600MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>198.00</t>
+  </si>
+  <si>
+    <t>198.0000</t>
+  </si>
+  <si>
+    <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>CYNCHOLINE PLUS 20 CAPS.</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>11.0000</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELTACLAV 1 GM 14F.C  TAB</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>DEXAZONE 0.5MG 60 TAB</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>6:3</t>
+  </si>
+  <si>
+    <t>95.0400</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>EMETREX 20 TAB.</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>ESSENTIALE 300MG 30CAP</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>31.3500</t>
+  </si>
+  <si>
+    <t>EUTHYROX 100MCG 50 TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
     <t>6:0</t>
   </si>
   <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>132.0000</t>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>17.2800</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLAMOGEST  30TABS</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>64.3500</t>
+  </si>
+  <si>
+    <t>FLECTOR 50MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>GINKGO BILOBA 30 CAPS.</t>
+  </si>
+  <si>
+    <t>186.00</t>
+  </si>
+  <si>
+    <t>186.0000</t>
+  </si>
+  <si>
+    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>55.4400</t>
+  </si>
+  <si>
+    <t>GLUCOLIGHT XR 1000MG 30 EX. REL .F.C. TAB.</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
+    <t>GLYCERIN INFANTILE 10 SUPP. (GLAXO)</t>
+  </si>
+  <si>
+    <t>34:0</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>9.5000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>HUSH SACHET</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>HYDROFERRIN 50MG/ML ORAL DROPS 30 ML</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVY PRONT  SYRUP</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>KERELLA LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>LICID LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>LIPONA 20MG 10 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>MILGA ADVANCE 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>71.0000</t>
+  </si>
+  <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>OPTIDEX -T EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>OSTEOCARE 30 TABS</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>PANADOL COLD &amp; FLU DAY 24 F.C. TABS</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>PARAGESIC 500MG 5 SUPP.</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>PARAMOL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>PERLOC 40MG 14 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>PETRO 30 TAB</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>752.00</t>
+  </si>
+  <si>
+    <t>37.6000</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:19</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>7.0500</t>
+  </si>
+  <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>SWABIVENT NEBULIZER SOLN. 20 AMP. 2.5ML</t>
+  </si>
+  <si>
+    <t>1:9</t>
+  </si>
+  <si>
+    <t>176.00</t>
+  </si>
+  <si>
+    <t>8.8000</t>
+  </si>
+  <si>
+    <t>TAMSULIN 0.4MG 28 CAPS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
+    <t>THYROXINE 100MCG 100 TAB.</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>TORSERETIC 20MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>40.5900</t>
+  </si>
+  <si>
+    <t>URINEX 24 CAPS</t>
+  </si>
+  <si>
+    <t>URSOFALK 250MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>175.0000</t>
+  </si>
+  <si>
+    <t>VINOSIN CREAM 75GM</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>8:3</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8199:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
   </si>
   <si>
     <t>4:0</t>
   </si>
   <si>
-    <t>CONVENTIN 300MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>CONVENTIN XR 600MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>198.00</t>
-  </si>
-  <si>
-    <t>198.0000</t>
-  </si>
-  <si>
-    <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>CYNCHOLINE PLUS 20 CAPS.</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>11.0000</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DELTACLAV 1 GM 14F.C  TAB</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>DEXAZONE 0.5MG 60 TAB</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>33.6600</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>6:3</t>
-  </si>
-  <si>
-    <t>95.0400</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>ELICA-M CREAM 30 GRAM</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>EMETREX 20 TAB.</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>ESSENTIALE 300MG 30CAP</t>
-  </si>
-  <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>31.3500</t>
-  </si>
-  <si>
-    <t>EUTHYROX 100MCG 50 TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>17.2800</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLAMOGEST  30TABS</t>
-  </si>
-  <si>
-    <t>195.00</t>
-  </si>
-  <si>
-    <t>64.3500</t>
-  </si>
-  <si>
-    <t>FLECTOR 50MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>53.4400</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>GINKGO BILOBA 30 CAPS.</t>
-  </si>
-  <si>
-    <t>186.00</t>
-  </si>
-  <si>
-    <t>186.0000</t>
-  </si>
-  <si>
-    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>168.00</t>
-  </si>
-  <si>
-    <t>55.4400</t>
-  </si>
-  <si>
-    <t>GLUCOLIGHT XR 1000MG 30 EX. REL .F.C. TAB.</t>
-  </si>
-  <si>
-    <t>27.7200</t>
-  </si>
-  <si>
-    <t>GLYCERIN INFANTILE 10 SUPP. (GLAXO)</t>
-  </si>
-  <si>
-    <t>34:0</t>
-  </si>
-  <si>
-    <t>19.00</t>
-  </si>
-  <si>
-    <t>9.5000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>92.0000</t>
-  </si>
-  <si>
-    <t>HUSH SACHET</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>HYDROFERRIN 50MG/ML ORAL DROPS 30 ML</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVY PRONT  SYRUP</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>KERELLA LOTION 30 ML</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>LARYPRO 20 LOZENGES</t>
-  </si>
-  <si>
-    <t>LICID LOTION 30 ML</t>
-  </si>
-  <si>
-    <t>LIPONA 20MG 10 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>41.0000</t>
-  </si>
-  <si>
-    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>MILGA ADVANCE 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>150.0000</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>71.0000</t>
-  </si>
-  <si>
-    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>OPTIDEX -T EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>OSTEOCARE 30 TABS</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
-  </si>
-  <si>
-    <t>89.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>PANADOL COLD &amp; FLU DAY 24 F.C. TABS</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>80.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>PARAGESIC 500MG 5 SUPP.</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>PARAMOL 500MG 20 TAB</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>PERLOC 40MG 14 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>PETRO 30 TAB</t>
-  </si>
-  <si>
-    <t>5:1</t>
-  </si>
-  <si>
-    <t>22.7700</t>
-  </si>
-  <si>
-    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>752.00</t>
-  </si>
-  <si>
-    <t>37.6000</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>0:19</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>7.0500</t>
-  </si>
-  <si>
-    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>12.8700</t>
-  </si>
-  <si>
-    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>SWABIVENT NEBULIZER SOLN. 20 AMP. 2.5ML</t>
-  </si>
-  <si>
-    <t>1:9</t>
-  </si>
-  <si>
-    <t>176.00</t>
-  </si>
-  <si>
-    <t>8.8000</t>
-  </si>
-  <si>
-    <t>TAMSULIN 0.4MG 28 CAPS</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>124.0000</t>
-  </si>
-  <si>
-    <t>THYROXINE 100MCG 100 TAB.</t>
-  </si>
-  <si>
-    <t>58.00</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>TORSERETIC 20MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>123.00</t>
-  </si>
-  <si>
-    <t>40.5900</t>
-  </si>
-  <si>
-    <t>URINEX 24 CAPS</t>
-  </si>
-  <si>
-    <t>URSOFALK 250MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>122.0000</t>
-  </si>
-  <si>
-    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>175.00</t>
-  </si>
-  <si>
-    <t>175.0000</t>
-  </si>
-  <si>
-    <t>VINOSIN CREAM 75GM</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>8:3</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8199:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>8.0000</t>
-  </si>
-  <si>
     <t>XITHRONE 500MG 5 F.C.TAB.</t>
   </si>
   <si>
@@ -962,6 +959,15 @@
     <t>36.0000</t>
   </si>
   <si>
+    <t>رول اون ريكسونا25</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -1022,9 +1028,6 @@
     <t>كريم فيرند لافلي الكبير</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
     <t>70.0000</t>
   </si>
   <si>
@@ -1052,7 +1055,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 9:13 PM</t>
+    <t>Sunday, 5 October, 2025 9:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2565,10 +2568,10 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>108</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2577,7 +2580,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2598,7 +2601,7 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2610,7 +2613,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2627,11 +2630,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>28</v>
@@ -2643,7 +2646,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2660,11 +2663,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2676,7 +2679,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2693,11 +2696,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2709,7 +2712,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2726,11 +2729,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2742,7 +2745,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2759,11 +2762,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2775,7 +2778,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2808,14 +2811,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2829,7 +2832,7 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>23</v>
@@ -2841,14 +2844,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2862,10 +2865,10 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2874,7 +2877,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2891,11 +2894,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>28</v>
@@ -2907,7 +2910,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2924,11 +2927,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>28</v>
@@ -2940,7 +2943,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2957,11 +2960,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2973,7 +2976,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2990,11 +2993,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -3006,7 +3009,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -3023,11 +3026,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -3039,14 +3042,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3056,11 +3059,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>23</v>
@@ -3072,14 +3075,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3089,11 +3092,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -3105,7 +3108,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3122,11 +3125,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -3138,7 +3141,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3171,7 +3174,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3188,11 +3191,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -3204,7 +3207,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3221,11 +3224,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>28</v>
@@ -3237,14 +3240,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3254,11 +3257,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>28</v>
@@ -3270,7 +3273,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3287,11 +3290,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -3303,14 +3306,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3320,11 +3323,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>23</v>
@@ -3336,14 +3339,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3353,11 +3356,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3369,7 +3372,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3386,11 +3389,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>28</v>
@@ -3402,7 +3405,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3419,11 +3422,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>28</v>
@@ -3435,14 +3438,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3452,11 +3455,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>28</v>
@@ -3468,14 +3471,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3485,14 +3488,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>41</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3508,7 +3511,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>186</v>
+        <v>105</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3518,11 +3521,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>28</v>
@@ -3534,7 +3537,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3555,7 +3558,7 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>23</v>
@@ -3567,7 +3570,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3584,11 +3587,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3600,7 +3603,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3633,14 +3636,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3650,11 +3653,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>28</v>
@@ -3666,7 +3669,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3683,11 +3686,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>28</v>
@@ -3699,7 +3702,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3716,11 +3719,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>28</v>
@@ -3732,7 +3735,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3749,11 +3752,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>28</v>
@@ -3765,14 +3768,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3782,11 +3785,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>28</v>
@@ -3798,7 +3801,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3815,11 +3818,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>28</v>
@@ -3831,7 +3834,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3848,11 +3851,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>28</v>
@@ -3864,7 +3867,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3885,7 +3888,7 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>28</v>
@@ -3897,7 +3900,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3914,11 +3917,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3930,14 +3933,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3951,7 +3954,7 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>28</v>
@@ -3963,14 +3966,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3980,11 +3983,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>28</v>
@@ -3996,14 +3999,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4013,11 +4016,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>28</v>
@@ -4029,14 +4032,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4046,11 +4049,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>23</v>
@@ -4062,7 +4065,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4079,11 +4082,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>28</v>
@@ -4095,7 +4098,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4112,11 +4115,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>23</v>
@@ -4128,14 +4131,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4145,11 +4148,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>28</v>
@@ -4161,7 +4164,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4178,11 +4181,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>28</v>
@@ -4194,7 +4197,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4211,11 +4214,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -4227,7 +4230,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4244,11 +4247,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>28</v>
@@ -4260,14 +4263,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4281,7 +4284,7 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -4293,14 +4296,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4310,11 +4313,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4326,14 +4329,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4343,11 +4346,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>21</v>
@@ -4359,7 +4362,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4376,11 +4379,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4392,7 +4395,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4409,11 +4412,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>28</v>
@@ -4425,7 +4428,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4442,11 +4445,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>28</v>
@@ -4458,14 +4461,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4475,11 +4478,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4491,7 +4494,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4508,11 +4511,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>28</v>
@@ -4524,14 +4527,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4541,11 +4544,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>28</v>
@@ -4557,7 +4560,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4574,11 +4577,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>28</v>
@@ -4590,7 +4593,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4607,11 +4610,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>21</v>
@@ -4623,7 +4626,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4640,11 +4643,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>21</v>
@@ -4656,7 +4659,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4673,11 +4676,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>28</v>
@@ -4689,7 +4692,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4710,7 +4713,7 @@
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>21</v>
@@ -4722,7 +4725,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4739,11 +4742,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>28</v>
@@ -4755,14 +4758,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4772,11 +4775,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>28</v>
@@ -4788,14 +4791,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4821,14 +4824,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4838,14 +4841,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>108</v>
+        <v>289</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4854,14 +4857,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4875,7 +4878,7 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>28</v>
@@ -4887,14 +4890,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4904,11 +4907,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>28</v>
@@ -4920,14 +4923,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4937,11 +4940,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>28</v>
@@ -4953,7 +4956,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4974,7 +4977,7 @@
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>28</v>
@@ -4986,14 +4989,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>186</v>
+        <v>105</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5007,7 +5010,7 @@
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>28</v>
@@ -5019,7 +5022,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -5036,11 +5039,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>28</v>
@@ -5052,14 +5055,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>186</v>
+        <v>105</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5069,11 +5072,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>28</v>
@@ -5085,7 +5088,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5102,11 +5105,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>28</v>
@@ -5118,14 +5121,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5135,11 +5138,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>28</v>
@@ -5151,14 +5154,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5168,11 +5171,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>28</v>
@@ -5184,14 +5187,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5201,11 +5204,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>28</v>
@@ -5217,14 +5220,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5234,14 +5237,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5250,14 +5253,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>128</v>
+        <v>317</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5271,10 +5274,10 @@
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>290</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5290,7 +5293,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5300,14 +5303,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>142</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>320</v>
+        <v>36</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5323,7 +5326,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5333,14 +5336,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>221</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>91</v>
+        <v>322</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5356,7 +5359,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5370,10 +5373,10 @@
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>325</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>28</v>
+        <v>91</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5382,14 +5385,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>327</v>
+        <v>28</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5399,11 +5402,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>28</v>
@@ -5415,14 +5418,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5432,11 +5435,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>221</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>28</v>
@@ -5455,7 +5458,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>128</v>
+        <v>333</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5465,11 +5468,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>28</v>
@@ -5481,14 +5484,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5498,11 +5501,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>334</v>
+        <v>218</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>335</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>28</v>
@@ -5514,14 +5517,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>186</v>
+        <v>28</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5531,14 +5534,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5547,14 +5550,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>340</v>
+        <v>105</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5564,11 +5567,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>220</v>
+        <v>318</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>36</v>
@@ -5580,14 +5583,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>128</v>
+        <v>341</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5597,14 +5600,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>342</v>
+        <v>218</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>290</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5613,14 +5616,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>340</v>
+        <v>126</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5630,11 +5633,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>95</v>
+        <v>343</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>190</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>28</v>
@@ -5653,7 +5656,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5663,11 +5666,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>208</v>
+        <v>95</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>28</v>
@@ -5679,14 +5682,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>320</v>
+        <v>346</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5696,49 +5699,82 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>337</v>
+        <v>206</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>148</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>28</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
-      <c r="P129" s="13">
-        <v>6794.6450000000004</v>
-      </c>
-      <c r="Q129" s="13"/>
-    </row>
-    <row r="130" ht="16.5" customHeight="1">
-      <c t="s" r="A130" s="14">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
         <v>347</v>
       </c>
-      <c r="B130" s="14"/>
-      <c r="C130" s="14"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14"/>
-      <c t="s" r="G130" s="15">
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>322</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>24</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>318</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>146</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="P130" s="13">
+        <v>6739.6450000000004</v>
+      </c>
+      <c r="Q130" s="13"/>
+    </row>
+    <row r="131" ht="16.5" customHeight="1">
+      <c t="s" r="A131" s="14">
         <v>348</v>
       </c>
-      <c r="H130" s="15"/>
-      <c r="I130" s="15"/>
-      <c r="J130" s="16"/>
-      <c t="s" r="K130" s="17">
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c t="s" r="G131" s="15">
         <v>349</v>
       </c>
-      <c r="L130" s="17"/>
-      <c r="M130" s="17"/>
-      <c r="N130" s="17"/>
-      <c r="O130" s="17"/>
-      <c r="P130" s="17"/>
-      <c r="Q130" s="17"/>
+      <c r="H131" s="15"/>
+      <c r="I131" s="15"/>
+      <c r="J131" s="16"/>
+      <c t="s" r="K131" s="17">
+        <v>350</v>
+      </c>
+      <c r="L131" s="17"/>
+      <c r="M131" s="17"/>
+      <c r="N131" s="17"/>
+      <c r="O131" s="17"/>
+      <c r="P131" s="17"/>
+      <c r="Q131" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="622">
+  <mergeCells count="627">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6357,10 +6393,15 @@
     <mergeCell ref="H128:K128"/>
     <mergeCell ref="L128:M128"/>
     <mergeCell ref="N128:O128"/>
-    <mergeCell ref="P129:Q129"/>
-    <mergeCell ref="A130:F130"/>
-    <mergeCell ref="G130:I130"/>
-    <mergeCell ref="K130:Q130"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="P130:Q130"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="G131:I131"/>
+    <mergeCell ref="K131:Q131"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -77,6 +77,21 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ALZENTAL 200MG 6 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>AM GINKO TAB</t>
   </si>
   <si>
@@ -95,9 +110,6 @@
     <t>AMARYL M 2/500 MG 30 F.C.TABS.</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>102.00</t>
   </si>
   <si>
@@ -140,9 +152,6 @@
     <t>ANTODINE 20MG 30 F.C.TAB</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
@@ -329,9 +338,6 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>33.00</t>
-  </si>
-  <si>
     <t>CONVENTIN 300MG 30 CAPS.</t>
   </si>
   <si>
@@ -1055,7 +1061,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 9:22 PM</t>
+    <t>Sunday, 5 October, 2025 9:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1768,18 +1774,18 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1801,18 +1807,18 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1828,7 +1834,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1845,7 +1851,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1854,14 +1860,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1894,7 +1900,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1904,14 +1910,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1920,14 +1926,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1944,7 +1950,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1960,7 +1966,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1970,14 +1976,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1986,14 +1992,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -2010,7 +2016,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2026,7 +2032,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2036,14 +2042,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2059,7 +2065,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2069,14 +2075,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2092,7 +2098,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2125,13 +2131,13 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -2158,13 +2164,13 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -2175,7 +2181,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2191,7 +2197,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2208,7 +2214,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2224,7 +2230,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2241,7 +2247,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2257,7 +2263,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2267,14 +2273,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2283,14 +2289,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2307,7 +2313,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2323,7 +2329,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2340,7 +2346,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2356,13 +2362,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -2373,7 +2379,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2389,13 +2395,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -2422,7 +2428,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2432,14 +2438,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2448,14 +2454,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2472,7 +2478,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2488,7 +2494,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2498,11 +2504,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -2514,14 +2520,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2538,7 +2544,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2554,7 +2560,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2564,14 +2570,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2587,7 +2593,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2597,14 +2603,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2620,7 +2626,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2630,14 +2636,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2646,14 +2652,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2663,14 +2669,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2679,14 +2685,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2696,11 +2702,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2712,14 +2718,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2729,11 +2735,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2745,7 +2751,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2758,15 +2764,15 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2778,28 +2784,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2811,14 +2817,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2828,14 +2834,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2844,14 +2850,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2861,14 +2867,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>131</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2877,14 +2883,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>28</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2894,14 +2900,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>60</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>28</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2910,14 +2916,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2927,14 +2933,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2943,14 +2949,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2960,14 +2966,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2976,28 +2982,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -3009,28 +3015,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -3042,14 +3048,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>148</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3059,14 +3065,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3075,14 +3081,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3092,14 +3098,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3108,28 +3114,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -3141,28 +3147,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>19</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -3174,14 +3180,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3191,11 +3197,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>19</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -3207,14 +3213,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3224,14 +3230,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3240,14 +3246,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>126</v>
+        <v>57</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3257,14 +3263,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>118</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3273,14 +3279,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3290,14 +3296,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3306,14 +3312,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>126</v>
+        <v>28</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3323,14 +3329,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3346,7 +3352,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3356,14 +3362,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>115</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3372,14 +3378,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>36</v>
+        <v>174</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3389,14 +3395,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3405,31 +3411,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3445,24 +3451,24 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3478,24 +3484,24 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>141</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3504,31 +3510,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3537,14 +3543,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3554,14 +3560,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>44</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3577,7 +3583,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3587,14 +3593,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>139</v>
+        <v>47</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3603,14 +3609,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3620,14 +3626,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3636,14 +3642,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>126</v>
+        <v>57</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3653,14 +3659,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>85</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3669,14 +3675,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3686,14 +3692,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3702,14 +3708,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3719,14 +3725,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3735,14 +3741,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3752,14 +3758,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3768,14 +3774,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3785,14 +3791,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3801,14 +3807,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3818,14 +3824,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3834,14 +3840,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3851,14 +3857,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3867,14 +3873,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3884,14 +3890,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>57</v>
+        <v>188</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3907,7 +3913,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3917,14 +3923,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>197</v>
+        <v>60</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3940,7 +3946,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>148</v>
+        <v>26</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3950,14 +3956,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>95</v>
+        <v>199</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3966,14 +3972,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3983,14 +3989,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>215</v>
+        <v>98</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3999,14 +4005,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4016,14 +4022,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4032,14 +4038,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4049,14 +4055,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>176</v>
+        <v>220</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>221</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4072,7 +4078,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>36</v>
+        <v>133</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4082,11 +4088,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>223</v>
+        <v>178</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>28</v>
@@ -4098,31 +4104,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>149</v>
+        <v>225</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4138,21 +4144,21 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>126</v>
+        <v>23</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>28</v>
@@ -4164,14 +4170,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4181,14 +4187,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4197,14 +4203,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4214,14 +4220,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4230,14 +4236,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4247,14 +4253,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4270,7 +4276,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>239</v>
+        <v>26</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4280,14 +4286,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>69</v>
+        <v>239</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4296,14 +4302,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4313,11 +4319,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>72</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4329,14 +4335,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4346,11 +4352,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>21</v>
@@ -4362,14 +4368,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4379,11 +4385,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4395,14 +4401,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4412,14 +4418,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>114</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4435,7 +4441,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4445,14 +4451,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>255</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4468,7 +4474,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>257</v>
+        <v>40</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4478,14 +4484,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4494,14 +4500,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>31</v>
+        <v>259</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4511,14 +4517,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4527,14 +4533,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4544,14 +4550,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4560,14 +4566,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4577,14 +4583,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4593,14 +4599,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4610,14 +4616,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4626,14 +4632,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4643,11 +4649,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>113</v>
+        <v>272</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>114</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>21</v>
@@ -4659,14 +4665,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4676,14 +4682,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>274</v>
+        <v>115</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4692,14 +4698,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4709,14 +4715,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>33</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
         <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4732,7 +4738,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4742,14 +4748,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>279</v>
+        <v>37</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4758,14 +4764,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4775,14 +4781,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>142</v>
+        <v>281</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
         <v>282</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4798,7 +4804,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>284</v>
+        <v>128</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4808,14 +4814,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>100</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4841,14 +4847,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>287</v>
+        <v>102</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>288</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>289</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4857,14 +4863,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>126</v>
+        <v>288</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4874,14 +4880,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>88</v>
+        <v>289</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
+        <v>290</v>
+      </c>
+      <c t="s" r="Q103" s="12">
         <v>291</v>
-      </c>
-      <c t="s" r="Q103" s="12">
-        <v>28</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4897,7 +4903,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4907,14 +4913,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>149</v>
+        <v>91</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
         <v>293</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4930,7 +4936,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4940,14 +4946,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>295</v>
+        <v>151</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4956,14 +4962,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4973,14 +4979,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>57</v>
+        <v>297</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4989,14 +4995,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5006,14 +5012,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5022,14 +5028,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5039,14 +5045,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>301</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5055,31 +5061,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5088,31 +5094,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5121,31 +5127,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>307</v>
+        <v>57</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>218</v>
+        <v>305</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>219</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5161,24 +5167,24 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>126</v>
+        <v>309</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>309</v>
+        <v>220</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>310</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5187,31 +5193,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5220,31 +5226,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>313</v>
+        <v>128</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>242</v>
+        <v>26</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5253,31 +5259,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>146</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>28</v>
+        <v>244</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5286,20 +5292,20 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>126</v>
+        <v>319</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
@@ -5307,10 +5313,10 @@
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>288</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5326,24 +5332,24 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>140</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>322</v>
+        <v>40</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5359,24 +5365,24 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>219</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>91</v>
+        <v>324</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5392,13 +5398,13 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
@@ -5406,10 +5412,10 @@
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>327</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>28</v>
+        <v>94</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5418,31 +5424,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>329</v>
+        <v>26</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5451,31 +5457,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>218</v>
+        <v>332</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>219</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5491,24 +5497,24 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>126</v>
+        <v>335</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5517,31 +5523,31 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>336</v>
+        <v>220</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>337</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5550,31 +5556,31 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
         <v>339</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5590,24 +5596,24 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>341</v>
+        <v>108</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>218</v>
+        <v>320</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5623,24 +5629,24 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>126</v>
+        <v>343</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>343</v>
+        <v>220</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>288</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5656,24 +5662,24 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>341</v>
+        <v>128</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>95</v>
+        <v>345</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>189</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5682,31 +5688,31 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>206</v>
+        <v>98</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5722,59 +5728,92 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>322</v>
+        <v>348</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>318</v>
+        <v>208</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>146</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
-      <c r="P130" s="13">
-        <v>6739.6450000000004</v>
-      </c>
-      <c r="Q130" s="13"/>
-    </row>
-    <row r="131" ht="16.5" customHeight="1">
-      <c t="s" r="A131" s="14">
-        <v>348</v>
-      </c>
-      <c r="B131" s="14"/>
-      <c r="C131" s="14"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
-      <c t="s" r="G131" s="15">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
         <v>349</v>
       </c>
-      <c r="H131" s="15"/>
-      <c r="I131" s="15"/>
-      <c r="J131" s="16"/>
-      <c t="s" r="K131" s="17">
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>324</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>29</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>320</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="P131" s="13">
+        <v>6772.6450000000004</v>
+      </c>
+      <c r="Q131" s="13"/>
+    </row>
+    <row r="132" ht="16.5" customHeight="1">
+      <c t="s" r="A132" s="14">
         <v>350</v>
       </c>
-      <c r="L131" s="17"/>
-      <c r="M131" s="17"/>
-      <c r="N131" s="17"/>
-      <c r="O131" s="17"/>
-      <c r="P131" s="17"/>
-      <c r="Q131" s="17"/>
+      <c r="B132" s="14"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c t="s" r="G132" s="15">
+        <v>351</v>
+      </c>
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
+      <c r="J132" s="16"/>
+      <c t="s" r="K132" s="17">
+        <v>352</v>
+      </c>
+      <c r="L132" s="17"/>
+      <c r="M132" s="17"/>
+      <c r="N132" s="17"/>
+      <c r="O132" s="17"/>
+      <c r="P132" s="17"/>
+      <c r="Q132" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="627">
+  <mergeCells count="632">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6398,10 +6437,15 @@
     <mergeCell ref="H129:K129"/>
     <mergeCell ref="L129:M129"/>
     <mergeCell ref="N129:O129"/>
-    <mergeCell ref="P130:Q130"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="G131:I131"/>
-    <mergeCell ref="K131:Q131"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="P131:Q131"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="G132:I132"/>
+    <mergeCell ref="K132:Q132"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -254,6 +254,18 @@
     <t>39.8000</t>
   </si>
   <si>
+    <t>CALDIN ZINC SUSP. 120 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>CAPOZIDE 50/25MG 30 TAB.</t>
   </si>
   <si>
@@ -395,9 +407,6 @@
     <t>DEXAZONE 0.5MG 60 TAB</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>33.6600</t>
   </si>
   <si>
@@ -572,6 +581,15 @@
     <t>57.0000</t>
   </si>
   <si>
+    <t>KATIVAROX SYRUP</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
     <t>KERELLA LOTION 30 ML</t>
   </si>
   <si>
@@ -833,18 +851,15 @@
     <t>40.5900</t>
   </si>
   <si>
+    <t>TOTAL 500MG/5ML SYRUP 120 ML</t>
+  </si>
+  <si>
     <t>URINEX 24 CAPS</t>
   </si>
   <si>
     <t>URSOFALK 250MG 20 CAPS.</t>
   </si>
   <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>122.0000</t>
-  </si>
-  <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
@@ -1061,7 +1076,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 9:32 PM</t>
+    <t>Sunday, 5 October, 2025 9:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2329,7 +2344,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2339,14 +2354,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2355,14 +2370,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2372,14 +2387,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2388,31 +2403,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2421,28 +2436,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -2454,14 +2469,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2478,7 +2493,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2494,7 +2509,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2504,14 +2519,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2520,14 +2535,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2560,7 +2575,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2570,14 +2585,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2586,14 +2601,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2603,14 +2618,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>57</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2619,14 +2634,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2636,14 +2651,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2652,14 +2667,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2669,14 +2684,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2685,14 +2700,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2702,14 +2717,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2718,14 +2733,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2735,11 +2750,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2751,14 +2766,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2768,11 +2783,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2784,28 +2799,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2817,28 +2832,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2850,14 +2865,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2867,14 +2882,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2883,14 +2898,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2900,14 +2915,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>133</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2916,14 +2931,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2933,14 +2948,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q44" s="12">
         <v>136</v>
-      </c>
-      <c t="s" r="Q44" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2956,7 +2971,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2989,7 +3004,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3006,7 +3021,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3022,13 +3037,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -3055,13 +3070,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -3088,7 +3103,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3098,14 +3113,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3114,14 +3129,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3131,14 +3146,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3147,20 +3162,20 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>28</v>
+        <v>157</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -3193,15 +3208,15 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>19</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>20</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -3213,14 +3228,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3230,11 +3245,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>19</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -3253,7 +3268,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3263,14 +3278,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>118</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3279,14 +3294,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3296,11 +3311,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>122</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>26</v>
@@ -3319,7 +3334,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3336,7 +3351,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3352,7 +3367,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>128</v>
+        <v>28</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3362,14 +3377,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>115</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3378,14 +3393,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3395,14 +3410,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3411,14 +3426,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>40</v>
+        <v>177</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3435,7 +3450,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3451,21 +3466,21 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>124</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>26</v>
@@ -3477,28 +3492,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>26</v>
@@ -3510,24 +3525,24 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3550,13 +3565,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3583,24 +3598,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>47</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3609,14 +3624,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3626,14 +3641,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>141</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>142</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3642,14 +3657,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3659,14 +3674,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>86</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3675,14 +3690,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3692,14 +3707,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>144</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3708,7 +3723,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3725,11 +3740,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>185</v>
+        <v>89</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>186</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>26</v>
@@ -3741,14 +3756,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3758,11 +3773,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>26</v>
@@ -3774,14 +3789,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3791,11 +3806,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>26</v>
@@ -3814,7 +3829,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>128</v>
+        <v>50</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3847,7 +3862,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3880,7 +3895,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3890,11 +3905,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>26</v>
@@ -3906,7 +3921,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3923,11 +3938,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>60</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>26</v>
@@ -3939,14 +3954,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3956,14 +3971,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3972,14 +3987,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3989,11 +4004,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>26</v>
@@ -4005,14 +4020,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4022,14 +4037,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4038,14 +4053,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4055,11 +4070,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>220</v>
+        <v>102</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>26</v>
@@ -4078,7 +4093,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4088,14 +4103,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4104,14 +4119,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4121,11 +4136,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>26</v>
@@ -4137,28 +4152,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>28</v>
@@ -4170,14 +4185,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4187,11 +4202,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>26</v>
@@ -4203,31 +4218,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>233</v>
+        <v>154</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4243,7 +4258,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4260,7 +4275,7 @@
         <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4276,7 +4291,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4290,7 +4305,7 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>26</v>
@@ -4302,14 +4317,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>241</v>
+        <v>21</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4319,11 +4334,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>72</v>
+        <v>242</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4335,14 +4350,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>244</v>
+        <v>26</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4356,10 +4371,10 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4368,14 +4383,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4385,11 +4400,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>72</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4401,14 +4416,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4418,11 +4433,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>21</v>
@@ -4434,14 +4449,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>94</v>
+        <v>254</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4455,10 +4470,10 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>116</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4467,14 +4482,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4484,14 +4499,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4500,14 +4515,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>259</v>
+        <v>98</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4517,14 +4532,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4540,7 +4555,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4550,11 +4565,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>26</v>
@@ -4566,14 +4581,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>128</v>
+        <v>265</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4590,7 +4605,7 @@
         <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4606,7 +4621,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4639,7 +4654,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4656,7 +4671,7 @@
         <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4672,7 +4687,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4682,14 +4697,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>115</v>
+        <v>275</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>116</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4698,14 +4713,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4715,14 +4730,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4731,14 +4746,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4748,14 +4763,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>37</v>
+        <v>275</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4764,14 +4779,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4781,14 +4796,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>281</v>
+        <v>119</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>282</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4797,14 +4812,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4814,11 +4829,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>284</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>26</v>
@@ -4830,14 +4845,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>286</v>
+        <v>40</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4847,11 +4862,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>103</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>21</v>
@@ -4863,14 +4878,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>288</v>
+        <v>26</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4880,14 +4895,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>291</v>
+        <v>26</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4896,14 +4911,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4913,11 +4928,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>26</v>
@@ -4929,14 +4944,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>128</v>
+        <v>291</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4946,14 +4961,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>295</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4962,14 +4977,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>128</v>
+        <v>293</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4979,14 +4994,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>26</v>
+        <v>296</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4995,14 +5010,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5012,11 +5027,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>212</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>26</v>
@@ -5028,14 +5043,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5045,11 +5060,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>60</v>
+        <v>154</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>212</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>26</v>
@@ -5068,7 +5083,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5101,21 +5116,21 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>305</v>
+        <v>60</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>306</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>26</v>
@@ -5127,28 +5142,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>305</v>
+        <v>60</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>306</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>26</v>
@@ -5160,28 +5175,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>309</v>
+        <v>98</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>220</v>
+        <v>307</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>221</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>26</v>
@@ -5193,14 +5208,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5210,11 +5225,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>26</v>
@@ -5226,14 +5241,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5243,11 +5258,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>26</v>
@@ -5259,14 +5274,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5276,14 +5291,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>316</v>
+        <v>226</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>317</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>244</v>
+        <v>26</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5292,14 +5307,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>319</v>
+        <v>82</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5309,11 +5324,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>148</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>26</v>
@@ -5325,14 +5340,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5342,14 +5357,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5358,14 +5373,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>128</v>
+        <v>320</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5375,14 +5390,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>142</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>324</v>
+        <v>250</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5391,14 +5406,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>128</v>
+        <v>324</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5408,14 +5423,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>221</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>94</v>
+        <v>26</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5424,14 +5439,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5441,14 +5456,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>329</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5457,14 +5472,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>331</v>
+        <v>82</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5474,14 +5489,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>332</v>
+        <v>294</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>333</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>26</v>
+        <v>329</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5490,14 +5505,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>335</v>
+        <v>82</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5507,14 +5522,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>220</v>
+        <v>331</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>26</v>
+        <v>98</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5523,14 +5538,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5540,11 +5555,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>220</v>
+        <v>333</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>221</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>26</v>
@@ -5556,14 +5571,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>26</v>
+        <v>336</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5573,11 +5588,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>26</v>
@@ -5589,14 +5604,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>108</v>
+        <v>340</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5606,14 +5621,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>320</v>
+        <v>226</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>341</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5622,14 +5637,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>343</v>
+        <v>82</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5639,14 +5654,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>339</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5655,14 +5670,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5672,11 +5687,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>290</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>26</v>
@@ -5688,14 +5703,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>343</v>
+        <v>112</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5705,14 +5720,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>98</v>
+        <v>325</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>191</v>
+        <v>346</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5738,14 +5753,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>209</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5761,7 +5776,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>324</v>
+        <v>82</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5771,49 +5786,148 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>148</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>26</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
-      <c r="P131" s="13">
-        <v>6772.6450000000004</v>
-      </c>
-      <c r="Q131" s="13"/>
-    </row>
-    <row r="132" ht="16.5" customHeight="1">
-      <c t="s" r="A132" s="14">
-        <v>350</v>
-      </c>
-      <c r="B132" s="14"/>
-      <c r="C132" s="14"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
-      <c t="s" r="G132" s="15">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
         <v>351</v>
       </c>
-      <c r="H132" s="15"/>
-      <c r="I132" s="15"/>
-      <c r="J132" s="16"/>
-      <c t="s" r="K132" s="17">
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>348</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>29</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>102</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>197</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
         <v>352</v>
       </c>
-      <c r="L132" s="17"/>
-      <c r="M132" s="17"/>
-      <c r="N132" s="17"/>
-      <c r="O132" s="17"/>
-      <c r="P132" s="17"/>
-      <c r="Q132" s="17"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>353</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>29</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>214</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>215</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
+        <v>354</v>
+      </c>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>329</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>29</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>325</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="P134" s="13">
+        <v>7069.6450000000004</v>
+      </c>
+      <c r="Q134" s="13"/>
+    </row>
+    <row r="135" ht="16.5" customHeight="1">
+      <c t="s" r="A135" s="14">
+        <v>355</v>
+      </c>
+      <c r="B135" s="14"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="14"/>
+      <c r="F135" s="14"/>
+      <c t="s" r="G135" s="15">
+        <v>356</v>
+      </c>
+      <c r="H135" s="15"/>
+      <c r="I135" s="15"/>
+      <c r="J135" s="16"/>
+      <c t="s" r="K135" s="17">
+        <v>357</v>
+      </c>
+      <c r="L135" s="17"/>
+      <c r="M135" s="17"/>
+      <c r="N135" s="17"/>
+      <c r="O135" s="17"/>
+      <c r="P135" s="17"/>
+      <c r="Q135" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="632">
+  <mergeCells count="647">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6442,10 +6556,25 @@
     <mergeCell ref="H130:K130"/>
     <mergeCell ref="L130:M130"/>
     <mergeCell ref="N130:O130"/>
-    <mergeCell ref="P131:Q131"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="G132:I132"/>
-    <mergeCell ref="K132:Q132"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="P134:Q134"/>
+    <mergeCell ref="A135:F135"/>
+    <mergeCell ref="G135:I135"/>
+    <mergeCell ref="K135:Q135"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -401,6 +401,15 @@
     <t>65.0000</t>
   </si>
   <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -491,6 +500,15 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>FERROTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>159.00</t>
+  </si>
+  <si>
+    <t>52.4700</t>
+  </si>
+  <si>
     <t xml:space="preserve">FLAMOGEST  30TABS</t>
   </si>
   <si>
@@ -671,84 +689,84 @@
     <t>OSTEOCARE 30 TABS</t>
   </si>
   <si>
+    <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>PANADOL COLD &amp; FLU DAY 24 F.C. TABS</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>PARAGESIC 500MG 5 SUPP.</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>PARAMOL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>PERLOC 40MG 14 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
     <t>75.0000</t>
   </si>
   <si>
-    <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
-  </si>
-  <si>
-    <t>89.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>PANADOL COLD &amp; FLU DAY 24 F.C. TABS</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>80.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>PARAGESIC 500MG 5 SUPP.</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>PARAMOL 500MG 20 TAB</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>PERLOC 40MG 14 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
     <t>PETRO 30 TAB</t>
   </si>
   <si>
@@ -857,6 +875,12 @@
     <t>URINEX 24 CAPS</t>
   </si>
   <si>
+    <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>URSOFALK 250MG 20 CAPS.</t>
   </si>
   <si>
@@ -998,85 +1022,88 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>سيتي بيبي رقم 4</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
+    <t>صوفي طويل جدا</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>فرشه اسنان POWER GOLD كبار</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>كريم بانسيه</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>كريم فيرند لافلي الكبير</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>ماكينه حلاقه جليت فليكتور</t>
+  </si>
+  <si>
+    <t>25:0</t>
+  </si>
+  <si>
+    <t>مجموعه برد</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>معجون سيجنال 25 مل</t>
+  </si>
+  <si>
+    <t>معجون سيجنال 50 مل</t>
+  </si>
+  <si>
     <t>11:0</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>سيتي بيبي رقم 4</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>190.0000</t>
-  </si>
-  <si>
-    <t>صوفي طويل جدا</t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>فرشه اسنان POWER GOLD كبار</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>كريم بانسيه</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>كريم فيرند لافلي الكبير</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>ماكينه حلاقه جليت فليكتور</t>
-  </si>
-  <si>
-    <t>25:0</t>
-  </si>
-  <si>
-    <t>مجموعه برد</t>
-  </si>
-  <si>
-    <t>8.00</t>
-  </si>
-  <si>
-    <t>محلول ملح</t>
-  </si>
-  <si>
-    <t>معجون سيجنال 25 مل</t>
-  </si>
-  <si>
-    <t>16:0</t>
-  </si>
-  <si>
-    <t>معجون سيجنال 50 مل</t>
-  </si>
-  <si>
-    <t>Sunday, 5 October, 2025 9:37 PM</t>
+    <t>Sunday, 5 October, 2025 9:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2872,7 +2899,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2882,14 +2909,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2898,14 +2925,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2915,14 +2942,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2931,14 +2958,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2948,14 +2975,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2964,14 +2991,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>26</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2981,14 +3008,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q45" s="12">
         <v>139</v>
-      </c>
-      <c t="s" r="Q45" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3004,7 +3031,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3037,7 +3064,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3054,7 +3081,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3070,13 +3097,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -3103,13 +3130,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -3136,7 +3163,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3146,14 +3173,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3162,14 +3189,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3179,14 +3206,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3195,20 +3222,20 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -3235,7 +3262,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3245,11 +3272,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -3261,28 +3288,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -3294,14 +3321,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3311,14 +3338,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3327,14 +3354,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3344,14 +3371,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3360,14 +3387,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3377,14 +3404,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>122</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3410,14 +3437,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3426,14 +3453,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>177</v>
+        <v>28</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3466,7 +3493,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3476,14 +3503,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>119</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3492,31 +3519,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>26</v>
+        <v>183</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3525,14 +3552,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3542,11 +3569,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>144</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>26</v>
@@ -3558,14 +3585,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3575,11 +3602,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>128</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>26</v>
@@ -3591,7 +3618,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3604,11 +3631,11 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>147</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3631,13 +3658,13 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3664,24 +3691,24 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>47</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3690,14 +3717,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3707,14 +3734,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>144</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3723,14 +3750,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3740,14 +3767,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>90</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3756,14 +3783,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3773,14 +3800,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>147</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3789,7 +3816,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3806,11 +3833,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>188</v>
+        <v>89</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>26</v>
@@ -3822,14 +3849,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3839,11 +3866,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>26</v>
@@ -3855,14 +3882,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3872,11 +3899,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>26</v>
@@ -3895,7 +3922,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3928,7 +3955,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3961,7 +3988,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3971,11 +3998,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>26</v>
@@ -3987,7 +4014,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -4004,11 +4031,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>26</v>
@@ -4020,14 +4047,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4037,14 +4064,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4053,14 +4080,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>153</v>
+        <v>26</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4070,11 +4097,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>26</v>
@@ -4086,14 +4113,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4103,11 +4130,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>26</v>
@@ -4119,14 +4146,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4136,11 +4163,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>226</v>
+        <v>102</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>26</v>
@@ -4152,14 +4179,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4169,14 +4196,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>181</v>
+        <v>228</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4192,7 +4219,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4225,17 +4252,17 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>23</v>
+        <v>139</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
@@ -4258,7 +4285,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4291,24 +4318,24 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>239</v>
+        <v>157</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4317,14 +4344,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4334,14 +4361,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4350,14 +4377,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4367,11 +4394,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>26</v>
@@ -4390,7 +4417,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>247</v>
+        <v>21</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4400,7 +4427,7 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>72</v>
+        <v>247</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
@@ -4423,7 +4450,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>250</v>
+        <v>26</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4433,14 +4460,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4449,14 +4476,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4466,11 +4493,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>72</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>21</v>
@@ -4482,14 +4509,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>105</v>
+        <v>256</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4499,11 +4526,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4515,14 +4542,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>98</v>
+        <v>260</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4536,10 +4563,10 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>120</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4548,14 +4575,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4565,14 +4592,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4581,14 +4608,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>265</v>
+        <v>98</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4598,14 +4625,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>267</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4621,7 +4648,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4631,11 +4658,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>26</v>
@@ -4647,14 +4674,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>82</v>
+        <v>271</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4671,7 +4698,7 @@
         <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4687,7 +4714,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4720,7 +4747,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4737,7 +4764,7 @@
         <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4753,7 +4780,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4763,11 +4790,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>26</v>
@@ -4779,14 +4806,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4796,11 +4823,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>119</v>
+        <v>284</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>120</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>21</v>
@@ -4812,14 +4839,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4829,11 +4856,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>191</v>
+        <v>281</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>192</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>26</v>
@@ -4845,14 +4872,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4862,11 +4889,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>284</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>21</v>
@@ -4878,14 +4905,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4895,11 +4922,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>26</v>
@@ -4911,14 +4938,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4928,11 +4955,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>147</v>
+        <v>197</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>289</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>26</v>
@@ -4944,14 +4971,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>291</v>
+        <v>40</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4961,11 +4988,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>107</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>21</v>
@@ -4977,14 +5004,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>293</v>
+        <v>26</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5001,7 +5028,7 @@
         <v>295</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>296</v>
+        <v>26</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5010,7 +5037,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -5027,11 +5054,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>26</v>
@@ -5043,14 +5070,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>82</v>
+        <v>299</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5060,14 +5087,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>300</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5076,14 +5103,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>82</v>
+        <v>301</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5100,7 +5127,7 @@
         <v>303</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>26</v>
+        <v>304</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5109,14 +5136,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5126,11 +5153,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>218</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>26</v>
@@ -5142,14 +5169,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5159,11 +5186,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>60</v>
+        <v>157</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>218</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>26</v>
@@ -5175,14 +5202,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5192,11 +5219,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>26</v>
@@ -5208,28 +5235,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>310</v>
+        <v>60</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>311</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>26</v>
@@ -5241,28 +5268,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>310</v>
+        <v>60</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>311</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>26</v>
@@ -5274,28 +5301,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>314</v>
+        <v>98</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>226</v>
+        <v>315</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>227</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>26</v>
@@ -5307,14 +5334,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5324,11 +5351,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>26</v>
@@ -5340,14 +5367,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5357,11 +5384,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>26</v>
@@ -5373,14 +5400,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5390,14 +5417,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>321</v>
+        <v>231</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>322</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>250</v>
+        <v>26</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5413,7 +5440,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>324</v>
+        <v>82</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5423,11 +5450,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>151</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>26</v>
@@ -5456,14 +5483,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5472,14 +5499,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>82</v>
+        <v>328</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5489,14 +5516,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>145</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>329</v>
+        <v>256</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5505,14 +5532,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>82</v>
+        <v>332</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5522,14 +5549,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>227</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>98</v>
+        <v>26</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5538,14 +5565,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5555,14 +5582,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>334</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5571,14 +5598,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>336</v>
+        <v>82</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5588,14 +5615,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>337</v>
+        <v>302</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
+        <v>337</v>
+      </c>
+      <c t="s" r="Q124" s="12">
         <v>338</v>
-      </c>
-      <c t="s" r="Q124" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5611,7 +5638,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>340</v>
+        <v>82</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5621,14 +5648,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>226</v>
+        <v>340</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>26</v>
+        <v>98</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5644,7 +5671,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5654,11 +5681,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>226</v>
+        <v>342</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>227</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>26</v>
@@ -5670,14 +5697,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>26</v>
+        <v>345</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5687,11 +5714,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>26</v>
@@ -5703,14 +5730,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>112</v>
+        <v>349</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5720,14 +5747,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>325</v>
+        <v>231</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>346</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5736,14 +5763,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>348</v>
+        <v>82</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5753,14 +5780,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>344</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5769,14 +5796,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5786,11 +5813,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>295</v>
+        <v>353</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>26</v>
@@ -5802,14 +5829,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>348</v>
+        <v>112</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5819,14 +5846,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>102</v>
+        <v>333</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>197</v>
+        <v>355</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5835,14 +5862,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5852,14 +5879,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>215</v>
+        <v>353</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5868,14 +5895,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>329</v>
+        <v>82</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5885,49 +5912,148 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>151</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>26</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
-      <c r="P134" s="13">
-        <v>7069.6450000000004</v>
-      </c>
-      <c r="Q134" s="13"/>
-    </row>
-    <row r="135" ht="16.5" customHeight="1">
-      <c t="s" r="A135" s="14">
-        <v>355</v>
-      </c>
-      <c r="B135" s="14"/>
-      <c r="C135" s="14"/>
-      <c r="D135" s="14"/>
-      <c r="E135" s="14"/>
-      <c r="F135" s="14"/>
-      <c t="s" r="G135" s="15">
-        <v>356</v>
-      </c>
-      <c r="H135" s="15"/>
-      <c r="I135" s="15"/>
-      <c r="J135" s="16"/>
-      <c t="s" r="K135" s="17">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
+        <v>360</v>
+      </c>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
         <v>357</v>
       </c>
-      <c r="L135" s="17"/>
-      <c r="M135" s="17"/>
-      <c r="N135" s="17"/>
-      <c r="O135" s="17"/>
-      <c r="P135" s="17"/>
-      <c r="Q135" s="17"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>29</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
+        <v>102</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
+        <v>203</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c t="s" r="C135" s="8">
+        <v>361</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
+        <v>338</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c t="s" r="L135" s="10">
+        <v>29</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c t="s" r="N135" s="8">
+        <v>220</v>
+      </c>
+      <c r="O135" s="8"/>
+      <c t="s" r="P135" s="11">
+        <v>221</v>
+      </c>
+      <c t="s" r="Q135" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="A136" s="7">
+        <v>130</v>
+      </c>
+      <c r="B136" s="7"/>
+      <c t="s" r="C136" s="8">
+        <v>362</v>
+      </c>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c t="s" r="H136" s="9">
+        <v>363</v>
+      </c>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c t="s" r="L136" s="10">
+        <v>29</v>
+      </c>
+      <c r="M136" s="10"/>
+      <c t="s" r="N136" s="8">
+        <v>333</v>
+      </c>
+      <c r="O136" s="8"/>
+      <c t="s" r="P136" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q136" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="P137" s="13">
+        <v>7330.1149999999998</v>
+      </c>
+      <c r="Q137" s="13"/>
+    </row>
+    <row r="138" ht="16.5" customHeight="1">
+      <c t="s" r="A138" s="14">
+        <v>364</v>
+      </c>
+      <c r="B138" s="14"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="14"/>
+      <c r="F138" s="14"/>
+      <c t="s" r="G138" s="15">
+        <v>365</v>
+      </c>
+      <c r="H138" s="15"/>
+      <c r="I138" s="15"/>
+      <c r="J138" s="16"/>
+      <c t="s" r="K138" s="17">
+        <v>366</v>
+      </c>
+      <c r="L138" s="17"/>
+      <c r="M138" s="17"/>
+      <c r="N138" s="17"/>
+      <c r="O138" s="17"/>
+      <c r="P138" s="17"/>
+      <c r="Q138" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="647">
+  <mergeCells count="662">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6571,10 +6697,25 @@
     <mergeCell ref="H133:K133"/>
     <mergeCell ref="L133:M133"/>
     <mergeCell ref="N133:O133"/>
-    <mergeCell ref="P134:Q134"/>
-    <mergeCell ref="A135:F135"/>
-    <mergeCell ref="G135:I135"/>
-    <mergeCell ref="K135:Q135"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="N136:O136"/>
+    <mergeCell ref="P137:Q137"/>
+    <mergeCell ref="A138:F138"/>
+    <mergeCell ref="G138:I138"/>
+    <mergeCell ref="K138:Q138"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-05_00-00.xlsx
+++ b/DaySale_2025-10-05_00-00.xlsx
@@ -812,9 +812,15 @@
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
+    <t>4:0</t>
+  </si>
+  <si>
     <t>21.00</t>
   </si>
   <si>
+    <t>42.0000</t>
+  </si>
+  <si>
     <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
   </si>
   <si>
@@ -923,9 +929,6 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>XITHRONE 500MG 5 F.C.TAB.</t>
   </si>
   <si>
@@ -953,6 +956,9 @@
     <t>ZINOL 1GM I.M./I.V. VIAL</t>
   </si>
   <si>
+    <t>ZISROCIN 500MG 3 CAP</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -992,6 +998,9 @@
     <t>جل صبار للبشره</t>
   </si>
   <si>
+    <t>جونتي عمال</t>
+  </si>
+  <si>
     <t>حفاضات كبار سن جير ميني 36ق</t>
   </si>
   <si>
@@ -1103,7 +1112,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Sunday, 5 October, 2025 9:41 PM</t>
+    <t>Sunday, 5 October, 2025 10:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4153,7 +4162,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>156</v>
+        <v>98</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4167,10 +4176,10 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4615,7 +4624,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>98</v>
+        <v>267</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4625,14 +4634,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>120</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4641,7 +4650,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4662,7 +4671,7 @@
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>26</v>
@@ -4674,14 +4683,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4691,11 +4700,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>21</v>
@@ -4707,7 +4716,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4724,11 +4733,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>26</v>
@@ -4740,7 +4749,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4757,11 +4766,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>26</v>
@@ -4773,7 +4782,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4790,11 +4799,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>26</v>
@@ -4806,7 +4815,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4823,11 +4832,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>21</v>
@@ -4839,7 +4848,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4856,11 +4865,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>26</v>
@@ -4872,7 +4881,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4905,7 +4914,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4926,7 +4935,7 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>26</v>
@@ -4938,7 +4947,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4971,7 +4980,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4992,7 +5001,7 @@
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>21</v>
@@ -5004,7 +5013,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -5021,11 +5030,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>26</v>
@@ -5037,7 +5046,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -5058,7 +5067,7 @@
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>26</v>
@@ -5070,14 +5079,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5103,14 +5112,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5120,14 +5129,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>304</v>
+        <v>267</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5136,7 +5145,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5157,7 +5166,7 @@
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>26</v>
@@ -5169,7 +5178,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5190,7 +5199,7 @@
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">